--- a/04_Model_Saved/NN_full_v3_BO_optimal/MultiTaskModel_NiCrCoVFe_KW99_wt_pct_ML_mc_shared_relu.xlsx
+++ b/04_Model_Saved/NN_full_v3_BO_optimal/MultiTaskModel_NiCrCoVFe_KW99_wt_pct_ML_mc_shared_relu.xlsx
@@ -505,16 +505,16 @@
         <v>10.27148578895017</v>
       </c>
       <c r="G2" t="n">
-        <v>204.0142059326172</v>
+        <v>203.1784820556641</v>
       </c>
       <c r="H2" t="n">
-        <v>75.21268463134766</v>
+        <v>70.97917938232422</v>
       </c>
       <c r="I2" t="n">
-        <v>484.0676574707031</v>
+        <v>478.7578735351562</v>
       </c>
       <c r="J2" t="n">
-        <v>98.71187591552734</v>
+        <v>93.90134429931641</v>
       </c>
     </row>
     <row r="3">
@@ -537,16 +537,16 @@
         <v>10.49540628405087</v>
       </c>
       <c r="G3" t="n">
-        <v>212.9700317382812</v>
+        <v>214.4043731689453</v>
       </c>
       <c r="H3" t="n">
-        <v>70.38626098632812</v>
+        <v>69.797607421875</v>
       </c>
       <c r="I3" t="n">
-        <v>507.21337890625</v>
+        <v>516.369873046875</v>
       </c>
       <c r="J3" t="n">
-        <v>104.4917678833008</v>
+        <v>104.7234725952148</v>
       </c>
     </row>
     <row r="4">
@@ -569,16 +569,16 @@
         <v>11.11292799977388</v>
       </c>
       <c r="G4" t="n">
-        <v>221.9287719726562</v>
+        <v>222.6168518066406</v>
       </c>
       <c r="H4" t="n">
-        <v>64.54424285888672</v>
+        <v>66.22988891601562</v>
       </c>
       <c r="I4" t="n">
-        <v>534.1408081054688</v>
+        <v>536.312744140625</v>
       </c>
       <c r="J4" t="n">
-        <v>118.7911682128906</v>
+        <v>111.099479675293</v>
       </c>
     </row>
     <row r="5">
@@ -601,16 +601,16 @@
         <v>11.33579528302992</v>
       </c>
       <c r="G5" t="n">
-        <v>235.0144500732422</v>
+        <v>236.0275268554688</v>
       </c>
       <c r="H5" t="n">
-        <v>67.34465026855469</v>
+        <v>64.5460205078125</v>
       </c>
       <c r="I5" t="n">
-        <v>542.745849609375</v>
+        <v>544.4466552734375</v>
       </c>
       <c r="J5" t="n">
-        <v>119.4303512573242</v>
+        <v>114.2264633178711</v>
       </c>
     </row>
     <row r="6">
@@ -633,16 +633,16 @@
         <v>11.53221857575777</v>
       </c>
       <c r="G6" t="n">
-        <v>249.5390167236328</v>
+        <v>253.3565063476562</v>
       </c>
       <c r="H6" t="n">
-        <v>71.56773376464844</v>
+        <v>74.45172882080078</v>
       </c>
       <c r="I6" t="n">
-        <v>537.23486328125</v>
+        <v>542.04345703125</v>
       </c>
       <c r="J6" t="n">
-        <v>128.6583099365234</v>
+        <v>127.7878646850586</v>
       </c>
     </row>
     <row r="7">
@@ -665,16 +665,16 @@
         <v>11.73836346032553</v>
       </c>
       <c r="G7" t="n">
-        <v>165.6256866455078</v>
+        <v>165.563720703125</v>
       </c>
       <c r="H7" t="n">
-        <v>72.5511474609375</v>
+        <v>73.89466094970703</v>
       </c>
       <c r="I7" t="n">
-        <v>402.4010009765625</v>
+        <v>404.423583984375</v>
       </c>
       <c r="J7" t="n">
-        <v>78.2249755859375</v>
+        <v>77.78568267822266</v>
       </c>
     </row>
     <row r="8">
@@ -697,16 +697,16 @@
         <v>12.47588443056982</v>
       </c>
       <c r="G8" t="n">
-        <v>177.9476165771484</v>
+        <v>181.2449340820312</v>
       </c>
       <c r="H8" t="n">
-        <v>71.17855834960938</v>
+        <v>66.17236328125</v>
       </c>
       <c r="I8" t="n">
-        <v>440.2950439453125</v>
+        <v>437.55322265625</v>
       </c>
       <c r="J8" t="n">
-        <v>82.84795379638672</v>
+        <v>84.43558502197266</v>
       </c>
     </row>
     <row r="9">
@@ -729,16 +729,16 @@
         <v>13.31360035996819</v>
       </c>
       <c r="G9" t="n">
-        <v>192.4776763916016</v>
+        <v>194.8363647460938</v>
       </c>
       <c r="H9" t="n">
-        <v>69.48474884033203</v>
+        <v>68.90280914306641</v>
       </c>
       <c r="I9" t="n">
-        <v>462.9696960449219</v>
+        <v>463.9391174316406</v>
       </c>
       <c r="J9" t="n">
-        <v>90.8350830078125</v>
+        <v>90.28404235839844</v>
       </c>
     </row>
     <row r="10">
@@ -761,16 +761,16 @@
         <v>14.04586286313179</v>
       </c>
       <c r="G10" t="n">
-        <v>211.2855529785156</v>
+        <v>216.24169921875</v>
       </c>
       <c r="H10" t="n">
-        <v>68.19184112548828</v>
+        <v>65.08403778076172</v>
       </c>
       <c r="I10" t="n">
-        <v>486.8331909179688</v>
+        <v>480.0063171386719</v>
       </c>
       <c r="J10" t="n">
-        <v>90.04423522949219</v>
+        <v>97.80192565917969</v>
       </c>
     </row>
     <row r="11">
@@ -793,16 +793,16 @@
         <v>14.78596965177877</v>
       </c>
       <c r="G11" t="n">
-        <v>221.9883117675781</v>
+        <v>223.8458099365234</v>
       </c>
       <c r="H11" t="n">
-        <v>60.01852798461914</v>
+        <v>59.28311920166016</v>
       </c>
       <c r="I11" t="n">
-        <v>503.8396911621094</v>
+        <v>506.5975646972656</v>
       </c>
       <c r="J11" t="n">
-        <v>97.04273986816406</v>
+        <v>98.85227203369141</v>
       </c>
     </row>
     <row r="12">
@@ -825,16 +825,16 @@
         <v>14.60750023008277</v>
       </c>
       <c r="G12" t="n">
-        <v>232.1662750244141</v>
+        <v>233.0547943115234</v>
       </c>
       <c r="H12" t="n">
-        <v>60.74532699584961</v>
+        <v>62.06406402587891</v>
       </c>
       <c r="I12" t="n">
-        <v>507.0742797851562</v>
+        <v>513.8270874023438</v>
       </c>
       <c r="J12" t="n">
-        <v>101.145751953125</v>
+        <v>108.8843612670898</v>
       </c>
     </row>
     <row r="13">
@@ -857,16 +857,16 @@
         <v>13.93632017907879</v>
       </c>
       <c r="G13" t="n">
-        <v>260.4413452148438</v>
+        <v>259.317138671875</v>
       </c>
       <c r="H13" t="n">
-        <v>63.43942642211914</v>
+        <v>65.79503631591797</v>
       </c>
       <c r="I13" t="n">
-        <v>499.0549621582031</v>
+        <v>495.8761901855469</v>
       </c>
       <c r="J13" t="n">
-        <v>125.8497161865234</v>
+        <v>129.3729858398438</v>
       </c>
     </row>
     <row r="14">
@@ -889,16 +889,16 @@
         <v>13.2060787967079</v>
       </c>
       <c r="G14" t="n">
-        <v>135.3538055419922</v>
+        <v>133.4996032714844</v>
       </c>
       <c r="H14" t="n">
-        <v>70.44268035888672</v>
+        <v>74.65072631835938</v>
       </c>
       <c r="I14" t="n">
-        <v>204.3618927001953</v>
+        <v>201.5323944091797</v>
       </c>
       <c r="J14" t="n">
-        <v>80.66110229492188</v>
+        <v>78.58525848388672</v>
       </c>
     </row>
     <row r="15">
@@ -921,16 +921,16 @@
         <v>14.43724685121477</v>
       </c>
       <c r="G15" t="n">
-        <v>153.0660247802734</v>
+        <v>142.6812591552734</v>
       </c>
       <c r="H15" t="n">
-        <v>67.39109802246094</v>
+        <v>70.46797943115234</v>
       </c>
       <c r="I15" t="n">
-        <v>261.6318054199219</v>
+        <v>267.3312377929688</v>
       </c>
       <c r="J15" t="n">
-        <v>81.68603515625</v>
+        <v>82.25449371337891</v>
       </c>
     </row>
     <row r="16">
@@ -953,16 +953,16 @@
         <v>15.77509757365795</v>
       </c>
       <c r="G16" t="n">
-        <v>166.9749145507812</v>
+        <v>167.3034820556641</v>
       </c>
       <c r="H16" t="n">
-        <v>66.14805603027344</v>
+        <v>67.59297180175781</v>
       </c>
       <c r="I16" t="n">
-        <v>331.102783203125</v>
+        <v>324.8306274414062</v>
       </c>
       <c r="J16" t="n">
-        <v>81.58497619628906</v>
+        <v>81.04387664794922</v>
       </c>
     </row>
     <row r="17">
@@ -985,16 +985,16 @@
         <v>17.01643502058164</v>
       </c>
       <c r="G17" t="n">
-        <v>179.4706573486328</v>
+        <v>183.0413513183594</v>
       </c>
       <c r="H17" t="n">
-        <v>67.13388061523438</v>
+        <v>69.14167785644531</v>
       </c>
       <c r="I17" t="n">
-        <v>396.1011352539062</v>
+        <v>396.9700622558594</v>
       </c>
       <c r="J17" t="n">
-        <v>81.08210754394531</v>
+        <v>75.27008056640625</v>
       </c>
     </row>
     <row r="18">
@@ -1017,16 +1017,16 @@
         <v>17.57324774662381</v>
       </c>
       <c r="G18" t="n">
-        <v>196.3779296875</v>
+        <v>193.10009765625</v>
       </c>
       <c r="H18" t="n">
-        <v>63.97369766235352</v>
+        <v>69.81431579589844</v>
       </c>
       <c r="I18" t="n">
-        <v>425.5405578613281</v>
+        <v>423.3625793457031</v>
       </c>
       <c r="J18" t="n">
-        <v>79.08322143554688</v>
+        <v>86.03870391845703</v>
       </c>
     </row>
     <row r="19">
@@ -1049,16 +1049,16 @@
         <v>18.2282289394109</v>
       </c>
       <c r="G19" t="n">
-        <v>208.3072814941406</v>
+        <v>206.9791717529297</v>
       </c>
       <c r="H19" t="n">
-        <v>67.6170654296875</v>
+        <v>60.81333923339844</v>
       </c>
       <c r="I19" t="n">
-        <v>465.2371215820312</v>
+        <v>460.9581298828125</v>
       </c>
       <c r="J19" t="n">
-        <v>89.63154602050781</v>
+        <v>80.76649475097656</v>
       </c>
     </row>
     <row r="20">
@@ -1081,16 +1081,16 @@
         <v>18.05168677518481</v>
       </c>
       <c r="G20" t="n">
-        <v>217.3254852294922</v>
+        <v>220.4989013671875</v>
       </c>
       <c r="H20" t="n">
-        <v>58.41591262817383</v>
+        <v>57.38239288330078</v>
       </c>
       <c r="I20" t="n">
-        <v>472.796142578125</v>
+        <v>472.1028747558594</v>
       </c>
       <c r="J20" t="n">
-        <v>105.6416397094727</v>
+        <v>102.3637847900391</v>
       </c>
     </row>
     <row r="21">
@@ -1113,16 +1113,16 @@
         <v>17.30316829702608</v>
       </c>
       <c r="G21" t="n">
-        <v>243.0990142822266</v>
+        <v>243.2581481933594</v>
       </c>
       <c r="H21" t="n">
-        <v>56.55774688720703</v>
+        <v>54.4799690246582</v>
       </c>
       <c r="I21" t="n">
-        <v>457.3416748046875</v>
+        <v>460.0316772460938</v>
       </c>
       <c r="J21" t="n">
-        <v>134.9385223388672</v>
+        <v>130.2178344726562</v>
       </c>
     </row>
     <row r="22">
@@ -1145,16 +1145,16 @@
         <v>15.87142913305469</v>
       </c>
       <c r="G22" t="n">
-        <v>296.8844299316406</v>
+        <v>299.168701171875</v>
       </c>
       <c r="H22" t="n">
-        <v>62.79342269897461</v>
+        <v>64.13583374023438</v>
       </c>
       <c r="I22" t="n">
-        <v>416.3893737792969</v>
+        <v>415.1681823730469</v>
       </c>
       <c r="J22" t="n">
-        <v>163.6900482177734</v>
+        <v>167.2868804931641</v>
       </c>
     </row>
     <row r="23">
@@ -1177,16 +1177,16 @@
         <v>16.2842163689804</v>
       </c>
       <c r="G23" t="n">
-        <v>138.6220245361328</v>
+        <v>129.9898681640625</v>
       </c>
       <c r="H23" t="n">
-        <v>74.1885986328125</v>
+        <v>69.74925231933594</v>
       </c>
       <c r="I23" t="n">
-        <v>138.5663299560547</v>
+        <v>140.3945617675781</v>
       </c>
       <c r="J23" t="n">
-        <v>79.88368225097656</v>
+        <v>73.74085235595703</v>
       </c>
     </row>
     <row r="24">
@@ -1209,16 +1209,16 @@
         <v>17.99859633271077</v>
       </c>
       <c r="G24" t="n">
-        <v>146.99560546875</v>
+        <v>147.1227111816406</v>
       </c>
       <c r="H24" t="n">
-        <v>69.74940490722656</v>
+        <v>67.37492370605469</v>
       </c>
       <c r="I24" t="n">
-        <v>182.7029266357422</v>
+        <v>178.2343444824219</v>
       </c>
       <c r="J24" t="n">
-        <v>79.83131408691406</v>
+        <v>78.52250671386719</v>
       </c>
     </row>
     <row r="25">
@@ -1241,16 +1241,16 @@
         <v>19.53665474474453</v>
       </c>
       <c r="G25" t="n">
-        <v>156.1969909667969</v>
+        <v>157.6357116699219</v>
       </c>
       <c r="H25" t="n">
-        <v>66.66044616699219</v>
+        <v>66.66754150390625</v>
       </c>
       <c r="I25" t="n">
-        <v>223.4033813476562</v>
+        <v>219.1276550292969</v>
       </c>
       <c r="J25" t="n">
-        <v>80.55234527587891</v>
+        <v>81.10814666748047</v>
       </c>
     </row>
     <row r="26">
@@ -1273,16 +1273,16 @@
         <v>21.18080958029204</v>
       </c>
       <c r="G26" t="n">
-        <v>171.4217529296875</v>
+        <v>171.4921264648438</v>
       </c>
       <c r="H26" t="n">
-        <v>63.46811294555664</v>
+        <v>66.97499847412109</v>
       </c>
       <c r="I26" t="n">
-        <v>280.9409484863281</v>
+        <v>282.0318603515625</v>
       </c>
       <c r="J26" t="n">
-        <v>78.28176116943359</v>
+        <v>86.04932403564453</v>
       </c>
     </row>
     <row r="27">
@@ -1305,16 +1305,16 @@
         <v>22.36133238808863</v>
       </c>
       <c r="G27" t="n">
-        <v>181.9603424072266</v>
+        <v>183.6697845458984</v>
       </c>
       <c r="H27" t="n">
-        <v>66.06711578369141</v>
+        <v>66.19107818603516</v>
       </c>
       <c r="I27" t="n">
-        <v>341.1536254882812</v>
+        <v>342.8627624511719</v>
       </c>
       <c r="J27" t="n">
-        <v>86.37236785888672</v>
+        <v>87.53322601318359</v>
       </c>
     </row>
     <row r="28">
@@ -1337,16 +1337,16 @@
         <v>22.25528267810615</v>
       </c>
       <c r="G28" t="n">
-        <v>194.95947265625</v>
+        <v>192.7278594970703</v>
       </c>
       <c r="H28" t="n">
-        <v>63.98481750488281</v>
+        <v>65.78080749511719</v>
       </c>
       <c r="I28" t="n">
-        <v>399.6396484375</v>
+        <v>395.1410827636719</v>
       </c>
       <c r="J28" t="n">
-        <v>89.50225830078125</v>
+        <v>91.98226165771484</v>
       </c>
     </row>
     <row r="29">
@@ -1369,16 +1369,16 @@
         <v>22.11853696692908</v>
       </c>
       <c r="G29" t="n">
-        <v>213.0497283935547</v>
+        <v>210.1404266357422</v>
       </c>
       <c r="H29" t="n">
-        <v>60.84242630004883</v>
+        <v>63.02460098266602</v>
       </c>
       <c r="I29" t="n">
-        <v>431.3442077636719</v>
+        <v>434.5093688964844</v>
       </c>
       <c r="J29" t="n">
-        <v>108.4507827758789</v>
+        <v>110.8534393310547</v>
       </c>
     </row>
     <row r="30">
@@ -1401,16 +1401,16 @@
         <v>21.13587239531939</v>
       </c>
       <c r="G30" t="n">
-        <v>242.2857513427734</v>
+        <v>244.8460693359375</v>
       </c>
       <c r="H30" t="n">
-        <v>54.49351501464844</v>
+        <v>54.11039733886719</v>
       </c>
       <c r="I30" t="n">
-        <v>437.3780822753906</v>
+        <v>440.5408935546875</v>
       </c>
       <c r="J30" t="n">
-        <v>142.8199920654297</v>
+        <v>144.7505493164062</v>
       </c>
     </row>
     <row r="31">
@@ -1433,16 +1433,16 @@
         <v>19.80061812897557</v>
       </c>
       <c r="G31" t="n">
-        <v>297.5257568359375</v>
+        <v>296.809814453125</v>
       </c>
       <c r="H31" t="n">
-        <v>58.07795333862305</v>
+        <v>62.45798110961914</v>
       </c>
       <c r="I31" t="n">
-        <v>386.3537902832031</v>
+        <v>387.1149291992188</v>
       </c>
       <c r="J31" t="n">
-        <v>174.1633911132812</v>
+        <v>178.6534423828125</v>
       </c>
     </row>
     <row r="32">
@@ -1465,16 +1465,16 @@
         <v>20.55168297688286</v>
       </c>
       <c r="G32" t="n">
-        <v>132.3857574462891</v>
+        <v>133.5183715820312</v>
       </c>
       <c r="H32" t="n">
-        <v>70.38726043701172</v>
+        <v>68.32554626464844</v>
       </c>
       <c r="I32" t="n">
-        <v>90.39163208007812</v>
+        <v>92.97144317626953</v>
       </c>
       <c r="J32" t="n">
-        <v>71.65009307861328</v>
+        <v>70.27163696289062</v>
       </c>
     </row>
     <row r="33">
@@ -1497,16 +1497,16 @@
         <v>22.96934284445093</v>
       </c>
       <c r="G33" t="n">
-        <v>147.0853271484375</v>
+        <v>148.0450286865234</v>
       </c>
       <c r="H33" t="n">
-        <v>68.62677764892578</v>
+        <v>68.35245513916016</v>
       </c>
       <c r="I33" t="n">
-        <v>124.6562652587891</v>
+        <v>122.6163635253906</v>
       </c>
       <c r="J33" t="n">
-        <v>75.7830810546875</v>
+        <v>76.06974029541016</v>
       </c>
     </row>
     <row r="34">
@@ -1529,16 +1529,16 @@
         <v>24.40915250803127</v>
       </c>
       <c r="G34" t="n">
-        <v>155.5216522216797</v>
+        <v>159.2907104492188</v>
       </c>
       <c r="H34" t="n">
-        <v>64.73933410644531</v>
+        <v>69.36846160888672</v>
       </c>
       <c r="I34" t="n">
-        <v>155.6278686523438</v>
+        <v>157.7015228271484</v>
       </c>
       <c r="J34" t="n">
-        <v>80.08545684814453</v>
+        <v>74.28319549560547</v>
       </c>
     </row>
     <row r="35">
@@ -1561,16 +1561,16 @@
         <v>26.0811880993595</v>
       </c>
       <c r="G35" t="n">
-        <v>168.7682495117188</v>
+        <v>168.0265960693359</v>
       </c>
       <c r="H35" t="n">
-        <v>65.83382415771484</v>
+        <v>69.77401733398438</v>
       </c>
       <c r="I35" t="n">
-        <v>204.4642181396484</v>
+        <v>198.4996948242188</v>
       </c>
       <c r="J35" t="n">
-        <v>77.89024353027344</v>
+        <v>73.69733428955078</v>
       </c>
     </row>
     <row r="36">
@@ -1593,16 +1593,16 @@
         <v>26.87614780904968</v>
       </c>
       <c r="G36" t="n">
-        <v>174.8683319091797</v>
+        <v>182.7297973632812</v>
       </c>
       <c r="H36" t="n">
-        <v>66.07675933837891</v>
+        <v>66.48980712890625</v>
       </c>
       <c r="I36" t="n">
-        <v>262.0899658203125</v>
+        <v>254.9058074951172</v>
       </c>
       <c r="J36" t="n">
-        <v>80.64987182617188</v>
+        <v>83.84860229492188</v>
       </c>
     </row>
     <row r="37">
@@ -1625,16 +1625,16 @@
         <v>27.16629873490772</v>
       </c>
       <c r="G37" t="n">
-        <v>186.749267578125</v>
+        <v>189.7912445068359</v>
       </c>
       <c r="H37" t="n">
-        <v>66.43046569824219</v>
+        <v>62.77898406982422</v>
       </c>
       <c r="I37" t="n">
-        <v>315.8729553222656</v>
+        <v>317.5372009277344</v>
       </c>
       <c r="J37" t="n">
-        <v>90.89437103271484</v>
+        <v>96.86029815673828</v>
       </c>
     </row>
     <row r="38">
@@ -1657,16 +1657,16 @@
         <v>27.25598473560972</v>
       </c>
       <c r="G38" t="n">
-        <v>208.6925354003906</v>
+        <v>209.3505554199219</v>
       </c>
       <c r="H38" t="n">
-        <v>61.98785018920898</v>
+        <v>63.3443603515625</v>
       </c>
       <c r="I38" t="n">
-        <v>375.2911071777344</v>
+        <v>374.3683471679688</v>
       </c>
       <c r="J38" t="n">
-        <v>110.6225738525391</v>
+        <v>108.6152420043945</v>
       </c>
     </row>
     <row r="39">
@@ -1689,16 +1689,16 @@
         <v>26.04628332899345</v>
       </c>
       <c r="G39" t="n">
-        <v>238.5647583007812</v>
+        <v>239.9014587402344</v>
       </c>
       <c r="H39" t="n">
-        <v>57.84038925170898</v>
+        <v>55.43523025512695</v>
       </c>
       <c r="I39" t="n">
-        <v>388.8953247070312</v>
+        <v>401.4901123046875</v>
       </c>
       <c r="J39" t="n">
-        <v>148.6661071777344</v>
+        <v>140.4500427246094</v>
       </c>
     </row>
     <row r="40">
@@ -1721,16 +1721,16 @@
         <v>23.96978635149335</v>
       </c>
       <c r="G40" t="n">
-        <v>297.2966918945312</v>
+        <v>299.6630859375</v>
       </c>
       <c r="H40" t="n">
-        <v>62.67336654663086</v>
+        <v>59.64033889770508</v>
       </c>
       <c r="I40" t="n">
-        <v>363.7245178222656</v>
+        <v>374.3437805175781</v>
       </c>
       <c r="J40" t="n">
-        <v>170.1134948730469</v>
+        <v>176.1488647460938</v>
       </c>
     </row>
     <row r="41">
@@ -1753,16 +1753,16 @@
         <v>25.6116837653232</v>
       </c>
       <c r="G41" t="n">
-        <v>141.9709014892578</v>
+        <v>141.6106414794922</v>
       </c>
       <c r="H41" t="n">
-        <v>66.61648559570312</v>
+        <v>65.51200866699219</v>
       </c>
       <c r="I41" t="n">
-        <v>60.18802261352539</v>
+        <v>57.8924560546875</v>
       </c>
       <c r="J41" t="n">
-        <v>70.20597839355469</v>
+        <v>72.47639465332031</v>
       </c>
     </row>
     <row r="42">
@@ -1785,16 +1785,16 @@
         <v>28.41067839248494</v>
       </c>
       <c r="G42" t="n">
-        <v>154.8616180419922</v>
+        <v>151.7806243896484</v>
       </c>
       <c r="H42" t="n">
-        <v>63.43647003173828</v>
+        <v>60.90748977661133</v>
       </c>
       <c r="I42" t="n">
-        <v>76.77672576904297</v>
+        <v>84.72658538818359</v>
       </c>
       <c r="J42" t="n">
-        <v>69.97055053710938</v>
+        <v>72.16054534912109</v>
       </c>
     </row>
     <row r="43">
@@ -1817,16 +1817,16 @@
         <v>30.68040031937237</v>
       </c>
       <c r="G43" t="n">
-        <v>164.83740234375</v>
+        <v>165.0289306640625</v>
       </c>
       <c r="H43" t="n">
-        <v>61.41711807250977</v>
+        <v>60.44990539550781</v>
       </c>
       <c r="I43" t="n">
-        <v>105.827018737793</v>
+        <v>105.3555603027344</v>
       </c>
       <c r="J43" t="n">
-        <v>74.99014282226562</v>
+        <v>71.53912353515625</v>
       </c>
     </row>
     <row r="44">
@@ -1849,16 +1849,16 @@
         <v>32.34762367758118</v>
       </c>
       <c r="G44" t="n">
-        <v>175.3597564697266</v>
+        <v>174.6523742675781</v>
       </c>
       <c r="H44" t="n">
-        <v>61.47739791870117</v>
+        <v>63.87744903564453</v>
       </c>
       <c r="I44" t="n">
-        <v>138.2623291015625</v>
+        <v>142.4269256591797</v>
       </c>
       <c r="J44" t="n">
-        <v>76.89036560058594</v>
+        <v>73.63546752929688</v>
       </c>
     </row>
     <row r="45">
@@ -1881,16 +1881,16 @@
         <v>33.26712421235609</v>
       </c>
       <c r="G45" t="n">
-        <v>183.2207946777344</v>
+        <v>182.6984710693359</v>
       </c>
       <c r="H45" t="n">
-        <v>62.16305923461914</v>
+        <v>63.41492462158203</v>
       </c>
       <c r="I45" t="n">
-        <v>185.5423583984375</v>
+        <v>184.4778289794922</v>
       </c>
       <c r="J45" t="n">
-        <v>80.83494567871094</v>
+        <v>79.77896118164062</v>
       </c>
     </row>
     <row r="46">
@@ -1913,16 +1913,16 @@
         <v>33.39925272231932</v>
       </c>
       <c r="G46" t="n">
-        <v>189.0478668212891</v>
+        <v>191.2757110595703</v>
       </c>
       <c r="H46" t="n">
-        <v>66.94640350341797</v>
+        <v>65.39823913574219</v>
       </c>
       <c r="I46" t="n">
-        <v>258.5397644042969</v>
+        <v>256.4753112792969</v>
       </c>
       <c r="J46" t="n">
-        <v>87.50448608398438</v>
+        <v>91.83078002929688</v>
       </c>
     </row>
     <row r="47">
@@ -1945,16 +1945,16 @@
         <v>32.83385481517335</v>
       </c>
       <c r="G47" t="n">
-        <v>207.1785736083984</v>
+        <v>204.5196990966797</v>
       </c>
       <c r="H47" t="n">
-        <v>59.48331069946289</v>
+        <v>61.08168792724609</v>
       </c>
       <c r="I47" t="n">
-        <v>324.709228515625</v>
+        <v>325.6018676757812</v>
       </c>
       <c r="J47" t="n">
-        <v>108.7074584960938</v>
+        <v>110.4977493286133</v>
       </c>
     </row>
     <row r="48">
@@ -1977,16 +1977,16 @@
         <v>31.22587875804939</v>
       </c>
       <c r="G48" t="n">
-        <v>244.5406036376953</v>
+        <v>240.7923431396484</v>
       </c>
       <c r="H48" t="n">
-        <v>55.26777648925781</v>
+        <v>53.63919067382812</v>
       </c>
       <c r="I48" t="n">
-        <v>369.1083984375</v>
+        <v>360.3244323730469</v>
       </c>
       <c r="J48" t="n">
-        <v>142.0923004150391</v>
+        <v>144.5499877929688</v>
       </c>
     </row>
     <row r="49">
@@ -2009,16 +2009,16 @@
         <v>28.00050845971687</v>
       </c>
       <c r="G49" t="n">
-        <v>296.1347045898438</v>
+        <v>292.3548583984375</v>
       </c>
       <c r="H49" t="n">
-        <v>65.95375061035156</v>
+        <v>62.51270294189453</v>
       </c>
       <c r="I49" t="n">
-        <v>354.0498657226562</v>
+        <v>343.9039001464844</v>
       </c>
       <c r="J49" t="n">
-        <v>164.3804016113281</v>
+        <v>170.8154602050781</v>
       </c>
     </row>
     <row r="50">
@@ -2041,16 +2041,16 @@
         <v>32.75859992753161</v>
       </c>
       <c r="G50" t="n">
-        <v>154.0092010498047</v>
+        <v>148.0704498291016</v>
       </c>
       <c r="H50" t="n">
-        <v>64.39302062988281</v>
+        <v>69.37606048583984</v>
       </c>
       <c r="I50" t="n">
-        <v>32.86129379272461</v>
+        <v>31.93708419799805</v>
       </c>
       <c r="J50" t="n">
-        <v>69.5264892578125</v>
+        <v>70.82109069824219</v>
       </c>
     </row>
     <row r="51">
@@ -2073,16 +2073,16 @@
         <v>35.60454595063857</v>
       </c>
       <c r="G51" t="n">
-        <v>163.0016174316406</v>
+        <v>162.4112548828125</v>
       </c>
       <c r="H51" t="n">
-        <v>63.42091369628906</v>
+        <v>61.9767951965332</v>
       </c>
       <c r="I51" t="n">
-        <v>40.74053192138672</v>
+        <v>50.9262809753418</v>
       </c>
       <c r="J51" t="n">
-        <v>69.80248260498047</v>
+        <v>66.52904510498047</v>
       </c>
     </row>
     <row r="52">
@@ -2105,16 +2105,16 @@
         <v>38.13811789539464</v>
       </c>
       <c r="G52" t="n">
-        <v>174.7774963378906</v>
+        <v>174.6887664794922</v>
       </c>
       <c r="H52" t="n">
-        <v>56.71953582763672</v>
+        <v>57.63630676269531</v>
       </c>
       <c r="I52" t="n">
-        <v>58.9367561340332</v>
+        <v>61.84522247314453</v>
       </c>
       <c r="J52" t="n">
-        <v>68.42403411865234</v>
+        <v>69.75830078125</v>
       </c>
     </row>
     <row r="53">
@@ -2137,16 +2137,16 @@
         <v>39.1380055059179</v>
       </c>
       <c r="G53" t="n">
-        <v>183.5714569091797</v>
+        <v>179.8542175292969</v>
       </c>
       <c r="H53" t="n">
-        <v>58.34013748168945</v>
+        <v>59.53793334960938</v>
       </c>
       <c r="I53" t="n">
-        <v>87.69614410400391</v>
+        <v>87.19082641601562</v>
       </c>
       <c r="J53" t="n">
-        <v>71.52294921875</v>
+        <v>70.70407867431641</v>
       </c>
     </row>
     <row r="54">
@@ -2169,16 +2169,16 @@
         <v>40.17007780104868</v>
       </c>
       <c r="G54" t="n">
-        <v>187.2977142333984</v>
+        <v>191.4188690185547</v>
       </c>
       <c r="H54" t="n">
-        <v>60.5125846862793</v>
+        <v>58.68572235107422</v>
       </c>
       <c r="I54" t="n">
-        <v>130.0600280761719</v>
+        <v>131.7476501464844</v>
       </c>
       <c r="J54" t="n">
-        <v>82.64131164550781</v>
+        <v>85.76467132568359</v>
       </c>
     </row>
     <row r="55">
@@ -2201,16 +2201,16 @@
         <v>40.31777520333784</v>
       </c>
       <c r="G55" t="n">
-        <v>196.5287017822266</v>
+        <v>197.5642242431641</v>
       </c>
       <c r="H55" t="n">
-        <v>63.86441802978516</v>
+        <v>60.53501510620117</v>
       </c>
       <c r="I55" t="n">
-        <v>184.4067993164062</v>
+        <v>184.9745483398438</v>
       </c>
       <c r="J55" t="n">
-        <v>89.13609313964844</v>
+        <v>90.72039794921875</v>
       </c>
     </row>
     <row r="56">
@@ -2233,16 +2233,16 @@
         <v>38.89328689858721</v>
       </c>
       <c r="G56" t="n">
-        <v>205.4019622802734</v>
+        <v>206.0018310546875</v>
       </c>
       <c r="H56" t="n">
-        <v>57.951904296875</v>
+        <v>59.07585525512695</v>
       </c>
       <c r="I56" t="n">
-        <v>268.4922485351562</v>
+        <v>274.4870910644531</v>
       </c>
       <c r="J56" t="n">
-        <v>103.764404296875</v>
+        <v>104.4603729248047</v>
       </c>
     </row>
     <row r="57">
@@ -2265,16 +2265,16 @@
         <v>36.03490394546852</v>
       </c>
       <c r="G57" t="n">
-        <v>243.4966125488281</v>
+        <v>244.7162475585938</v>
       </c>
       <c r="H57" t="n">
-        <v>54.63312149047852</v>
+        <v>52.18204879760742</v>
       </c>
       <c r="I57" t="n">
-        <v>329.6564331054688</v>
+        <v>331.2032775878906</v>
       </c>
       <c r="J57" t="n">
-        <v>125.9439468383789</v>
+        <v>136.167724609375</v>
       </c>
     </row>
     <row r="58">
@@ -2297,16 +2297,16 @@
         <v>33.0417017672229</v>
       </c>
       <c r="G58" t="n">
-        <v>288.4921264648438</v>
+        <v>289.5991516113281</v>
       </c>
       <c r="H58" t="n">
-        <v>64.66240692138672</v>
+        <v>64.0523681640625</v>
       </c>
       <c r="I58" t="n">
-        <v>327.1286010742188</v>
+        <v>324.1018371582031</v>
       </c>
       <c r="J58" t="n">
-        <v>159.1746978759766</v>
+        <v>157.5929260253906</v>
       </c>
     </row>
     <row r="59">
@@ -2329,16 +2329,16 @@
         <v>43.98768298598323</v>
       </c>
       <c r="G59" t="n">
-        <v>172.9647369384766</v>
+        <v>179.3200988769531</v>
       </c>
       <c r="H59" t="n">
-        <v>59.37793731689453</v>
+        <v>57.95774841308594</v>
       </c>
       <c r="I59" t="n">
-        <v>3.066829919815063</v>
+        <v>3.994206428527832</v>
       </c>
       <c r="J59" t="n">
-        <v>65.64248657226562</v>
+        <v>65.90794372558594</v>
       </c>
     </row>
     <row r="60">
@@ -2361,16 +2361,16 @@
         <v>45.7006317110727</v>
       </c>
       <c r="G60" t="n">
-        <v>180.4435882568359</v>
+        <v>185.0586700439453</v>
       </c>
       <c r="H60" t="n">
-        <v>58.19588088989258</v>
+        <v>56.41770553588867</v>
       </c>
       <c r="I60" t="n">
-        <v>19.71654891967773</v>
+        <v>14.72198104858398</v>
       </c>
       <c r="J60" t="n">
-        <v>63.32807922363281</v>
+        <v>63.30457305908203</v>
       </c>
     </row>
     <row r="61">
@@ -2393,16 +2393,16 @@
         <v>46.67965674781412</v>
       </c>
       <c r="G61" t="n">
-        <v>192.8111267089844</v>
+        <v>192.2605590820312</v>
       </c>
       <c r="H61" t="n">
-        <v>56.51143646240234</v>
+        <v>56.25100326538086</v>
       </c>
       <c r="I61" t="n">
-        <v>44.27694702148438</v>
+        <v>45.64875793457031</v>
       </c>
       <c r="J61" t="n">
-        <v>71.47329711914062</v>
+        <v>75.08777618408203</v>
       </c>
     </row>
     <row r="62">
@@ -2425,16 +2425,16 @@
         <v>47.53914448671719</v>
       </c>
       <c r="G62" t="n">
-        <v>198.5706481933594</v>
+        <v>195.6953277587891</v>
       </c>
       <c r="H62" t="n">
-        <v>59.4113655090332</v>
+        <v>56.98191833496094</v>
       </c>
       <c r="I62" t="n">
-        <v>74.83658599853516</v>
+        <v>70.36911773681641</v>
       </c>
       <c r="J62" t="n">
-        <v>76.55013275146484</v>
+        <v>77.55804443359375</v>
       </c>
     </row>
     <row r="63">
@@ -2457,16 +2457,16 @@
         <v>47.07121651777462</v>
       </c>
       <c r="G63" t="n">
-        <v>203.9901580810547</v>
+        <v>201.25341796875</v>
       </c>
       <c r="H63" t="n">
-        <v>59.59393310546875</v>
+        <v>60.61509704589844</v>
       </c>
       <c r="I63" t="n">
-        <v>124.9671096801758</v>
+        <v>125.368408203125</v>
       </c>
       <c r="J63" t="n">
-        <v>95.26335144042969</v>
+        <v>95.49021911621094</v>
       </c>
     </row>
     <row r="64">
@@ -2489,16 +2489,16 @@
         <v>45.67156598130153</v>
       </c>
       <c r="G64" t="n">
-        <v>215.5899963378906</v>
+        <v>211.7608795166016</v>
       </c>
       <c r="H64" t="n">
-        <v>56.13738632202148</v>
+        <v>54.27014541625977</v>
       </c>
       <c r="I64" t="n">
-        <v>213.9316864013672</v>
+        <v>217.9574279785156</v>
       </c>
       <c r="J64" t="n">
-        <v>105.4663619995117</v>
+        <v>105.275520324707</v>
       </c>
     </row>
     <row r="65">
@@ -2521,16 +2521,16 @@
         <v>42.51104340916319</v>
       </c>
       <c r="G65" t="n">
-        <v>245.324951171875</v>
+        <v>245.8373107910156</v>
       </c>
       <c r="H65" t="n">
-        <v>60.92797470092773</v>
+        <v>55.90359115600586</v>
       </c>
       <c r="I65" t="n">
-        <v>273.3097534179688</v>
+        <v>277.9122314453125</v>
       </c>
       <c r="J65" t="n">
-        <v>131.4814300537109</v>
+        <v>128.5940704345703</v>
       </c>
     </row>
     <row r="66">
@@ -2553,16 +2553,16 @@
         <v>54.37577254606605</v>
       </c>
       <c r="G66" t="n">
-        <v>196.5229339599609</v>
+        <v>196.1045989990234</v>
       </c>
       <c r="H66" t="n">
-        <v>56.68217086791992</v>
+        <v>54.42751312255859</v>
       </c>
       <c r="I66" t="n">
-        <v>-38.11157989501953</v>
+        <v>-35.16779327392578</v>
       </c>
       <c r="J66" t="n">
-        <v>75.18000030517578</v>
+        <v>68.68272399902344</v>
       </c>
     </row>
     <row r="67">
@@ -2585,16 +2585,16 @@
         <v>55.07062752917076</v>
       </c>
       <c r="G67" t="n">
-        <v>200.8278198242188</v>
+        <v>199.0158538818359</v>
       </c>
       <c r="H67" t="n">
-        <v>55.77326965332031</v>
+        <v>58.00801467895508</v>
       </c>
       <c r="I67" t="n">
-        <v>-11.62965679168701</v>
+        <v>-10.47051239013672</v>
       </c>
       <c r="J67" t="n">
-        <v>73.04029846191406</v>
+        <v>73.30734252929688</v>
       </c>
     </row>
     <row r="68">
@@ -2617,16 +2617,16 @@
         <v>54.82432856758766</v>
       </c>
       <c r="G68" t="n">
-        <v>206.5009155273438</v>
+        <v>206.7772827148438</v>
       </c>
       <c r="H68" t="n">
-        <v>56.46054077148438</v>
+        <v>55.91575622558594</v>
       </c>
       <c r="I68" t="n">
-        <v>15.24926948547363</v>
+        <v>13.70709133148193</v>
       </c>
       <c r="J68" t="n">
-        <v>73.08586883544922</v>
+        <v>71.11672210693359</v>
       </c>
     </row>
     <row r="69">
@@ -2649,16 +2649,16 @@
         <v>54.18769809434324</v>
       </c>
       <c r="G69" t="n">
-        <v>205.4851531982422</v>
+        <v>210.3229217529297</v>
       </c>
       <c r="H69" t="n">
-        <v>59.12779998779297</v>
+        <v>57.77761840820312</v>
       </c>
       <c r="I69" t="n">
-        <v>73.16043853759766</v>
+        <v>69.53350830078125</v>
       </c>
       <c r="J69" t="n">
-        <v>96.57398223876953</v>
+        <v>87.57720947265625</v>
       </c>
     </row>
     <row r="70">
@@ -2681,16 +2681,16 @@
         <v>51.347187815424</v>
       </c>
       <c r="G70" t="n">
-        <v>219.1217651367188</v>
+        <v>217.2598114013672</v>
       </c>
       <c r="H70" t="n">
-        <v>58.19817352294922</v>
+        <v>58.10667419433594</v>
       </c>
       <c r="I70" t="n">
-        <v>165.5792694091797</v>
+        <v>161.4913482666016</v>
       </c>
       <c r="J70" t="n">
-        <v>105.1039733886719</v>
+        <v>111.3851928710938</v>
       </c>
     </row>
   </sheetData>

--- a/04_Model_Saved/NN_full_v3_BO_optimal/MultiTaskModel_NiCrCoVFe_KW99_wt_pct_ML_mc_shared_relu.xlsx
+++ b/04_Model_Saved/NN_full_v3_BO_optimal/MultiTaskModel_NiCrCoVFe_KW99_wt_pct_ML_mc_shared_relu.xlsx
@@ -505,16 +505,16 @@
         <v>10.27148578895017</v>
       </c>
       <c r="G2" t="n">
-        <v>203.1784820556641</v>
+        <v>233.6294250488281</v>
       </c>
       <c r="H2" t="n">
-        <v>70.97917938232422</v>
+        <v>56.06689071655273</v>
       </c>
       <c r="I2" t="n">
-        <v>478.7578735351562</v>
+        <v>474.7901000976562</v>
       </c>
       <c r="J2" t="n">
-        <v>93.90134429931641</v>
+        <v>115.5027694702148</v>
       </c>
     </row>
     <row r="3">
@@ -537,16 +537,16 @@
         <v>10.49540628405087</v>
       </c>
       <c r="G3" t="n">
-        <v>214.4043731689453</v>
+        <v>244.2517242431641</v>
       </c>
       <c r="H3" t="n">
-        <v>69.797607421875</v>
+        <v>53.85313415527344</v>
       </c>
       <c r="I3" t="n">
-        <v>516.369873046875</v>
+        <v>497.0472412109375</v>
       </c>
       <c r="J3" t="n">
-        <v>104.7234725952148</v>
+        <v>123.682014465332</v>
       </c>
     </row>
     <row r="4">
@@ -569,16 +569,16 @@
         <v>11.11292799977388</v>
       </c>
       <c r="G4" t="n">
-        <v>222.6168518066406</v>
+        <v>255.5135192871094</v>
       </c>
       <c r="H4" t="n">
-        <v>66.22988891601562</v>
+        <v>59.15281295776367</v>
       </c>
       <c r="I4" t="n">
-        <v>536.312744140625</v>
+        <v>520.8933715820312</v>
       </c>
       <c r="J4" t="n">
-        <v>111.099479675293</v>
+        <v>133.0312652587891</v>
       </c>
     </row>
     <row r="5">
@@ -601,16 +601,16 @@
         <v>11.33579528302992</v>
       </c>
       <c r="G5" t="n">
-        <v>236.0275268554688</v>
+        <v>270.7007751464844</v>
       </c>
       <c r="H5" t="n">
-        <v>64.5460205078125</v>
+        <v>62.98183822631836</v>
       </c>
       <c r="I5" t="n">
-        <v>544.4466552734375</v>
+        <v>539.0090942382812</v>
       </c>
       <c r="J5" t="n">
-        <v>114.2264633178711</v>
+        <v>137.4183349609375</v>
       </c>
     </row>
     <row r="6">
@@ -633,16 +633,16 @@
         <v>11.53221857575777</v>
       </c>
       <c r="G6" t="n">
-        <v>253.3565063476562</v>
+        <v>279.1702575683594</v>
       </c>
       <c r="H6" t="n">
-        <v>74.45172882080078</v>
+        <v>72.24607086181641</v>
       </c>
       <c r="I6" t="n">
-        <v>542.04345703125</v>
+        <v>531.3665161132812</v>
       </c>
       <c r="J6" t="n">
-        <v>127.7878646850586</v>
+        <v>148.1827545166016</v>
       </c>
     </row>
     <row r="7">
@@ -665,16 +665,16 @@
         <v>11.73836346032553</v>
       </c>
       <c r="G7" t="n">
-        <v>165.563720703125</v>
+        <v>203.7388000488281</v>
       </c>
       <c r="H7" t="n">
-        <v>73.89466094970703</v>
+        <v>58.05046081542969</v>
       </c>
       <c r="I7" t="n">
-        <v>404.423583984375</v>
+        <v>395.1377868652344</v>
       </c>
       <c r="J7" t="n">
-        <v>77.78568267822266</v>
+        <v>80.14458465576172</v>
       </c>
     </row>
     <row r="8">
@@ -697,16 +697,16 @@
         <v>12.47588443056982</v>
       </c>
       <c r="G8" t="n">
-        <v>181.2449340820312</v>
+        <v>216.1732635498047</v>
       </c>
       <c r="H8" t="n">
-        <v>66.17236328125</v>
+        <v>55.38935470581055</v>
       </c>
       <c r="I8" t="n">
-        <v>437.55322265625</v>
+        <v>428.7518615722656</v>
       </c>
       <c r="J8" t="n">
-        <v>84.43558502197266</v>
+        <v>99.78487396240234</v>
       </c>
     </row>
     <row r="9">
@@ -729,16 +729,16 @@
         <v>13.31360035996819</v>
       </c>
       <c r="G9" t="n">
-        <v>194.8363647460938</v>
+        <v>228.1960601806641</v>
       </c>
       <c r="H9" t="n">
-        <v>68.90280914306641</v>
+        <v>51.11914825439453</v>
       </c>
       <c r="I9" t="n">
-        <v>463.9391174316406</v>
+        <v>450.914794921875</v>
       </c>
       <c r="J9" t="n">
-        <v>90.28404235839844</v>
+        <v>106.8655395507812</v>
       </c>
     </row>
     <row r="10">
@@ -761,16 +761,16 @@
         <v>14.04586286313179</v>
       </c>
       <c r="G10" t="n">
-        <v>216.24169921875</v>
+        <v>244.2298431396484</v>
       </c>
       <c r="H10" t="n">
-        <v>65.08403778076172</v>
+        <v>47.3739128112793</v>
       </c>
       <c r="I10" t="n">
-        <v>480.0063171386719</v>
+        <v>456.7231750488281</v>
       </c>
       <c r="J10" t="n">
-        <v>97.80192565917969</v>
+        <v>113.5271377563477</v>
       </c>
     </row>
     <row r="11">
@@ -793,16 +793,16 @@
         <v>14.78596965177877</v>
       </c>
       <c r="G11" t="n">
-        <v>223.8458099365234</v>
+        <v>260.2477111816406</v>
       </c>
       <c r="H11" t="n">
-        <v>59.28311920166016</v>
+        <v>52.34081268310547</v>
       </c>
       <c r="I11" t="n">
-        <v>506.5975646972656</v>
+        <v>471.1871948242188</v>
       </c>
       <c r="J11" t="n">
-        <v>98.85227203369141</v>
+        <v>121.0184936523438</v>
       </c>
     </row>
     <row r="12">
@@ -825,16 +825,16 @@
         <v>14.60750023008277</v>
       </c>
       <c r="G12" t="n">
-        <v>233.0547943115234</v>
+        <v>270.4848937988281</v>
       </c>
       <c r="H12" t="n">
-        <v>62.06406402587891</v>
+        <v>58.20036315917969</v>
       </c>
       <c r="I12" t="n">
-        <v>513.8270874023438</v>
+        <v>472.7792663574219</v>
       </c>
       <c r="J12" t="n">
-        <v>108.8843612670898</v>
+        <v>124.1278610229492</v>
       </c>
     </row>
     <row r="13">
@@ -857,16 +857,16 @@
         <v>13.93632017907879</v>
       </c>
       <c r="G13" t="n">
-        <v>259.317138671875</v>
+        <v>293.0524597167969</v>
       </c>
       <c r="H13" t="n">
-        <v>65.79503631591797</v>
+        <v>66.84127044677734</v>
       </c>
       <c r="I13" t="n">
-        <v>495.8761901855469</v>
+        <v>481.4786071777344</v>
       </c>
       <c r="J13" t="n">
-        <v>129.3729858398438</v>
+        <v>136.6026916503906</v>
       </c>
     </row>
     <row r="14">
@@ -889,16 +889,16 @@
         <v>13.2060787967079</v>
       </c>
       <c r="G14" t="n">
-        <v>133.4996032714844</v>
+        <v>165.6684112548828</v>
       </c>
       <c r="H14" t="n">
-        <v>74.65072631835938</v>
+        <v>71.30052185058594</v>
       </c>
       <c r="I14" t="n">
-        <v>201.5323944091797</v>
+        <v>204.6610870361328</v>
       </c>
       <c r="J14" t="n">
-        <v>78.58525848388672</v>
+        <v>73.81336975097656</v>
       </c>
     </row>
     <row r="15">
@@ -921,16 +921,16 @@
         <v>14.43724685121477</v>
       </c>
       <c r="G15" t="n">
-        <v>142.6812591552734</v>
+        <v>185.0393218994141</v>
       </c>
       <c r="H15" t="n">
-        <v>70.46797943115234</v>
+        <v>66.71070098876953</v>
       </c>
       <c r="I15" t="n">
-        <v>267.3312377929688</v>
+        <v>268.706298828125</v>
       </c>
       <c r="J15" t="n">
-        <v>82.25449371337891</v>
+        <v>72.76538848876953</v>
       </c>
     </row>
     <row r="16">
@@ -953,16 +953,16 @@
         <v>15.77509757365795</v>
       </c>
       <c r="G16" t="n">
-        <v>167.3034820556641</v>
+        <v>200.7733917236328</v>
       </c>
       <c r="H16" t="n">
-        <v>67.59297180175781</v>
+        <v>59.21551895141602</v>
       </c>
       <c r="I16" t="n">
-        <v>324.8306274414062</v>
+        <v>329.3307495117188</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04387664794922</v>
+        <v>66.22640991210938</v>
       </c>
     </row>
     <row r="17">
@@ -985,16 +985,16 @@
         <v>17.01643502058164</v>
       </c>
       <c r="G17" t="n">
-        <v>183.0413513183594</v>
+        <v>218.9375457763672</v>
       </c>
       <c r="H17" t="n">
-        <v>69.14167785644531</v>
+        <v>53.22798919677734</v>
       </c>
       <c r="I17" t="n">
-        <v>396.9700622558594</v>
+        <v>386.2823486328125</v>
       </c>
       <c r="J17" t="n">
-        <v>75.27008056640625</v>
+        <v>81.4444580078125</v>
       </c>
     </row>
     <row r="18">
@@ -1017,16 +1017,16 @@
         <v>17.57324774662381</v>
       </c>
       <c r="G18" t="n">
-        <v>193.10009765625</v>
+        <v>224.8482818603516</v>
       </c>
       <c r="H18" t="n">
-        <v>69.81431579589844</v>
+        <v>47.37125778198242</v>
       </c>
       <c r="I18" t="n">
-        <v>423.3625793457031</v>
+        <v>408.8973083496094</v>
       </c>
       <c r="J18" t="n">
-        <v>86.03870391845703</v>
+        <v>89.39891815185547</v>
       </c>
     </row>
     <row r="19">
@@ -1049,16 +1049,16 @@
         <v>18.2282289394109</v>
       </c>
       <c r="G19" t="n">
-        <v>206.9791717529297</v>
+        <v>241.7953338623047</v>
       </c>
       <c r="H19" t="n">
-        <v>60.81333923339844</v>
+        <v>47.15690612792969</v>
       </c>
       <c r="I19" t="n">
-        <v>460.9581298828125</v>
+        <v>427.3316345214844</v>
       </c>
       <c r="J19" t="n">
-        <v>80.76649475097656</v>
+        <v>97.81977844238281</v>
       </c>
     </row>
     <row r="20">
@@ -1081,16 +1081,16 @@
         <v>18.05168677518481</v>
       </c>
       <c r="G20" t="n">
-        <v>220.4989013671875</v>
+        <v>259.3960266113281</v>
       </c>
       <c r="H20" t="n">
-        <v>57.38239288330078</v>
+        <v>44.3876953125</v>
       </c>
       <c r="I20" t="n">
-        <v>472.1028747558594</v>
+        <v>438.2647399902344</v>
       </c>
       <c r="J20" t="n">
-        <v>102.3637847900391</v>
+        <v>111.8029556274414</v>
       </c>
     </row>
     <row r="21">
@@ -1113,16 +1113,16 @@
         <v>17.30316829702608</v>
       </c>
       <c r="G21" t="n">
-        <v>243.2581481933594</v>
+        <v>282.7537231445312</v>
       </c>
       <c r="H21" t="n">
-        <v>54.4799690246582</v>
+        <v>51.17500305175781</v>
       </c>
       <c r="I21" t="n">
-        <v>460.0316772460938</v>
+        <v>449.6344909667969</v>
       </c>
       <c r="J21" t="n">
-        <v>130.2178344726562</v>
+        <v>122.1962585449219</v>
       </c>
     </row>
     <row r="22">
@@ -1145,16 +1145,16 @@
         <v>15.87142913305469</v>
       </c>
       <c r="G22" t="n">
-        <v>299.168701171875</v>
+        <v>333.3799438476562</v>
       </c>
       <c r="H22" t="n">
-        <v>64.13583374023438</v>
+        <v>80.86070251464844</v>
       </c>
       <c r="I22" t="n">
-        <v>415.1681823730469</v>
+        <v>451.7577514648438</v>
       </c>
       <c r="J22" t="n">
-        <v>167.2868804931641</v>
+        <v>136.0855102539062</v>
       </c>
     </row>
     <row r="23">
@@ -1177,16 +1177,16 @@
         <v>16.2842163689804</v>
       </c>
       <c r="G23" t="n">
-        <v>129.9898681640625</v>
+        <v>155.5232238769531</v>
       </c>
       <c r="H23" t="n">
-        <v>69.74925231933594</v>
+        <v>79.68890380859375</v>
       </c>
       <c r="I23" t="n">
-        <v>140.3945617675781</v>
+        <v>124.7247924804688</v>
       </c>
       <c r="J23" t="n">
-        <v>73.74085235595703</v>
+        <v>76.03273773193359</v>
       </c>
     </row>
     <row r="24">
@@ -1209,16 +1209,16 @@
         <v>17.99859633271077</v>
       </c>
       <c r="G24" t="n">
-        <v>147.1227111816406</v>
+        <v>170.3216705322266</v>
       </c>
       <c r="H24" t="n">
-        <v>67.37492370605469</v>
+        <v>71.50062561035156</v>
       </c>
       <c r="I24" t="n">
-        <v>178.2343444824219</v>
+        <v>173.7071990966797</v>
       </c>
       <c r="J24" t="n">
-        <v>78.52250671386719</v>
+        <v>80.75071716308594</v>
       </c>
     </row>
     <row r="25">
@@ -1241,16 +1241,16 @@
         <v>19.53665474474453</v>
       </c>
       <c r="G25" t="n">
-        <v>157.6357116699219</v>
+        <v>184.9808044433594</v>
       </c>
       <c r="H25" t="n">
-        <v>66.66754150390625</v>
+        <v>66.21535491943359</v>
       </c>
       <c r="I25" t="n">
-        <v>219.1276550292969</v>
+        <v>212.3995056152344</v>
       </c>
       <c r="J25" t="n">
-        <v>81.10814666748047</v>
+        <v>83.11348724365234</v>
       </c>
     </row>
     <row r="26">
@@ -1273,16 +1273,16 @@
         <v>21.18080958029204</v>
       </c>
       <c r="G26" t="n">
-        <v>171.4921264648438</v>
+        <v>202.8692779541016</v>
       </c>
       <c r="H26" t="n">
-        <v>66.97499847412109</v>
+        <v>62.60544204711914</v>
       </c>
       <c r="I26" t="n">
-        <v>282.0318603515625</v>
+        <v>269.8469848632812</v>
       </c>
       <c r="J26" t="n">
-        <v>86.04932403564453</v>
+        <v>79.40776824951172</v>
       </c>
     </row>
     <row r="27">
@@ -1305,16 +1305,16 @@
         <v>22.36133238808863</v>
       </c>
       <c r="G27" t="n">
-        <v>183.6697845458984</v>
+        <v>217.7067108154297</v>
       </c>
       <c r="H27" t="n">
-        <v>66.19107818603516</v>
+        <v>53.45538711547852</v>
       </c>
       <c r="I27" t="n">
-        <v>342.8627624511719</v>
+        <v>347.4378051757812</v>
       </c>
       <c r="J27" t="n">
-        <v>87.53322601318359</v>
+        <v>67.08443450927734</v>
       </c>
     </row>
     <row r="28">
@@ -1337,16 +1337,16 @@
         <v>22.25528267810615</v>
       </c>
       <c r="G28" t="n">
-        <v>192.7278594970703</v>
+        <v>228.7339630126953</v>
       </c>
       <c r="H28" t="n">
-        <v>65.78080749511719</v>
+        <v>46.41782379150391</v>
       </c>
       <c r="I28" t="n">
-        <v>395.1410827636719</v>
+        <v>382.0462341308594</v>
       </c>
       <c r="J28" t="n">
-        <v>91.98226165771484</v>
+        <v>79.33078765869141</v>
       </c>
     </row>
     <row r="29">
@@ -1369,16 +1369,16 @@
         <v>22.11853696692908</v>
       </c>
       <c r="G29" t="n">
-        <v>210.1404266357422</v>
+        <v>246.0581512451172</v>
       </c>
       <c r="H29" t="n">
-        <v>63.02460098266602</v>
+        <v>42.12464904785156</v>
       </c>
       <c r="I29" t="n">
-        <v>434.5093688964844</v>
+        <v>406.4382019042969</v>
       </c>
       <c r="J29" t="n">
-        <v>110.8534393310547</v>
+        <v>104.8904876708984</v>
       </c>
     </row>
     <row r="30">
@@ -1401,16 +1401,16 @@
         <v>21.13587239531939</v>
       </c>
       <c r="G30" t="n">
-        <v>244.8460693359375</v>
+        <v>280.1286926269531</v>
       </c>
       <c r="H30" t="n">
-        <v>54.11039733886719</v>
+        <v>49.8740119934082</v>
       </c>
       <c r="I30" t="n">
-        <v>440.5408935546875</v>
+        <v>436.9262084960938</v>
       </c>
       <c r="J30" t="n">
-        <v>144.7505493164062</v>
+        <v>131.1773834228516</v>
       </c>
     </row>
     <row r="31">
@@ -1433,16 +1433,16 @@
         <v>19.80061812897557</v>
       </c>
       <c r="G31" t="n">
-        <v>296.809814453125</v>
+        <v>323.7873229980469</v>
       </c>
       <c r="H31" t="n">
-        <v>62.45798110961914</v>
+        <v>74.18986511230469</v>
       </c>
       <c r="I31" t="n">
-        <v>387.1149291992188</v>
+        <v>423.3605041503906</v>
       </c>
       <c r="J31" t="n">
-        <v>178.6534423828125</v>
+        <v>130.0711059570312</v>
       </c>
     </row>
     <row r="32">
@@ -1465,16 +1465,16 @@
         <v>20.55168297688286</v>
       </c>
       <c r="G32" t="n">
-        <v>133.5183715820312</v>
+        <v>147.7636108398438</v>
       </c>
       <c r="H32" t="n">
-        <v>68.32554626464844</v>
+        <v>79.72635650634766</v>
       </c>
       <c r="I32" t="n">
-        <v>92.97144317626953</v>
+        <v>72.56040954589844</v>
       </c>
       <c r="J32" t="n">
-        <v>70.27163696289062</v>
+        <v>72.20065307617188</v>
       </c>
     </row>
     <row r="33">
@@ -1497,16 +1497,16 @@
         <v>22.96934284445093</v>
       </c>
       <c r="G33" t="n">
-        <v>148.0450286865234</v>
+        <v>163.3180694580078</v>
       </c>
       <c r="H33" t="n">
-        <v>68.35245513916016</v>
+        <v>75.41971588134766</v>
       </c>
       <c r="I33" t="n">
-        <v>122.6163635253906</v>
+        <v>104.8023223876953</v>
       </c>
       <c r="J33" t="n">
-        <v>76.06974029541016</v>
+        <v>79.67881774902344</v>
       </c>
     </row>
     <row r="34">
@@ -1529,16 +1529,16 @@
         <v>24.40915250803127</v>
       </c>
       <c r="G34" t="n">
-        <v>159.2907104492188</v>
+        <v>180.3034057617188</v>
       </c>
       <c r="H34" t="n">
-        <v>69.36846160888672</v>
+        <v>67.92824554443359</v>
       </c>
       <c r="I34" t="n">
-        <v>157.7015228271484</v>
+        <v>138.4739379882812</v>
       </c>
       <c r="J34" t="n">
-        <v>74.28319549560547</v>
+        <v>88.04986572265625</v>
       </c>
     </row>
     <row r="35">
@@ -1561,16 +1561,16 @@
         <v>26.0811880993595</v>
       </c>
       <c r="G35" t="n">
-        <v>168.0265960693359</v>
+        <v>195.4456939697266</v>
       </c>
       <c r="H35" t="n">
-        <v>69.77401733398438</v>
+        <v>65.15206146240234</v>
       </c>
       <c r="I35" t="n">
-        <v>198.4996948242188</v>
+        <v>177.3384246826172</v>
       </c>
       <c r="J35" t="n">
-        <v>73.69733428955078</v>
+        <v>91.49510955810547</v>
       </c>
     </row>
     <row r="36">
@@ -1593,16 +1593,16 @@
         <v>26.87614780904968</v>
       </c>
       <c r="G36" t="n">
-        <v>182.7297973632812</v>
+        <v>209.6187286376953</v>
       </c>
       <c r="H36" t="n">
-        <v>66.48980712890625</v>
+        <v>58.06641006469727</v>
       </c>
       <c r="I36" t="n">
-        <v>254.9058074951172</v>
+        <v>239.7773742675781</v>
       </c>
       <c r="J36" t="n">
-        <v>83.84860229492188</v>
+        <v>92.90663146972656</v>
       </c>
     </row>
     <row r="37">
@@ -1625,16 +1625,16 @@
         <v>27.16629873490772</v>
       </c>
       <c r="G37" t="n">
-        <v>189.7912445068359</v>
+        <v>217.6919708251953</v>
       </c>
       <c r="H37" t="n">
-        <v>62.77898406982422</v>
+        <v>54.0883674621582</v>
       </c>
       <c r="I37" t="n">
-        <v>317.5372009277344</v>
+        <v>290.6998291015625</v>
       </c>
       <c r="J37" t="n">
-        <v>96.86029815673828</v>
+        <v>102.8463439941406</v>
       </c>
     </row>
     <row r="38">
@@ -1657,16 +1657,16 @@
         <v>27.25598473560972</v>
       </c>
       <c r="G38" t="n">
-        <v>209.3505554199219</v>
+        <v>236.4817504882812</v>
       </c>
       <c r="H38" t="n">
-        <v>63.3443603515625</v>
+        <v>44.10939025878906</v>
       </c>
       <c r="I38" t="n">
-        <v>374.3683471679688</v>
+        <v>349.026611328125</v>
       </c>
       <c r="J38" t="n">
-        <v>108.6152420043945</v>
+        <v>125.7461395263672</v>
       </c>
     </row>
     <row r="39">
@@ -1689,16 +1689,16 @@
         <v>26.04628332899345</v>
       </c>
       <c r="G39" t="n">
-        <v>239.9014587402344</v>
+        <v>268.6336669921875</v>
       </c>
       <c r="H39" t="n">
-        <v>55.43523025512695</v>
+        <v>46.66052627563477</v>
       </c>
       <c r="I39" t="n">
-        <v>401.4901123046875</v>
+        <v>378.0382080078125</v>
       </c>
       <c r="J39" t="n">
-        <v>140.4500427246094</v>
+        <v>144.3114318847656</v>
       </c>
     </row>
     <row r="40">
@@ -1721,16 +1721,16 @@
         <v>23.96978635149335</v>
       </c>
       <c r="G40" t="n">
-        <v>299.6630859375</v>
+        <v>321.4528503417969</v>
       </c>
       <c r="H40" t="n">
-        <v>59.64033889770508</v>
+        <v>70.31336975097656</v>
       </c>
       <c r="I40" t="n">
-        <v>374.3437805175781</v>
+        <v>405.2142639160156</v>
       </c>
       <c r="J40" t="n">
-        <v>176.1488647460938</v>
+        <v>134.6981506347656</v>
       </c>
     </row>
     <row r="41">
@@ -1753,16 +1753,16 @@
         <v>25.6116837653232</v>
       </c>
       <c r="G41" t="n">
-        <v>141.6106414794922</v>
+        <v>148.2709655761719</v>
       </c>
       <c r="H41" t="n">
-        <v>65.51200866699219</v>
+        <v>78.57459259033203</v>
       </c>
       <c r="I41" t="n">
-        <v>57.8924560546875</v>
+        <v>33.02262496948242</v>
       </c>
       <c r="J41" t="n">
-        <v>72.47639465332031</v>
+        <v>67.29244232177734</v>
       </c>
     </row>
     <row r="42">
@@ -1785,16 +1785,16 @@
         <v>28.41067839248494</v>
       </c>
       <c r="G42" t="n">
-        <v>151.7806243896484</v>
+        <v>164.4941864013672</v>
       </c>
       <c r="H42" t="n">
-        <v>60.90748977661133</v>
+        <v>73.79880523681641</v>
       </c>
       <c r="I42" t="n">
-        <v>84.72658538818359</v>
+        <v>54.3885498046875</v>
       </c>
       <c r="J42" t="n">
-        <v>72.16054534912109</v>
+        <v>72.50645446777344</v>
       </c>
     </row>
     <row r="43">
@@ -1817,16 +1817,16 @@
         <v>30.68040031937237</v>
       </c>
       <c r="G43" t="n">
-        <v>165.0289306640625</v>
+        <v>175.7901306152344</v>
       </c>
       <c r="H43" t="n">
-        <v>60.44990539550781</v>
+        <v>72.93081665039062</v>
       </c>
       <c r="I43" t="n">
-        <v>105.3555603027344</v>
+        <v>76.80331420898438</v>
       </c>
       <c r="J43" t="n">
-        <v>71.53912353515625</v>
+        <v>84.49900054931641</v>
       </c>
     </row>
     <row r="44">
@@ -1849,16 +1849,16 @@
         <v>32.34762367758118</v>
       </c>
       <c r="G44" t="n">
-        <v>174.6523742675781</v>
+        <v>192.7582855224609</v>
       </c>
       <c r="H44" t="n">
-        <v>63.87744903564453</v>
+        <v>66.09413909912109</v>
       </c>
       <c r="I44" t="n">
-        <v>142.4269256591797</v>
+        <v>113.9067077636719</v>
       </c>
       <c r="J44" t="n">
-        <v>73.63546752929688</v>
+        <v>97.32958221435547</v>
       </c>
     </row>
     <row r="45">
@@ -1881,16 +1881,16 @@
         <v>33.26712421235609</v>
       </c>
       <c r="G45" t="n">
-        <v>182.6984710693359</v>
+        <v>201.1362152099609</v>
       </c>
       <c r="H45" t="n">
-        <v>63.41492462158203</v>
+        <v>63.83920669555664</v>
       </c>
       <c r="I45" t="n">
-        <v>184.4778289794922</v>
+        <v>153.2872619628906</v>
       </c>
       <c r="J45" t="n">
-        <v>79.77896118164062</v>
+        <v>108.8576583862305</v>
       </c>
     </row>
     <row r="46">
@@ -1913,16 +1913,16 @@
         <v>33.39925272231932</v>
       </c>
       <c r="G46" t="n">
-        <v>191.2757110595703</v>
+        <v>211.7053070068359</v>
       </c>
       <c r="H46" t="n">
-        <v>65.39823913574219</v>
+        <v>59.07770156860352</v>
       </c>
       <c r="I46" t="n">
-        <v>256.4753112792969</v>
+        <v>233.3243560791016</v>
       </c>
       <c r="J46" t="n">
-        <v>91.83078002929688</v>
+        <v>121.9792404174805</v>
       </c>
     </row>
     <row r="47">
@@ -1945,16 +1945,16 @@
         <v>32.83385481517335</v>
       </c>
       <c r="G47" t="n">
-        <v>204.5196990966797</v>
+        <v>223.3578948974609</v>
       </c>
       <c r="H47" t="n">
-        <v>61.08168792724609</v>
+        <v>51.36756896972656</v>
       </c>
       <c r="I47" t="n">
-        <v>325.6018676757812</v>
+        <v>291.8075866699219</v>
       </c>
       <c r="J47" t="n">
-        <v>110.4977493286133</v>
+        <v>139.3309936523438</v>
       </c>
     </row>
     <row r="48">
@@ -1977,16 +1977,16 @@
         <v>31.22587875804939</v>
       </c>
       <c r="G48" t="n">
-        <v>240.7923431396484</v>
+        <v>268.0730285644531</v>
       </c>
       <c r="H48" t="n">
-        <v>53.63919067382812</v>
+        <v>45.04883193969727</v>
       </c>
       <c r="I48" t="n">
-        <v>360.3244323730469</v>
+        <v>341.9872131347656</v>
       </c>
       <c r="J48" t="n">
-        <v>144.5499877929688</v>
+        <v>156.5239868164062</v>
       </c>
     </row>
     <row r="49">
@@ -2009,16 +2009,16 @@
         <v>28.00050845971687</v>
       </c>
       <c r="G49" t="n">
-        <v>292.3548583984375</v>
+        <v>316.072509765625</v>
       </c>
       <c r="H49" t="n">
-        <v>62.51270294189453</v>
+        <v>68.03215789794922</v>
       </c>
       <c r="I49" t="n">
-        <v>343.9039001464844</v>
+        <v>385.5296936035156</v>
       </c>
       <c r="J49" t="n">
-        <v>170.8154602050781</v>
+        <v>140.4807434082031</v>
       </c>
     </row>
     <row r="50">
@@ -2041,16 +2041,16 @@
         <v>32.75859992753161</v>
       </c>
       <c r="G50" t="n">
-        <v>148.0704498291016</v>
+        <v>157.1856231689453</v>
       </c>
       <c r="H50" t="n">
-        <v>69.37606048583984</v>
+        <v>79.20433807373047</v>
       </c>
       <c r="I50" t="n">
-        <v>31.93708419799805</v>
+        <v>6.909585952758789</v>
       </c>
       <c r="J50" t="n">
-        <v>70.82109069824219</v>
+        <v>68.32032775878906</v>
       </c>
     </row>
     <row r="51">
@@ -2073,16 +2073,16 @@
         <v>35.60454595063857</v>
       </c>
       <c r="G51" t="n">
-        <v>162.4112548828125</v>
+        <v>169.4864501953125</v>
       </c>
       <c r="H51" t="n">
-        <v>61.9767951965332</v>
+        <v>71.66303253173828</v>
       </c>
       <c r="I51" t="n">
-        <v>50.9262809753418</v>
+        <v>17.51554298400879</v>
       </c>
       <c r="J51" t="n">
-        <v>66.52904510498047</v>
+        <v>81.92855072021484</v>
       </c>
     </row>
     <row r="52">
@@ -2105,16 +2105,16 @@
         <v>38.13811789539464</v>
       </c>
       <c r="G52" t="n">
-        <v>174.6887664794922</v>
+        <v>182.4219818115234</v>
       </c>
       <c r="H52" t="n">
-        <v>57.63630676269531</v>
+        <v>69.54685211181641</v>
       </c>
       <c r="I52" t="n">
-        <v>61.84522247314453</v>
+        <v>25.40829658508301</v>
       </c>
       <c r="J52" t="n">
-        <v>69.75830078125</v>
+        <v>82.61286163330078</v>
       </c>
     </row>
     <row r="53">
@@ -2137,16 +2137,16 @@
         <v>39.1380055059179</v>
       </c>
       <c r="G53" t="n">
-        <v>179.8542175292969</v>
+        <v>194.3167572021484</v>
       </c>
       <c r="H53" t="n">
-        <v>59.53793334960938</v>
+        <v>65.07696533203125</v>
       </c>
       <c r="I53" t="n">
-        <v>87.19082641601562</v>
+        <v>52.25473022460938</v>
       </c>
       <c r="J53" t="n">
-        <v>70.70407867431641</v>
+        <v>91.78582000732422</v>
       </c>
     </row>
     <row r="54">
@@ -2169,16 +2169,16 @@
         <v>40.17007780104868</v>
       </c>
       <c r="G54" t="n">
-        <v>191.4188690185547</v>
+        <v>200.9356842041016</v>
       </c>
       <c r="H54" t="n">
-        <v>58.68572235107422</v>
+        <v>65.72077178955078</v>
       </c>
       <c r="I54" t="n">
-        <v>131.7476501464844</v>
+        <v>92.6646728515625</v>
       </c>
       <c r="J54" t="n">
-        <v>85.76467132568359</v>
+        <v>110.9160919189453</v>
       </c>
     </row>
     <row r="55">
@@ -2201,16 +2201,16 @@
         <v>40.31777520333784</v>
       </c>
       <c r="G55" t="n">
-        <v>197.5642242431641</v>
+        <v>205.5767364501953</v>
       </c>
       <c r="H55" t="n">
-        <v>60.53501510620117</v>
+        <v>61.37221527099609</v>
       </c>
       <c r="I55" t="n">
-        <v>184.9745483398438</v>
+        <v>147.0885009765625</v>
       </c>
       <c r="J55" t="n">
-        <v>90.72039794921875</v>
+        <v>131.3639526367188</v>
       </c>
     </row>
     <row r="56">
@@ -2233,16 +2233,16 @@
         <v>38.89328689858721</v>
       </c>
       <c r="G56" t="n">
-        <v>206.0018310546875</v>
+        <v>223.3971099853516</v>
       </c>
       <c r="H56" t="n">
-        <v>59.07585525512695</v>
+        <v>52.15517044067383</v>
       </c>
       <c r="I56" t="n">
-        <v>274.4870910644531</v>
+        <v>242.7010650634766</v>
       </c>
       <c r="J56" t="n">
-        <v>104.4603729248047</v>
+        <v>156.1692199707031</v>
       </c>
     </row>
     <row r="57">
@@ -2265,16 +2265,16 @@
         <v>36.03490394546852</v>
       </c>
       <c r="G57" t="n">
-        <v>244.7162475585938</v>
+        <v>259.3802185058594</v>
       </c>
       <c r="H57" t="n">
-        <v>52.18204879760742</v>
+        <v>43.27840423583984</v>
       </c>
       <c r="I57" t="n">
-        <v>331.2032775878906</v>
+        <v>307.7919006347656</v>
       </c>
       <c r="J57" t="n">
-        <v>136.167724609375</v>
+        <v>161.8768310546875</v>
       </c>
     </row>
     <row r="58">
@@ -2297,16 +2297,16 @@
         <v>33.0417017672229</v>
       </c>
       <c r="G58" t="n">
-        <v>289.5991516113281</v>
+        <v>306.3563842773438</v>
       </c>
       <c r="H58" t="n">
-        <v>64.0523681640625</v>
+        <v>63.26755905151367</v>
       </c>
       <c r="I58" t="n">
-        <v>324.1018371582031</v>
+        <v>353.7831115722656</v>
       </c>
       <c r="J58" t="n">
-        <v>157.5929260253906</v>
+        <v>148.9783630371094</v>
       </c>
     </row>
     <row r="59">
@@ -2329,16 +2329,16 @@
         <v>43.98768298598323</v>
       </c>
       <c r="G59" t="n">
-        <v>179.3200988769531</v>
+        <v>180.8622131347656</v>
       </c>
       <c r="H59" t="n">
-        <v>57.95774841308594</v>
+        <v>65.02088165283203</v>
       </c>
       <c r="I59" t="n">
-        <v>3.994206428527832</v>
+        <v>-21.88578796386719</v>
       </c>
       <c r="J59" t="n">
-        <v>65.90794372558594</v>
+        <v>80.85227203369141</v>
       </c>
     </row>
     <row r="60">
@@ -2361,16 +2361,16 @@
         <v>45.7006317110727</v>
       </c>
       <c r="G60" t="n">
-        <v>185.0586700439453</v>
+        <v>191.1810150146484</v>
       </c>
       <c r="H60" t="n">
-        <v>56.41770553588867</v>
+        <v>66.27586364746094</v>
       </c>
       <c r="I60" t="n">
-        <v>14.72198104858398</v>
+        <v>-12.13894557952881</v>
       </c>
       <c r="J60" t="n">
-        <v>63.30457305908203</v>
+        <v>88.91203308105469</v>
       </c>
     </row>
     <row r="61">
@@ -2393,16 +2393,16 @@
         <v>46.67965674781412</v>
       </c>
       <c r="G61" t="n">
-        <v>192.2605590820312</v>
+        <v>200.9493255615234</v>
       </c>
       <c r="H61" t="n">
-        <v>56.25100326538086</v>
+        <v>63.90511322021484</v>
       </c>
       <c r="I61" t="n">
-        <v>45.64875793457031</v>
+        <v>11.0818920135498</v>
       </c>
       <c r="J61" t="n">
-        <v>75.08777618408203</v>
+        <v>97.45040893554688</v>
       </c>
     </row>
     <row r="62">
@@ -2425,16 +2425,16 @@
         <v>47.53914448671719</v>
       </c>
       <c r="G62" t="n">
-        <v>195.6953277587891</v>
+        <v>209.0118408203125</v>
       </c>
       <c r="H62" t="n">
-        <v>56.98191833496094</v>
+        <v>62.10633850097656</v>
       </c>
       <c r="I62" t="n">
-        <v>70.36911773681641</v>
+        <v>34.27471542358398</v>
       </c>
       <c r="J62" t="n">
-        <v>77.55804443359375</v>
+        <v>107.9872817993164</v>
       </c>
     </row>
     <row r="63">
@@ -2457,16 +2457,16 @@
         <v>47.07121651777462</v>
       </c>
       <c r="G63" t="n">
-        <v>201.25341796875</v>
+        <v>212.1057586669922</v>
       </c>
       <c r="H63" t="n">
-        <v>60.61509704589844</v>
+        <v>59.88686370849609</v>
       </c>
       <c r="I63" t="n">
-        <v>125.368408203125</v>
+        <v>86.64496612548828</v>
       </c>
       <c r="J63" t="n">
-        <v>95.49021911621094</v>
+        <v>133.6138305664062</v>
       </c>
     </row>
     <row r="64">
@@ -2489,16 +2489,16 @@
         <v>45.67156598130153</v>
       </c>
       <c r="G64" t="n">
-        <v>211.7608795166016</v>
+        <v>226.2839813232422</v>
       </c>
       <c r="H64" t="n">
-        <v>54.27014541625977</v>
+        <v>55.83482360839844</v>
       </c>
       <c r="I64" t="n">
-        <v>217.9574279785156</v>
+        <v>180.1636657714844</v>
       </c>
       <c r="J64" t="n">
-        <v>105.275520324707</v>
+        <v>161.7836151123047</v>
       </c>
     </row>
     <row r="65">
@@ -2521,16 +2521,16 @@
         <v>42.51104340916319</v>
       </c>
       <c r="G65" t="n">
-        <v>245.8373107910156</v>
+        <v>256.0006103515625</v>
       </c>
       <c r="H65" t="n">
-        <v>55.90359115600586</v>
+        <v>43.48095321655273</v>
       </c>
       <c r="I65" t="n">
-        <v>277.9122314453125</v>
+        <v>258.3962097167969</v>
       </c>
       <c r="J65" t="n">
-        <v>128.5940704345703</v>
+        <v>166.3715362548828</v>
       </c>
     </row>
     <row r="66">
@@ -2553,16 +2553,16 @@
         <v>54.37577254606605</v>
       </c>
       <c r="G66" t="n">
-        <v>196.1045989990234</v>
+        <v>205.5628814697266</v>
       </c>
       <c r="H66" t="n">
-        <v>54.42751312255859</v>
+        <v>57.385009765625</v>
       </c>
       <c r="I66" t="n">
-        <v>-35.16779327392578</v>
+        <v>-56.69820785522461</v>
       </c>
       <c r="J66" t="n">
-        <v>68.68272399902344</v>
+        <v>97.33146667480469</v>
       </c>
     </row>
     <row r="67">
@@ -2585,16 +2585,16 @@
         <v>55.07062752917076</v>
       </c>
       <c r="G67" t="n">
-        <v>199.0158538818359</v>
+        <v>213.3408966064453</v>
       </c>
       <c r="H67" t="n">
-        <v>58.00801467895508</v>
+        <v>58.34825897216797</v>
       </c>
       <c r="I67" t="n">
-        <v>-10.47051239013672</v>
+        <v>-42.49858474731445</v>
       </c>
       <c r="J67" t="n">
-        <v>73.30734252929688</v>
+        <v>102.0334701538086</v>
       </c>
     </row>
     <row r="68">
@@ -2617,16 +2617,16 @@
         <v>54.82432856758766</v>
       </c>
       <c r="G68" t="n">
-        <v>206.7772827148438</v>
+        <v>220.3576507568359</v>
       </c>
       <c r="H68" t="n">
-        <v>55.91575622558594</v>
+        <v>58.419189453125</v>
       </c>
       <c r="I68" t="n">
-        <v>13.70709133148193</v>
+        <v>-19.79633140563965</v>
       </c>
       <c r="J68" t="n">
-        <v>71.11672210693359</v>
+        <v>110.0754547119141</v>
       </c>
     </row>
     <row r="69">
@@ -2649,16 +2649,16 @@
         <v>54.18769809434324</v>
       </c>
       <c r="G69" t="n">
-        <v>210.3229217529297</v>
+        <v>223.1810455322266</v>
       </c>
       <c r="H69" t="n">
-        <v>57.77761840820312</v>
+        <v>57.34216690063477</v>
       </c>
       <c r="I69" t="n">
-        <v>69.53350830078125</v>
+        <v>24.37172508239746</v>
       </c>
       <c r="J69" t="n">
-        <v>87.57720947265625</v>
+        <v>124.734733581543</v>
       </c>
     </row>
     <row r="70">
@@ -2681,16 +2681,16 @@
         <v>51.347187815424</v>
       </c>
       <c r="G70" t="n">
-        <v>217.2598114013672</v>
+        <v>228.7630462646484</v>
       </c>
       <c r="H70" t="n">
-        <v>58.10667419433594</v>
+        <v>55.98562622070312</v>
       </c>
       <c r="I70" t="n">
-        <v>161.4913482666016</v>
+        <v>117.1786575317383</v>
       </c>
       <c r="J70" t="n">
-        <v>111.3851928710938</v>
+        <v>159.501220703125</v>
       </c>
     </row>
   </sheetData>

--- a/04_Model_Saved/NN_full_v3_BO_optimal/MultiTaskModel_NiCrCoVFe_KW99_wt_pct_ML_mc_shared_relu.xlsx
+++ b/04_Model_Saved/NN_full_v3_BO_optimal/MultiTaskModel_NiCrCoVFe_KW99_wt_pct_ML_mc_shared_relu.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J70"/>
+  <dimension ref="A1:K70"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -466,20 +466,25 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>microstructure</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>H1_new_pred_KFold_mean</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>H1_new_pred_KFold_std</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>C2_new_pred_KFold_mean</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>C2_new_pred_KFold_std</t>
         </is>
@@ -504,17 +509,22 @@
       <c r="F2" t="n">
         <v>10.27148578895017</v>
       </c>
-      <c r="G2" t="n">
-        <v>233.6294250488281</v>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H2" t="n">
-        <v>56.06689071655273</v>
+        <v>220.6301574707031</v>
       </c>
       <c r="I2" t="n">
-        <v>474.7901000976562</v>
+        <v>59.1779899597168</v>
       </c>
       <c r="J2" t="n">
-        <v>115.5027694702148</v>
+        <v>499.4284973144531</v>
+      </c>
+      <c r="K2" t="n">
+        <v>96.36595916748047</v>
       </c>
     </row>
     <row r="3">
@@ -536,17 +546,22 @@
       <c r="F3" t="n">
         <v>10.49540628405087</v>
       </c>
-      <c r="G3" t="n">
-        <v>244.2517242431641</v>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H3" t="n">
-        <v>53.85313415527344</v>
+        <v>227.9122467041016</v>
       </c>
       <c r="I3" t="n">
-        <v>497.0472412109375</v>
+        <v>62.01198196411133</v>
       </c>
       <c r="J3" t="n">
-        <v>123.682014465332</v>
+        <v>541.3877563476562</v>
+      </c>
+      <c r="K3" t="n">
+        <v>108.6241073608398</v>
       </c>
     </row>
     <row r="4">
@@ -568,17 +583,22 @@
       <c r="F4" t="n">
         <v>11.11292799977388</v>
       </c>
-      <c r="G4" t="n">
-        <v>255.5135192871094</v>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H4" t="n">
-        <v>59.15281295776367</v>
+        <v>241.4866180419922</v>
       </c>
       <c r="I4" t="n">
-        <v>520.8933715820312</v>
+        <v>59.25140762329102</v>
       </c>
       <c r="J4" t="n">
-        <v>133.0312652587891</v>
+        <v>564.2969970703125</v>
+      </c>
+      <c r="K4" t="n">
+        <v>122.0126190185547</v>
       </c>
     </row>
     <row r="5">
@@ -600,17 +620,22 @@
       <c r="F5" t="n">
         <v>11.33579528302992</v>
       </c>
-      <c r="G5" t="n">
-        <v>270.7007751464844</v>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H5" t="n">
-        <v>62.98183822631836</v>
+        <v>258.3315124511719</v>
       </c>
       <c r="I5" t="n">
-        <v>539.0090942382812</v>
+        <v>60.15779876708984</v>
       </c>
       <c r="J5" t="n">
-        <v>137.4183349609375</v>
+        <v>586.85498046875</v>
+      </c>
+      <c r="K5" t="n">
+        <v>123.6608963012695</v>
       </c>
     </row>
     <row r="6">
@@ -632,17 +657,22 @@
       <c r="F6" t="n">
         <v>11.53221857575777</v>
       </c>
-      <c r="G6" t="n">
-        <v>279.1702575683594</v>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H6" t="n">
-        <v>72.24607086181641</v>
+        <v>273.2442932128906</v>
       </c>
       <c r="I6" t="n">
-        <v>531.3665161132812</v>
+        <v>70.79751586914062</v>
       </c>
       <c r="J6" t="n">
-        <v>148.1827545166016</v>
+        <v>569.216064453125</v>
+      </c>
+      <c r="K6" t="n">
+        <v>115.4581298828125</v>
       </c>
     </row>
     <row r="7">
@@ -664,17 +694,22 @@
       <c r="F7" t="n">
         <v>11.73836346032553</v>
       </c>
-      <c r="G7" t="n">
-        <v>203.7388000488281</v>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H7" t="n">
-        <v>58.05046081542969</v>
+        <v>189.94580078125</v>
       </c>
       <c r="I7" t="n">
-        <v>395.1377868652344</v>
+        <v>62.2507209777832</v>
       </c>
       <c r="J7" t="n">
-        <v>80.14458465576172</v>
+        <v>408.1087341308594</v>
+      </c>
+      <c r="K7" t="n">
+        <v>84.58387756347656</v>
       </c>
     </row>
     <row r="8">
@@ -696,17 +731,22 @@
       <c r="F8" t="n">
         <v>12.47588443056982</v>
       </c>
-      <c r="G8" t="n">
-        <v>216.1732635498047</v>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H8" t="n">
-        <v>55.38935470581055</v>
+        <v>202.5159759521484</v>
       </c>
       <c r="I8" t="n">
-        <v>428.7518615722656</v>
+        <v>58.26871871948242</v>
       </c>
       <c r="J8" t="n">
-        <v>99.78487396240234</v>
+        <v>449.1215209960938</v>
+      </c>
+      <c r="K8" t="n">
+        <v>83.82854461669922</v>
       </c>
     </row>
     <row r="9">
@@ -728,17 +768,22 @@
       <c r="F9" t="n">
         <v>13.31360035996819</v>
       </c>
-      <c r="G9" t="n">
-        <v>228.1960601806641</v>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H9" t="n">
-        <v>51.11914825439453</v>
+        <v>215.523681640625</v>
       </c>
       <c r="I9" t="n">
-        <v>450.914794921875</v>
+        <v>58.67217254638672</v>
       </c>
       <c r="J9" t="n">
-        <v>106.8655395507812</v>
+        <v>474.5057373046875</v>
+      </c>
+      <c r="K9" t="n">
+        <v>85.06479644775391</v>
       </c>
     </row>
     <row r="10">
@@ -760,17 +805,22 @@
       <c r="F10" t="n">
         <v>14.04586286313179</v>
       </c>
-      <c r="G10" t="n">
-        <v>244.2298431396484</v>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H10" t="n">
-        <v>47.3739128112793</v>
+        <v>223.4780731201172</v>
       </c>
       <c r="I10" t="n">
-        <v>456.7231750488281</v>
+        <v>65.33212280273438</v>
       </c>
       <c r="J10" t="n">
-        <v>113.5271377563477</v>
+        <v>490.3695373535156</v>
+      </c>
+      <c r="K10" t="n">
+        <v>88.62237548828125</v>
       </c>
     </row>
     <row r="11">
@@ -792,17 +842,22 @@
       <c r="F11" t="n">
         <v>14.78596965177877</v>
       </c>
-      <c r="G11" t="n">
-        <v>260.2477111816406</v>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H11" t="n">
-        <v>52.34081268310547</v>
+        <v>236.1459045410156</v>
       </c>
       <c r="I11" t="n">
-        <v>471.1871948242188</v>
+        <v>65.01383972167969</v>
       </c>
       <c r="J11" t="n">
-        <v>121.0184936523438</v>
+        <v>519.798095703125</v>
+      </c>
+      <c r="K11" t="n">
+        <v>96.54000091552734</v>
       </c>
     </row>
     <row r="12">
@@ -824,17 +879,22 @@
       <c r="F12" t="n">
         <v>14.60750023008277</v>
       </c>
-      <c r="G12" t="n">
-        <v>270.4848937988281</v>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H12" t="n">
-        <v>58.20036315917969</v>
+        <v>245.9027099609375</v>
       </c>
       <c r="I12" t="n">
-        <v>472.7792663574219</v>
+        <v>65.56962585449219</v>
       </c>
       <c r="J12" t="n">
-        <v>124.1278610229492</v>
+        <v>515.2958984375</v>
+      </c>
+      <c r="K12" t="n">
+        <v>104.872444152832</v>
       </c>
     </row>
     <row r="13">
@@ -856,17 +916,22 @@
       <c r="F13" t="n">
         <v>13.93632017907879</v>
       </c>
-      <c r="G13" t="n">
-        <v>293.0524597167969</v>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H13" t="n">
-        <v>66.84127044677734</v>
+        <v>271.25390625</v>
       </c>
       <c r="I13" t="n">
-        <v>481.4786071777344</v>
+        <v>72.53400421142578</v>
       </c>
       <c r="J13" t="n">
-        <v>136.6026916503906</v>
+        <v>512.9419555664062</v>
+      </c>
+      <c r="K13" t="n">
+        <v>118.7576293945312</v>
       </c>
     </row>
     <row r="14">
@@ -888,17 +953,22 @@
       <c r="F14" t="n">
         <v>13.2060787967079</v>
       </c>
-      <c r="G14" t="n">
-        <v>165.6684112548828</v>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H14" t="n">
-        <v>71.30052185058594</v>
+        <v>162.797607421875</v>
       </c>
       <c r="I14" t="n">
-        <v>204.6610870361328</v>
+        <v>71.98178863525391</v>
       </c>
       <c r="J14" t="n">
-        <v>73.81336975097656</v>
+        <v>223.3926086425781</v>
+      </c>
+      <c r="K14" t="n">
+        <v>92.37525939941406</v>
       </c>
     </row>
     <row r="15">
@@ -920,17 +990,22 @@
       <c r="F15" t="n">
         <v>14.43724685121477</v>
       </c>
-      <c r="G15" t="n">
-        <v>185.0393218994141</v>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H15" t="n">
-        <v>66.71070098876953</v>
+        <v>174.5071411132812</v>
       </c>
       <c r="I15" t="n">
-        <v>268.706298828125</v>
+        <v>68.25331115722656</v>
       </c>
       <c r="J15" t="n">
-        <v>72.76538848876953</v>
+        <v>289.2753601074219</v>
+      </c>
+      <c r="K15" t="n">
+        <v>93.64822387695312</v>
       </c>
     </row>
     <row r="16">
@@ -952,17 +1027,22 @@
       <c r="F16" t="n">
         <v>15.77509757365795</v>
       </c>
-      <c r="G16" t="n">
-        <v>200.7733917236328</v>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H16" t="n">
-        <v>59.21551895141602</v>
+        <v>187.0930023193359</v>
       </c>
       <c r="I16" t="n">
-        <v>329.3307495117188</v>
+        <v>62.70480346679688</v>
       </c>
       <c r="J16" t="n">
-        <v>66.22640991210938</v>
+        <v>343.223876953125</v>
+      </c>
+      <c r="K16" t="n">
+        <v>90.07003021240234</v>
       </c>
     </row>
     <row r="17">
@@ -984,17 +1064,22 @@
       <c r="F17" t="n">
         <v>17.01643502058164</v>
       </c>
-      <c r="G17" t="n">
-        <v>218.9375457763672</v>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H17" t="n">
-        <v>53.22798919677734</v>
+        <v>202.7883911132812</v>
       </c>
       <c r="I17" t="n">
-        <v>386.2823486328125</v>
+        <v>63.29397201538086</v>
       </c>
       <c r="J17" t="n">
-        <v>81.4444580078125</v>
+        <v>401.7761535644531</v>
+      </c>
+      <c r="K17" t="n">
+        <v>82.61502838134766</v>
       </c>
     </row>
     <row r="18">
@@ -1016,17 +1101,22 @@
       <c r="F18" t="n">
         <v>17.57324774662381</v>
       </c>
-      <c r="G18" t="n">
-        <v>224.8482818603516</v>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H18" t="n">
-        <v>47.37125778198242</v>
+        <v>210.9923248291016</v>
       </c>
       <c r="I18" t="n">
-        <v>408.8973083496094</v>
+        <v>62.68314743041992</v>
       </c>
       <c r="J18" t="n">
-        <v>89.39891815185547</v>
+        <v>434.2683410644531</v>
+      </c>
+      <c r="K18" t="n">
+        <v>85.14745330810547</v>
       </c>
     </row>
     <row r="19">
@@ -1048,17 +1138,22 @@
       <c r="F19" t="n">
         <v>18.2282289394109</v>
       </c>
-      <c r="G19" t="n">
-        <v>241.7953338623047</v>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H19" t="n">
-        <v>47.15690612792969</v>
+        <v>221.4175262451172</v>
       </c>
       <c r="I19" t="n">
-        <v>427.3316345214844</v>
+        <v>64.07367706298828</v>
       </c>
       <c r="J19" t="n">
-        <v>97.81977844238281</v>
+        <v>457.6764526367188</v>
+      </c>
+      <c r="K19" t="n">
+        <v>86.85099029541016</v>
       </c>
     </row>
     <row r="20">
@@ -1080,17 +1175,22 @@
       <c r="F20" t="n">
         <v>18.05168677518481</v>
       </c>
-      <c r="G20" t="n">
-        <v>259.3960266113281</v>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H20" t="n">
-        <v>44.3876953125</v>
+        <v>227.9962463378906</v>
       </c>
       <c r="I20" t="n">
-        <v>438.2647399902344</v>
+        <v>64.71458435058594</v>
       </c>
       <c r="J20" t="n">
-        <v>111.8029556274414</v>
+        <v>475.9619750976562</v>
+      </c>
+      <c r="K20" t="n">
+        <v>101.4739837646484</v>
       </c>
     </row>
     <row r="21">
@@ -1112,17 +1212,22 @@
       <c r="F21" t="n">
         <v>17.30316829702608</v>
       </c>
-      <c r="G21" t="n">
-        <v>282.7537231445312</v>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H21" t="n">
-        <v>51.17500305175781</v>
+        <v>254.0884399414062</v>
       </c>
       <c r="I21" t="n">
-        <v>449.6344909667969</v>
+        <v>60.8999137878418</v>
       </c>
       <c r="J21" t="n">
-        <v>122.1962585449219</v>
+        <v>472.7930297851562</v>
+      </c>
+      <c r="K21" t="n">
+        <v>109.6866455078125</v>
       </c>
     </row>
     <row r="22">
@@ -1144,17 +1249,22 @@
       <c r="F22" t="n">
         <v>15.87142913305469</v>
       </c>
-      <c r="G22" t="n">
-        <v>333.3799438476562</v>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H22" t="n">
-        <v>80.86070251464844</v>
+        <v>319.4763793945312</v>
       </c>
       <c r="I22" t="n">
-        <v>451.7577514648438</v>
+        <v>93.06650543212891</v>
       </c>
       <c r="J22" t="n">
-        <v>136.0855102539062</v>
+        <v>444.5184326171875</v>
+      </c>
+      <c r="K22" t="n">
+        <v>141.9555511474609</v>
       </c>
     </row>
     <row r="23">
@@ -1176,17 +1286,22 @@
       <c r="F23" t="n">
         <v>16.2842163689804</v>
       </c>
-      <c r="G23" t="n">
-        <v>155.5232238769531</v>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H23" t="n">
-        <v>79.68890380859375</v>
+        <v>153.5684051513672</v>
       </c>
       <c r="I23" t="n">
-        <v>124.7247924804688</v>
+        <v>72.91082000732422</v>
       </c>
       <c r="J23" t="n">
-        <v>76.03273773193359</v>
+        <v>147.1275024414062</v>
+      </c>
+      <c r="K23" t="n">
+        <v>91.37540435791016</v>
       </c>
     </row>
     <row r="24">
@@ -1208,17 +1323,22 @@
       <c r="F24" t="n">
         <v>17.99859633271077</v>
       </c>
-      <c r="G24" t="n">
-        <v>170.3216705322266</v>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H24" t="n">
-        <v>71.50062561035156</v>
+        <v>169.1233825683594</v>
       </c>
       <c r="I24" t="n">
-        <v>173.7071990966797</v>
+        <v>69.53512573242188</v>
       </c>
       <c r="J24" t="n">
-        <v>80.75071716308594</v>
+        <v>202.8737945556641</v>
+      </c>
+      <c r="K24" t="n">
+        <v>94.65643310546875</v>
       </c>
     </row>
     <row r="25">
@@ -1240,17 +1360,22 @@
       <c r="F25" t="n">
         <v>19.53665474474453</v>
       </c>
-      <c r="G25" t="n">
-        <v>184.9808044433594</v>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H25" t="n">
-        <v>66.21535491943359</v>
+        <v>175.9492034912109</v>
       </c>
       <c r="I25" t="n">
-        <v>212.3995056152344</v>
+        <v>68.94805908203125</v>
       </c>
       <c r="J25" t="n">
-        <v>83.11348724365234</v>
+        <v>250.8156585693359</v>
+      </c>
+      <c r="K25" t="n">
+        <v>91.49556732177734</v>
       </c>
     </row>
     <row r="26">
@@ -1272,17 +1397,22 @@
       <c r="F26" t="n">
         <v>21.18080958029204</v>
       </c>
-      <c r="G26" t="n">
-        <v>202.8692779541016</v>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H26" t="n">
-        <v>62.60544204711914</v>
+        <v>187.2120666503906</v>
       </c>
       <c r="I26" t="n">
-        <v>269.8469848632812</v>
+        <v>70.68913269042969</v>
       </c>
       <c r="J26" t="n">
-        <v>79.40776824951172</v>
+        <v>297.5531005859375</v>
+      </c>
+      <c r="K26" t="n">
+        <v>95.22386169433594</v>
       </c>
     </row>
     <row r="27">
@@ -1304,17 +1434,22 @@
       <c r="F27" t="n">
         <v>22.36133238808863</v>
       </c>
-      <c r="G27" t="n">
-        <v>217.7067108154297</v>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H27" t="n">
-        <v>53.45538711547852</v>
+        <v>200.7974090576172</v>
       </c>
       <c r="I27" t="n">
-        <v>347.4378051757812</v>
+        <v>67.31533813476562</v>
       </c>
       <c r="J27" t="n">
-        <v>67.08443450927734</v>
+        <v>349.1663513183594</v>
+      </c>
+      <c r="K27" t="n">
+        <v>94.59308624267578</v>
       </c>
     </row>
     <row r="28">
@@ -1336,17 +1471,22 @@
       <c r="F28" t="n">
         <v>22.25528267810615</v>
       </c>
-      <c r="G28" t="n">
-        <v>228.7339630126953</v>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H28" t="n">
-        <v>46.41782379150391</v>
+        <v>208.9148712158203</v>
       </c>
       <c r="I28" t="n">
-        <v>382.0462341308594</v>
+        <v>64.68802642822266</v>
       </c>
       <c r="J28" t="n">
-        <v>79.33078765869141</v>
+        <v>393.2320861816406</v>
+      </c>
+      <c r="K28" t="n">
+        <v>96.00433349609375</v>
       </c>
     </row>
     <row r="29">
@@ -1368,17 +1508,22 @@
       <c r="F29" t="n">
         <v>22.11853696692908</v>
       </c>
-      <c r="G29" t="n">
-        <v>246.0581512451172</v>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H29" t="n">
-        <v>42.12464904785156</v>
+        <v>220.1725769042969</v>
       </c>
       <c r="I29" t="n">
-        <v>406.4382019042969</v>
+        <v>64.24864959716797</v>
       </c>
       <c r="J29" t="n">
-        <v>104.8904876708984</v>
+        <v>423.4157104492188</v>
+      </c>
+      <c r="K29" t="n">
+        <v>99.51705169677734</v>
       </c>
     </row>
     <row r="30">
@@ -1400,17 +1545,22 @@
       <c r="F30" t="n">
         <v>21.13587239531939</v>
       </c>
-      <c r="G30" t="n">
-        <v>280.1286926269531</v>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H30" t="n">
-        <v>49.8740119934082</v>
+        <v>251.4181518554688</v>
       </c>
       <c r="I30" t="n">
-        <v>436.9262084960938</v>
+        <v>58.21946334838867</v>
       </c>
       <c r="J30" t="n">
-        <v>131.1773834228516</v>
+        <v>438.8623046875</v>
+      </c>
+      <c r="K30" t="n">
+        <v>114.4740219116211</v>
       </c>
     </row>
     <row r="31">
@@ -1432,17 +1582,22 @@
       <c r="F31" t="n">
         <v>19.80061812897557</v>
       </c>
-      <c r="G31" t="n">
-        <v>323.7873229980469</v>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H31" t="n">
-        <v>74.18986511230469</v>
+        <v>309.0698852539062</v>
       </c>
       <c r="I31" t="n">
-        <v>423.3605041503906</v>
+        <v>73.43027496337891</v>
       </c>
       <c r="J31" t="n">
-        <v>130.0711059570312</v>
+        <v>416.2488403320312</v>
+      </c>
+      <c r="K31" t="n">
+        <v>134.5019989013672</v>
       </c>
     </row>
     <row r="32">
@@ -1464,17 +1619,22 @@
       <c r="F32" t="n">
         <v>20.55168297688286</v>
       </c>
-      <c r="G32" t="n">
-        <v>147.7636108398438</v>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H32" t="n">
-        <v>79.72635650634766</v>
+        <v>151.8853302001953</v>
       </c>
       <c r="I32" t="n">
-        <v>72.56040954589844</v>
+        <v>72.87050628662109</v>
       </c>
       <c r="J32" t="n">
-        <v>72.20065307617188</v>
+        <v>97.30466461181641</v>
+      </c>
+      <c r="K32" t="n">
+        <v>84.21965789794922</v>
       </c>
     </row>
     <row r="33">
@@ -1496,17 +1656,22 @@
       <c r="F33" t="n">
         <v>22.96934284445093</v>
       </c>
-      <c r="G33" t="n">
-        <v>163.3180694580078</v>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H33" t="n">
-        <v>75.41971588134766</v>
+        <v>166.9799957275391</v>
       </c>
       <c r="I33" t="n">
-        <v>104.8023223876953</v>
+        <v>72.73524475097656</v>
       </c>
       <c r="J33" t="n">
-        <v>79.67881774902344</v>
+        <v>137.4281005859375</v>
+      </c>
+      <c r="K33" t="n">
+        <v>96.19129943847656</v>
       </c>
     </row>
     <row r="34">
@@ -1528,17 +1693,22 @@
       <c r="F34" t="n">
         <v>24.40915250803127</v>
       </c>
-      <c r="G34" t="n">
-        <v>180.3034057617188</v>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H34" t="n">
-        <v>67.92824554443359</v>
+        <v>171.1685180664062</v>
       </c>
       <c r="I34" t="n">
-        <v>138.4739379882812</v>
+        <v>74.58148193359375</v>
       </c>
       <c r="J34" t="n">
-        <v>88.04986572265625</v>
+        <v>181.2907867431641</v>
+      </c>
+      <c r="K34" t="n">
+        <v>96.62155151367188</v>
       </c>
     </row>
     <row r="35">
@@ -1560,17 +1730,22 @@
       <c r="F35" t="n">
         <v>26.0811880993595</v>
       </c>
-      <c r="G35" t="n">
-        <v>195.4456939697266</v>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H35" t="n">
-        <v>65.15206146240234</v>
+        <v>181.6549224853516</v>
       </c>
       <c r="I35" t="n">
-        <v>177.3384246826172</v>
+        <v>76.93732452392578</v>
       </c>
       <c r="J35" t="n">
-        <v>91.49510955810547</v>
+        <v>228.3018188476562</v>
+      </c>
+      <c r="K35" t="n">
+        <v>93.11283111572266</v>
       </c>
     </row>
     <row r="36">
@@ -1592,17 +1767,22 @@
       <c r="F36" t="n">
         <v>26.87614780904968</v>
       </c>
-      <c r="G36" t="n">
-        <v>209.6187286376953</v>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H36" t="n">
-        <v>58.06641006469727</v>
+        <v>190.5556030273438</v>
       </c>
       <c r="I36" t="n">
-        <v>239.7773742675781</v>
+        <v>74.77680969238281</v>
       </c>
       <c r="J36" t="n">
-        <v>92.90663146972656</v>
+        <v>274.11328125</v>
+      </c>
+      <c r="K36" t="n">
+        <v>96.08942413330078</v>
       </c>
     </row>
     <row r="37">
@@ -1624,17 +1804,22 @@
       <c r="F37" t="n">
         <v>27.16629873490772</v>
       </c>
-      <c r="G37" t="n">
-        <v>217.6919708251953</v>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H37" t="n">
-        <v>54.0883674621582</v>
+        <v>198.4981384277344</v>
       </c>
       <c r="I37" t="n">
-        <v>290.6998291015625</v>
+        <v>70.83977508544922</v>
       </c>
       <c r="J37" t="n">
-        <v>102.8463439941406</v>
+        <v>309.5693359375</v>
+      </c>
+      <c r="K37" t="n">
+        <v>96.20043182373047</v>
       </c>
     </row>
     <row r="38">
@@ -1656,17 +1841,22 @@
       <c r="F38" t="n">
         <v>27.25598473560972</v>
       </c>
-      <c r="G38" t="n">
-        <v>236.4817504882812</v>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H38" t="n">
-        <v>44.10939025878906</v>
+        <v>212.4986877441406</v>
       </c>
       <c r="I38" t="n">
-        <v>349.026611328125</v>
+        <v>68.62165069580078</v>
       </c>
       <c r="J38" t="n">
-        <v>125.7461395263672</v>
+        <v>372.7648010253906</v>
+      </c>
+      <c r="K38" t="n">
+        <v>101.6739883422852</v>
       </c>
     </row>
     <row r="39">
@@ -1688,17 +1878,22 @@
       <c r="F39" t="n">
         <v>26.04628332899345</v>
       </c>
-      <c r="G39" t="n">
-        <v>268.6336669921875</v>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H39" t="n">
-        <v>46.66052627563477</v>
+        <v>239.8994750976562</v>
       </c>
       <c r="I39" t="n">
-        <v>378.0382080078125</v>
+        <v>61.28727340698242</v>
       </c>
       <c r="J39" t="n">
-        <v>144.3114318847656</v>
+        <v>402.5025024414062</v>
+      </c>
+      <c r="K39" t="n">
+        <v>119.8203353881836</v>
       </c>
     </row>
     <row r="40">
@@ -1720,17 +1915,22 @@
       <c r="F40" t="n">
         <v>23.96978635149335</v>
       </c>
-      <c r="G40" t="n">
-        <v>321.4528503417969</v>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H40" t="n">
-        <v>70.31336975097656</v>
+        <v>305.8853759765625</v>
       </c>
       <c r="I40" t="n">
-        <v>405.2142639160156</v>
+        <v>65.55757141113281</v>
       </c>
       <c r="J40" t="n">
-        <v>134.6981506347656</v>
+        <v>399.8500366210938</v>
+      </c>
+      <c r="K40" t="n">
+        <v>140.1062927246094</v>
       </c>
     </row>
     <row r="41">
@@ -1752,17 +1952,22 @@
       <c r="F41" t="n">
         <v>25.6116837653232</v>
       </c>
-      <c r="G41" t="n">
-        <v>148.2709655761719</v>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H41" t="n">
-        <v>78.57459259033203</v>
+        <v>154.3899536132812</v>
       </c>
       <c r="I41" t="n">
-        <v>33.02262496948242</v>
+        <v>70.94721221923828</v>
       </c>
       <c r="J41" t="n">
-        <v>67.29244232177734</v>
+        <v>68.55633544921875</v>
+      </c>
+      <c r="K41" t="n">
+        <v>81.18212890625</v>
       </c>
     </row>
     <row r="42">
@@ -1784,17 +1989,22 @@
       <c r="F42" t="n">
         <v>28.41067839248494</v>
       </c>
-      <c r="G42" t="n">
-        <v>164.4941864013672</v>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H42" t="n">
-        <v>73.79880523681641</v>
+        <v>164.8587493896484</v>
       </c>
       <c r="I42" t="n">
-        <v>54.3885498046875</v>
+        <v>70.36624145507812</v>
       </c>
       <c r="J42" t="n">
-        <v>72.50645446777344</v>
+        <v>95.14850616455078</v>
+      </c>
+      <c r="K42" t="n">
+        <v>84.79467010498047</v>
       </c>
     </row>
     <row r="43">
@@ -1816,17 +2026,22 @@
       <c r="F43" t="n">
         <v>30.68040031937237</v>
       </c>
-      <c r="G43" t="n">
-        <v>175.7901306152344</v>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H43" t="n">
-        <v>72.93081665039062</v>
+        <v>173.4541473388672</v>
       </c>
       <c r="I43" t="n">
-        <v>76.80331420898438</v>
+        <v>70.18972015380859</v>
       </c>
       <c r="J43" t="n">
-        <v>84.49900054931641</v>
+        <v>129.0738067626953</v>
+      </c>
+      <c r="K43" t="n">
+        <v>90.66093444824219</v>
       </c>
     </row>
     <row r="44">
@@ -1848,17 +2063,22 @@
       <c r="F44" t="n">
         <v>32.34762367758118</v>
       </c>
-      <c r="G44" t="n">
-        <v>192.7582855224609</v>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H44" t="n">
-        <v>66.09413909912109</v>
+        <v>180.1747131347656</v>
       </c>
       <c r="I44" t="n">
-        <v>113.9067077636719</v>
+        <v>73.336181640625</v>
       </c>
       <c r="J44" t="n">
-        <v>97.32958221435547</v>
+        <v>170.5933532714844</v>
+      </c>
+      <c r="K44" t="n">
+        <v>94.78709411621094</v>
       </c>
     </row>
     <row r="45">
@@ -1880,17 +2100,22 @@
       <c r="F45" t="n">
         <v>33.26712421235609</v>
       </c>
-      <c r="G45" t="n">
-        <v>201.1362152099609</v>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H45" t="n">
-        <v>63.83920669555664</v>
+        <v>186.489013671875</v>
       </c>
       <c r="I45" t="n">
-        <v>153.2872619628906</v>
+        <v>82.34949493408203</v>
       </c>
       <c r="J45" t="n">
-        <v>108.8576583862305</v>
+        <v>221.3418273925781</v>
+      </c>
+      <c r="K45" t="n">
+        <v>94.54922485351562</v>
       </c>
     </row>
     <row r="46">
@@ -1912,17 +2137,22 @@
       <c r="F46" t="n">
         <v>33.39925272231932</v>
       </c>
-      <c r="G46" t="n">
-        <v>211.7053070068359</v>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H46" t="n">
-        <v>59.07770156860352</v>
+        <v>196.175048828125</v>
       </c>
       <c r="I46" t="n">
-        <v>233.3243560791016</v>
+        <v>75.77425384521484</v>
       </c>
       <c r="J46" t="n">
-        <v>121.9792404174805</v>
+        <v>276.6124572753906</v>
+      </c>
+      <c r="K46" t="n">
+        <v>103.0248413085938</v>
       </c>
     </row>
     <row r="47">
@@ -1944,17 +2174,22 @@
       <c r="F47" t="n">
         <v>32.83385481517335</v>
       </c>
-      <c r="G47" t="n">
-        <v>223.3578948974609</v>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H47" t="n">
-        <v>51.36756896972656</v>
+        <v>203.1386260986328</v>
       </c>
       <c r="I47" t="n">
-        <v>291.8075866699219</v>
+        <v>69.70423889160156</v>
       </c>
       <c r="J47" t="n">
-        <v>139.3309936523438</v>
+        <v>322.8243103027344</v>
+      </c>
+      <c r="K47" t="n">
+        <v>102.4667129516602</v>
       </c>
     </row>
     <row r="48">
@@ -1976,17 +2211,22 @@
       <c r="F48" t="n">
         <v>31.22587875804939</v>
       </c>
-      <c r="G48" t="n">
-        <v>268.0730285644531</v>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H48" t="n">
-        <v>45.04883193969727</v>
+        <v>242.2288055419922</v>
       </c>
       <c r="I48" t="n">
-        <v>341.9872131347656</v>
+        <v>61.90705108642578</v>
       </c>
       <c r="J48" t="n">
-        <v>156.5239868164062</v>
+        <v>378.8021850585938</v>
+      </c>
+      <c r="K48" t="n">
+        <v>126.1707611083984</v>
       </c>
     </row>
     <row r="49">
@@ -2008,17 +2248,22 @@
       <c r="F49" t="n">
         <v>28.00050845971687</v>
       </c>
-      <c r="G49" t="n">
-        <v>316.072509765625</v>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H49" t="n">
-        <v>68.03215789794922</v>
+        <v>303.1158447265625</v>
       </c>
       <c r="I49" t="n">
-        <v>385.5296936035156</v>
+        <v>65.40548706054688</v>
       </c>
       <c r="J49" t="n">
-        <v>140.4807434082031</v>
+        <v>388.8443603515625</v>
+      </c>
+      <c r="K49" t="n">
+        <v>155.4431304931641</v>
       </c>
     </row>
     <row r="50">
@@ -2040,17 +2285,22 @@
       <c r="F50" t="n">
         <v>32.75859992753161</v>
       </c>
-      <c r="G50" t="n">
-        <v>157.1856231689453</v>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H50" t="n">
-        <v>79.20433807373047</v>
+        <v>159.0690765380859</v>
       </c>
       <c r="I50" t="n">
-        <v>6.909585952758789</v>
+        <v>68.55178070068359</v>
       </c>
       <c r="J50" t="n">
-        <v>68.32032775878906</v>
+        <v>47.4061164855957</v>
+      </c>
+      <c r="K50" t="n">
+        <v>80.5411376953125</v>
       </c>
     </row>
     <row r="51">
@@ -2072,17 +2322,22 @@
       <c r="F51" t="n">
         <v>35.60454595063857</v>
       </c>
-      <c r="G51" t="n">
-        <v>169.4864501953125</v>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H51" t="n">
-        <v>71.66303253173828</v>
+        <v>168.8802795410156</v>
       </c>
       <c r="I51" t="n">
-        <v>17.51554298400879</v>
+        <v>68.2633056640625</v>
       </c>
       <c r="J51" t="n">
-        <v>81.92855072021484</v>
+        <v>63.6456298828125</v>
+      </c>
+      <c r="K51" t="n">
+        <v>79.08767700195312</v>
       </c>
     </row>
     <row r="52">
@@ -2104,17 +2359,22 @@
       <c r="F52" t="n">
         <v>38.13811789539464</v>
       </c>
-      <c r="G52" t="n">
-        <v>182.4219818115234</v>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H52" t="n">
-        <v>69.54685211181641</v>
+        <v>179.1922302246094</v>
       </c>
       <c r="I52" t="n">
-        <v>25.40829658508301</v>
+        <v>71.98125457763672</v>
       </c>
       <c r="J52" t="n">
-        <v>82.61286163330078</v>
+        <v>80.45231628417969</v>
+      </c>
+      <c r="K52" t="n">
+        <v>88.21706390380859</v>
       </c>
     </row>
     <row r="53">
@@ -2136,17 +2396,22 @@
       <c r="F53" t="n">
         <v>39.1380055059179</v>
       </c>
-      <c r="G53" t="n">
-        <v>194.3167572021484</v>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H53" t="n">
-        <v>65.07696533203125</v>
+        <v>185.4116668701172</v>
       </c>
       <c r="I53" t="n">
-        <v>52.25473022460938</v>
+        <v>73.82817840576172</v>
       </c>
       <c r="J53" t="n">
-        <v>91.78582000732422</v>
+        <v>114.206428527832</v>
+      </c>
+      <c r="K53" t="n">
+        <v>96.66138458251953</v>
       </c>
     </row>
     <row r="54">
@@ -2168,17 +2433,22 @@
       <c r="F54" t="n">
         <v>40.17007780104868</v>
       </c>
-      <c r="G54" t="n">
-        <v>200.9356842041016</v>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H54" t="n">
-        <v>65.72077178955078</v>
+        <v>188.6608276367188</v>
       </c>
       <c r="I54" t="n">
-        <v>92.6646728515625</v>
+        <v>82.69205474853516</v>
       </c>
       <c r="J54" t="n">
-        <v>110.9160919189453</v>
+        <v>170.7070007324219</v>
+      </c>
+      <c r="K54" t="n">
+        <v>103.7849960327148</v>
       </c>
     </row>
     <row r="55">
@@ -2200,17 +2470,22 @@
       <c r="F55" t="n">
         <v>40.31777520333784</v>
       </c>
-      <c r="G55" t="n">
-        <v>205.5767364501953</v>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H55" t="n">
-        <v>61.37221527099609</v>
+        <v>194.5607452392578</v>
       </c>
       <c r="I55" t="n">
-        <v>147.0885009765625</v>
+        <v>79.97234344482422</v>
       </c>
       <c r="J55" t="n">
-        <v>131.3639526367188</v>
+        <v>224.9002075195312</v>
+      </c>
+      <c r="K55" t="n">
+        <v>105.9892807006836</v>
       </c>
     </row>
     <row r="56">
@@ -2232,17 +2507,22 @@
       <c r="F56" t="n">
         <v>38.89328689858721</v>
       </c>
-      <c r="G56" t="n">
-        <v>223.3971099853516</v>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H56" t="n">
-        <v>52.15517044067383</v>
+        <v>205.4769897460938</v>
       </c>
       <c r="I56" t="n">
-        <v>242.7010650634766</v>
+        <v>70.805908203125</v>
       </c>
       <c r="J56" t="n">
-        <v>156.1692199707031</v>
+        <v>296.9824829101562</v>
+      </c>
+      <c r="K56" t="n">
+        <v>117.7498397827148</v>
       </c>
     </row>
     <row r="57">
@@ -2264,17 +2544,22 @@
       <c r="F57" t="n">
         <v>36.03490394546852</v>
       </c>
-      <c r="G57" t="n">
-        <v>259.3802185058594</v>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H57" t="n">
-        <v>43.27840423583984</v>
+        <v>236.4317474365234</v>
       </c>
       <c r="I57" t="n">
-        <v>307.7919006347656</v>
+        <v>63.15375900268555</v>
       </c>
       <c r="J57" t="n">
-        <v>161.8768310546875</v>
+        <v>361.254150390625</v>
+      </c>
+      <c r="K57" t="n">
+        <v>132.1754302978516</v>
       </c>
     </row>
     <row r="58">
@@ -2296,17 +2581,22 @@
       <c r="F58" t="n">
         <v>33.0417017672229</v>
       </c>
-      <c r="G58" t="n">
-        <v>306.3563842773438</v>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H58" t="n">
-        <v>63.26755905151367</v>
+        <v>291.3365478515625</v>
       </c>
       <c r="I58" t="n">
-        <v>353.7831115722656</v>
+        <v>56.04048919677734</v>
       </c>
       <c r="J58" t="n">
-        <v>148.9783630371094</v>
+        <v>364.5771484375</v>
+      </c>
+      <c r="K58" t="n">
+        <v>157.3588714599609</v>
       </c>
     </row>
     <row r="59">
@@ -2328,17 +2618,22 @@
       <c r="F59" t="n">
         <v>43.98768298598323</v>
       </c>
-      <c r="G59" t="n">
-        <v>180.8622131347656</v>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H59" t="n">
-        <v>65.02088165283203</v>
+        <v>181.2554779052734</v>
       </c>
       <c r="I59" t="n">
-        <v>-21.88578796386719</v>
+        <v>63.03110504150391</v>
       </c>
       <c r="J59" t="n">
-        <v>80.85227203369141</v>
+        <v>23.70956611633301</v>
+      </c>
+      <c r="K59" t="n">
+        <v>93.54600524902344</v>
       </c>
     </row>
     <row r="60">
@@ -2360,17 +2655,22 @@
       <c r="F60" t="n">
         <v>45.7006317110727</v>
       </c>
-      <c r="G60" t="n">
-        <v>191.1810150146484</v>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H60" t="n">
-        <v>66.27586364746094</v>
+        <v>190.0792388916016</v>
       </c>
       <c r="I60" t="n">
-        <v>-12.13894557952881</v>
+        <v>69.12972259521484</v>
       </c>
       <c r="J60" t="n">
-        <v>88.91203308105469</v>
+        <v>44.23797988891602</v>
+      </c>
+      <c r="K60" t="n">
+        <v>99.01834106445312</v>
       </c>
     </row>
     <row r="61">
@@ -2392,17 +2692,22 @@
       <c r="F61" t="n">
         <v>46.67965674781412</v>
       </c>
-      <c r="G61" t="n">
-        <v>200.9493255615234</v>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H61" t="n">
-        <v>63.90511322021484</v>
+        <v>192.2933807373047</v>
       </c>
       <c r="I61" t="n">
-        <v>11.0818920135498</v>
+        <v>75.68699645996094</v>
       </c>
       <c r="J61" t="n">
-        <v>97.45040893554688</v>
+        <v>76.81114196777344</v>
+      </c>
+      <c r="K61" t="n">
+        <v>106.8517990112305</v>
       </c>
     </row>
     <row r="62">
@@ -2424,17 +2729,22 @@
       <c r="F62" t="n">
         <v>47.53914448671719</v>
       </c>
-      <c r="G62" t="n">
-        <v>209.0118408203125</v>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H62" t="n">
-        <v>62.10633850097656</v>
+        <v>195.0305786132812</v>
       </c>
       <c r="I62" t="n">
-        <v>34.27471542358398</v>
+        <v>79.21177673339844</v>
       </c>
       <c r="J62" t="n">
-        <v>107.9872817993164</v>
+        <v>108.4671173095703</v>
+      </c>
+      <c r="K62" t="n">
+        <v>106.6386260986328</v>
       </c>
     </row>
     <row r="63">
@@ -2456,17 +2766,22 @@
       <c r="F63" t="n">
         <v>47.07121651777462</v>
       </c>
-      <c r="G63" t="n">
-        <v>212.1057586669922</v>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H63" t="n">
-        <v>59.88686370849609</v>
+        <v>198.7287750244141</v>
       </c>
       <c r="I63" t="n">
-        <v>86.64496612548828</v>
+        <v>86.60434722900391</v>
       </c>
       <c r="J63" t="n">
-        <v>133.6138305664062</v>
+        <v>171.1585235595703</v>
+      </c>
+      <c r="K63" t="n">
+        <v>118.2891540527344</v>
       </c>
     </row>
     <row r="64">
@@ -2488,17 +2803,22 @@
       <c r="F64" t="n">
         <v>45.67156598130153</v>
       </c>
-      <c r="G64" t="n">
-        <v>226.2839813232422</v>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H64" t="n">
-        <v>55.83482360839844</v>
+        <v>209.5943298339844</v>
       </c>
       <c r="I64" t="n">
-        <v>180.1636657714844</v>
+        <v>73.92837524414062</v>
       </c>
       <c r="J64" t="n">
-        <v>161.7836151123047</v>
+        <v>254.9651031494141</v>
+      </c>
+      <c r="K64" t="n">
+        <v>124.2905426025391</v>
       </c>
     </row>
     <row r="65">
@@ -2520,17 +2840,22 @@
       <c r="F65" t="n">
         <v>42.51104340916319</v>
       </c>
-      <c r="G65" t="n">
-        <v>256.0006103515625</v>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H65" t="n">
-        <v>43.48095321655273</v>
+        <v>233.4321136474609</v>
       </c>
       <c r="I65" t="n">
-        <v>258.3962097167969</v>
+        <v>63.89310073852539</v>
       </c>
       <c r="J65" t="n">
-        <v>166.3715362548828</v>
+        <v>324.3525390625</v>
+      </c>
+      <c r="K65" t="n">
+        <v>151.5996551513672</v>
       </c>
     </row>
     <row r="66">
@@ -2552,17 +2877,22 @@
       <c r="F66" t="n">
         <v>54.37577254606605</v>
       </c>
-      <c r="G66" t="n">
-        <v>205.5628814697266</v>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H66" t="n">
-        <v>57.385009765625</v>
+        <v>201.9301605224609</v>
       </c>
       <c r="I66" t="n">
-        <v>-56.69820785522461</v>
+        <v>65.97403717041016</v>
       </c>
       <c r="J66" t="n">
-        <v>97.33146667480469</v>
+        <v>-7.696150779724121</v>
+      </c>
+      <c r="K66" t="n">
+        <v>107.6541519165039</v>
       </c>
     </row>
     <row r="67">
@@ -2584,17 +2914,22 @@
       <c r="F67" t="n">
         <v>55.07062752917076</v>
       </c>
-      <c r="G67" t="n">
-        <v>213.3408966064453</v>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H67" t="n">
-        <v>58.34825897216797</v>
+        <v>202.0468902587891</v>
       </c>
       <c r="I67" t="n">
-        <v>-42.49858474731445</v>
+        <v>75.6116943359375</v>
       </c>
       <c r="J67" t="n">
-        <v>102.0334701538086</v>
+        <v>21.58824920654297</v>
+      </c>
+      <c r="K67" t="n">
+        <v>111.3748397827148</v>
       </c>
     </row>
     <row r="68">
@@ -2616,17 +2951,22 @@
       <c r="F68" t="n">
         <v>54.82432856758766</v>
       </c>
-      <c r="G68" t="n">
-        <v>220.3576507568359</v>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H68" t="n">
-        <v>58.419189453125</v>
+        <v>205.2210540771484</v>
       </c>
       <c r="I68" t="n">
-        <v>-19.79633140563965</v>
+        <v>76.68820190429688</v>
       </c>
       <c r="J68" t="n">
-        <v>110.0754547119141</v>
+        <v>56.33186340332031</v>
+      </c>
+      <c r="K68" t="n">
+        <v>117.2079544067383</v>
       </c>
     </row>
     <row r="69">
@@ -2648,17 +2988,22 @@
       <c r="F69" t="n">
         <v>54.18769809434324</v>
       </c>
-      <c r="G69" t="n">
-        <v>223.1810455322266</v>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H69" t="n">
-        <v>57.34216690063477</v>
+        <v>206.43115234375</v>
       </c>
       <c r="I69" t="n">
-        <v>24.37172508239746</v>
+        <v>84.19795989990234</v>
       </c>
       <c r="J69" t="n">
-        <v>124.734733581543</v>
+        <v>116.4135818481445</v>
+      </c>
+      <c r="K69" t="n">
+        <v>125.5811233520508</v>
       </c>
     </row>
     <row r="70">
@@ -2680,17 +3025,22 @@
       <c r="F70" t="n">
         <v>51.347187815424</v>
       </c>
-      <c r="G70" t="n">
-        <v>228.7630462646484</v>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H70" t="n">
-        <v>55.98562622070312</v>
+        <v>210.4747009277344</v>
       </c>
       <c r="I70" t="n">
-        <v>117.1786575317383</v>
+        <v>77.77152252197266</v>
       </c>
       <c r="J70" t="n">
-        <v>159.501220703125</v>
+        <v>198.7269287109375</v>
+      </c>
+      <c r="K70" t="n">
+        <v>132.9973754882812</v>
       </c>
     </row>
   </sheetData>

--- a/04_Model_Saved/NN_full_v3_BO_optimal/MultiTaskModel_NiCrCoVFe_KW99_wt_pct_ML_mc_shared_relu.xlsx
+++ b/04_Model_Saved/NN_full_v3_BO_optimal/MultiTaskModel_NiCrCoVFe_KW99_wt_pct_ML_mc_shared_relu.xlsx
@@ -515,16 +515,16 @@
         </is>
       </c>
       <c r="H2" t="n">
-        <v>220.6301574707031</v>
+        <v>221.5859832763672</v>
       </c>
       <c r="I2" t="n">
-        <v>59.1779899597168</v>
+        <v>53.78680801391602</v>
       </c>
       <c r="J2" t="n">
-        <v>499.4284973144531</v>
+        <v>501.1698913574219</v>
       </c>
       <c r="K2" t="n">
-        <v>96.36595916748047</v>
+        <v>91.61899566650391</v>
       </c>
     </row>
     <row r="3">
@@ -552,16 +552,16 @@
         </is>
       </c>
       <c r="H3" t="n">
-        <v>227.9122467041016</v>
+        <v>228.7170562744141</v>
       </c>
       <c r="I3" t="n">
-        <v>62.01198196411133</v>
+        <v>59.09373092651367</v>
       </c>
       <c r="J3" t="n">
-        <v>541.3877563476562</v>
+        <v>539.5807495117188</v>
       </c>
       <c r="K3" t="n">
-        <v>108.6241073608398</v>
+        <v>111.107780456543</v>
       </c>
     </row>
     <row r="4">
@@ -589,16 +589,16 @@
         </is>
       </c>
       <c r="H4" t="n">
-        <v>241.4866180419922</v>
+        <v>239.7063598632812</v>
       </c>
       <c r="I4" t="n">
-        <v>59.25140762329102</v>
+        <v>57.73657989501953</v>
       </c>
       <c r="J4" t="n">
-        <v>564.2969970703125</v>
+        <v>565.1780395507812</v>
       </c>
       <c r="K4" t="n">
-        <v>122.0126190185547</v>
+        <v>124.2272796630859</v>
       </c>
     </row>
     <row r="5">
@@ -626,16 +626,16 @@
         </is>
       </c>
       <c r="H5" t="n">
-        <v>258.3315124511719</v>
+        <v>257.7054138183594</v>
       </c>
       <c r="I5" t="n">
-        <v>60.15779876708984</v>
+        <v>62.40848159790039</v>
       </c>
       <c r="J5" t="n">
-        <v>586.85498046875</v>
+        <v>587.1890258789062</v>
       </c>
       <c r="K5" t="n">
-        <v>123.6608963012695</v>
+        <v>128.5612030029297</v>
       </c>
     </row>
     <row r="6">
@@ -663,16 +663,16 @@
         </is>
       </c>
       <c r="H6" t="n">
-        <v>273.2442932128906</v>
+        <v>270.8391723632812</v>
       </c>
       <c r="I6" t="n">
-        <v>70.79751586914062</v>
+        <v>72.50895690917969</v>
       </c>
       <c r="J6" t="n">
-        <v>569.216064453125</v>
+        <v>569.484375</v>
       </c>
       <c r="K6" t="n">
-        <v>115.4581298828125</v>
+        <v>115.850471496582</v>
       </c>
     </row>
     <row r="7">
@@ -700,16 +700,16 @@
         </is>
       </c>
       <c r="H7" t="n">
-        <v>189.94580078125</v>
+        <v>189.2006683349609</v>
       </c>
       <c r="I7" t="n">
-        <v>62.2507209777832</v>
+        <v>64.22386932373047</v>
       </c>
       <c r="J7" t="n">
-        <v>408.1087341308594</v>
+        <v>407.8805541992188</v>
       </c>
       <c r="K7" t="n">
-        <v>84.58387756347656</v>
+        <v>81.43518829345703</v>
       </c>
     </row>
     <row r="8">
@@ -737,16 +737,16 @@
         </is>
       </c>
       <c r="H8" t="n">
-        <v>202.5159759521484</v>
+        <v>202.6667327880859</v>
       </c>
       <c r="I8" t="n">
-        <v>58.26871871948242</v>
+        <v>62.16582870483398</v>
       </c>
       <c r="J8" t="n">
-        <v>449.1215209960938</v>
+        <v>444.4083862304688</v>
       </c>
       <c r="K8" t="n">
-        <v>83.82854461669922</v>
+        <v>82.02510070800781</v>
       </c>
     </row>
     <row r="9">
@@ -774,16 +774,16 @@
         </is>
       </c>
       <c r="H9" t="n">
-        <v>215.523681640625</v>
+        <v>215.6273956298828</v>
       </c>
       <c r="I9" t="n">
-        <v>58.67217254638672</v>
+        <v>58.98297500610352</v>
       </c>
       <c r="J9" t="n">
-        <v>474.5057373046875</v>
+        <v>472.9238586425781</v>
       </c>
       <c r="K9" t="n">
-        <v>85.06479644775391</v>
+        <v>83.75888061523438</v>
       </c>
     </row>
     <row r="10">
@@ -811,16 +811,16 @@
         </is>
       </c>
       <c r="H10" t="n">
-        <v>223.4780731201172</v>
+        <v>226.1145324707031</v>
       </c>
       <c r="I10" t="n">
-        <v>65.33212280273438</v>
+        <v>61.98495101928711</v>
       </c>
       <c r="J10" t="n">
-        <v>490.3695373535156</v>
+        <v>492.9979553222656</v>
       </c>
       <c r="K10" t="n">
-        <v>88.62237548828125</v>
+        <v>93.15086364746094</v>
       </c>
     </row>
     <row r="11">
@@ -848,16 +848,16 @@
         </is>
       </c>
       <c r="H11" t="n">
-        <v>236.1459045410156</v>
+        <v>234.5947418212891</v>
       </c>
       <c r="I11" t="n">
-        <v>65.01383972167969</v>
+        <v>64.54625701904297</v>
       </c>
       <c r="J11" t="n">
-        <v>519.798095703125</v>
+        <v>520.2600708007812</v>
       </c>
       <c r="K11" t="n">
-        <v>96.54000091552734</v>
+        <v>98.87931823730469</v>
       </c>
     </row>
     <row r="12">
@@ -885,16 +885,16 @@
         </is>
       </c>
       <c r="H12" t="n">
-        <v>245.9027099609375</v>
+        <v>246.7101593017578</v>
       </c>
       <c r="I12" t="n">
-        <v>65.56962585449219</v>
+        <v>63.5970458984375</v>
       </c>
       <c r="J12" t="n">
-        <v>515.2958984375</v>
+        <v>518.552734375</v>
       </c>
       <c r="K12" t="n">
-        <v>104.872444152832</v>
+        <v>112.0679931640625</v>
       </c>
     </row>
     <row r="13">
@@ -922,16 +922,16 @@
         </is>
       </c>
       <c r="H13" t="n">
-        <v>271.25390625</v>
+        <v>270.0943603515625</v>
       </c>
       <c r="I13" t="n">
-        <v>72.53400421142578</v>
+        <v>71.59970092773438</v>
       </c>
       <c r="J13" t="n">
-        <v>512.9419555664062</v>
+        <v>517.7843017578125</v>
       </c>
       <c r="K13" t="n">
-        <v>118.7576293945312</v>
+        <v>121.58251953125</v>
       </c>
     </row>
     <row r="14">
@@ -959,16 +959,16 @@
         </is>
       </c>
       <c r="H14" t="n">
-        <v>162.797607421875</v>
+        <v>161.0749359130859</v>
       </c>
       <c r="I14" t="n">
-        <v>71.98178863525391</v>
+        <v>69.74208068847656</v>
       </c>
       <c r="J14" t="n">
-        <v>223.3926086425781</v>
+        <v>219.1886138916016</v>
       </c>
       <c r="K14" t="n">
-        <v>92.37525939941406</v>
+        <v>95.13847351074219</v>
       </c>
     </row>
     <row r="15">
@@ -996,16 +996,16 @@
         </is>
       </c>
       <c r="H15" t="n">
-        <v>174.5071411132812</v>
+        <v>175.8380737304688</v>
       </c>
       <c r="I15" t="n">
-        <v>68.25331115722656</v>
+        <v>67.31076812744141</v>
       </c>
       <c r="J15" t="n">
-        <v>289.2753601074219</v>
+        <v>291.8359985351562</v>
       </c>
       <c r="K15" t="n">
-        <v>93.64822387695312</v>
+        <v>92.62061309814453</v>
       </c>
     </row>
     <row r="16">
@@ -1033,16 +1033,16 @@
         </is>
       </c>
       <c r="H16" t="n">
-        <v>187.0930023193359</v>
+        <v>186.2054443359375</v>
       </c>
       <c r="I16" t="n">
-        <v>62.70480346679688</v>
+        <v>65.22370910644531</v>
       </c>
       <c r="J16" t="n">
-        <v>343.223876953125</v>
+        <v>343.5669860839844</v>
       </c>
       <c r="K16" t="n">
-        <v>90.07003021240234</v>
+        <v>87.4266357421875</v>
       </c>
     </row>
     <row r="17">
@@ -1070,16 +1070,16 @@
         </is>
       </c>
       <c r="H17" t="n">
-        <v>202.7883911132812</v>
+        <v>201.4495239257812</v>
       </c>
       <c r="I17" t="n">
-        <v>63.29397201538086</v>
+        <v>64.17876434326172</v>
       </c>
       <c r="J17" t="n">
-        <v>401.7761535644531</v>
+        <v>406.1112365722656</v>
       </c>
       <c r="K17" t="n">
-        <v>82.61502838134766</v>
+        <v>85.81711578369141</v>
       </c>
     </row>
     <row r="18">
@@ -1107,16 +1107,16 @@
         </is>
       </c>
       <c r="H18" t="n">
-        <v>210.9923248291016</v>
+        <v>209.0259857177734</v>
       </c>
       <c r="I18" t="n">
-        <v>62.68314743041992</v>
+        <v>62.09521102905273</v>
       </c>
       <c r="J18" t="n">
-        <v>434.2683410644531</v>
+        <v>434.8868103027344</v>
       </c>
       <c r="K18" t="n">
-        <v>85.14745330810547</v>
+        <v>84.83343505859375</v>
       </c>
     </row>
     <row r="19">
@@ -1144,16 +1144,16 @@
         </is>
       </c>
       <c r="H19" t="n">
-        <v>221.4175262451172</v>
+        <v>220.8677825927734</v>
       </c>
       <c r="I19" t="n">
-        <v>64.07367706298828</v>
+        <v>64.71575927734375</v>
       </c>
       <c r="J19" t="n">
-        <v>457.6764526367188</v>
+        <v>458.6126708984375</v>
       </c>
       <c r="K19" t="n">
-        <v>86.85099029541016</v>
+        <v>91.75386810302734</v>
       </c>
     </row>
     <row r="20">
@@ -1181,16 +1181,16 @@
         </is>
       </c>
       <c r="H20" t="n">
-        <v>227.9962463378906</v>
+        <v>228.8605194091797</v>
       </c>
       <c r="I20" t="n">
-        <v>64.71458435058594</v>
+        <v>64.61209106445312</v>
       </c>
       <c r="J20" t="n">
-        <v>475.9619750976562</v>
+        <v>473.7440490722656</v>
       </c>
       <c r="K20" t="n">
-        <v>101.4739837646484</v>
+        <v>102.3584213256836</v>
       </c>
     </row>
     <row r="21">
@@ -1218,16 +1218,16 @@
         </is>
       </c>
       <c r="H21" t="n">
-        <v>254.0884399414062</v>
+        <v>252.9884338378906</v>
       </c>
       <c r="I21" t="n">
-        <v>60.8999137878418</v>
+        <v>61.63710403442383</v>
       </c>
       <c r="J21" t="n">
-        <v>472.7930297851562</v>
+        <v>472.3405151367188</v>
       </c>
       <c r="K21" t="n">
-        <v>109.6866455078125</v>
+        <v>111.6951599121094</v>
       </c>
     </row>
     <row r="22">
@@ -1255,16 +1255,16 @@
         </is>
       </c>
       <c r="H22" t="n">
-        <v>319.4763793945312</v>
+        <v>321.8576965332031</v>
       </c>
       <c r="I22" t="n">
-        <v>93.06650543212891</v>
+        <v>91.796630859375</v>
       </c>
       <c r="J22" t="n">
-        <v>444.5184326171875</v>
+        <v>448.3263549804688</v>
       </c>
       <c r="K22" t="n">
-        <v>141.9555511474609</v>
+        <v>143.1705322265625</v>
       </c>
     </row>
     <row r="23">
@@ -1292,16 +1292,16 @@
         </is>
       </c>
       <c r="H23" t="n">
-        <v>153.5684051513672</v>
+        <v>153.3026580810547</v>
       </c>
       <c r="I23" t="n">
-        <v>72.91082000732422</v>
+        <v>73.78620910644531</v>
       </c>
       <c r="J23" t="n">
-        <v>147.1275024414062</v>
+        <v>148.6775970458984</v>
       </c>
       <c r="K23" t="n">
-        <v>91.37540435791016</v>
+        <v>93.92353820800781</v>
       </c>
     </row>
     <row r="24">
@@ -1329,16 +1329,16 @@
         </is>
       </c>
       <c r="H24" t="n">
-        <v>169.1233825683594</v>
+        <v>165.4036102294922</v>
       </c>
       <c r="I24" t="n">
-        <v>69.53512573242188</v>
+        <v>73.32549285888672</v>
       </c>
       <c r="J24" t="n">
-        <v>202.8737945556641</v>
+        <v>198.4783477783203</v>
       </c>
       <c r="K24" t="n">
-        <v>94.65643310546875</v>
+        <v>92.76934051513672</v>
       </c>
     </row>
     <row r="25">
@@ -1366,16 +1366,16 @@
         </is>
       </c>
       <c r="H25" t="n">
-        <v>175.9492034912109</v>
+        <v>179.6357879638672</v>
       </c>
       <c r="I25" t="n">
-        <v>68.94805908203125</v>
+        <v>69.08599853515625</v>
       </c>
       <c r="J25" t="n">
-        <v>250.8156585693359</v>
+        <v>248.9871063232422</v>
       </c>
       <c r="K25" t="n">
-        <v>91.49556732177734</v>
+        <v>92.84387969970703</v>
       </c>
     </row>
     <row r="26">
@@ -1403,16 +1403,16 @@
         </is>
       </c>
       <c r="H26" t="n">
-        <v>187.2120666503906</v>
+        <v>191.8747711181641</v>
       </c>
       <c r="I26" t="n">
-        <v>70.68913269042969</v>
+        <v>68.69111633300781</v>
       </c>
       <c r="J26" t="n">
-        <v>297.5531005859375</v>
+        <v>297.6632080078125</v>
       </c>
       <c r="K26" t="n">
-        <v>95.22386169433594</v>
+        <v>90.17106628417969</v>
       </c>
     </row>
     <row r="27">
@@ -1440,16 +1440,16 @@
         </is>
       </c>
       <c r="H27" t="n">
-        <v>200.7974090576172</v>
+        <v>200.0573883056641</v>
       </c>
       <c r="I27" t="n">
-        <v>67.31533813476562</v>
+        <v>68.04059600830078</v>
       </c>
       <c r="J27" t="n">
-        <v>349.1663513183594</v>
+        <v>349.5857849121094</v>
       </c>
       <c r="K27" t="n">
-        <v>94.59308624267578</v>
+        <v>90.82954406738281</v>
       </c>
     </row>
     <row r="28">
@@ -1477,16 +1477,16 @@
         </is>
       </c>
       <c r="H28" t="n">
-        <v>208.9148712158203</v>
+        <v>207.78466796875</v>
       </c>
       <c r="I28" t="n">
-        <v>64.68802642822266</v>
+        <v>63.05518341064453</v>
       </c>
       <c r="J28" t="n">
-        <v>393.2320861816406</v>
+        <v>388.339599609375</v>
       </c>
       <c r="K28" t="n">
-        <v>96.00433349609375</v>
+        <v>92.93085479736328</v>
       </c>
     </row>
     <row r="29">
@@ -1514,16 +1514,16 @@
         </is>
       </c>
       <c r="H29" t="n">
-        <v>220.1725769042969</v>
+        <v>220.7726593017578</v>
       </c>
       <c r="I29" t="n">
-        <v>64.24864959716797</v>
+        <v>64.45539093017578</v>
       </c>
       <c r="J29" t="n">
-        <v>423.4157104492188</v>
+        <v>419.2227478027344</v>
       </c>
       <c r="K29" t="n">
-        <v>99.51705169677734</v>
+        <v>100.4200439453125</v>
       </c>
     </row>
     <row r="30">
@@ -1551,16 +1551,16 @@
         </is>
       </c>
       <c r="H30" t="n">
-        <v>251.4181518554688</v>
+        <v>254.6020812988281</v>
       </c>
       <c r="I30" t="n">
-        <v>58.21946334838867</v>
+        <v>57.34548568725586</v>
       </c>
       <c r="J30" t="n">
-        <v>438.8623046875</v>
+        <v>441.2502746582031</v>
       </c>
       <c r="K30" t="n">
-        <v>114.4740219116211</v>
+        <v>115.0682907104492</v>
       </c>
     </row>
     <row r="31">
@@ -1588,16 +1588,16 @@
         </is>
       </c>
       <c r="H31" t="n">
-        <v>309.0698852539062</v>
+        <v>312.0883483886719</v>
       </c>
       <c r="I31" t="n">
-        <v>73.43027496337891</v>
+        <v>79.49551391601562</v>
       </c>
       <c r="J31" t="n">
-        <v>416.2488403320312</v>
+        <v>418.711181640625</v>
       </c>
       <c r="K31" t="n">
-        <v>134.5019989013672</v>
+        <v>135.7498321533203</v>
       </c>
     </row>
     <row r="32">
@@ -1625,16 +1625,16 @@
         </is>
       </c>
       <c r="H32" t="n">
-        <v>151.8853302001953</v>
+        <v>152.5244903564453</v>
       </c>
       <c r="I32" t="n">
-        <v>72.87050628662109</v>
+        <v>70.85134124755859</v>
       </c>
       <c r="J32" t="n">
-        <v>97.30466461181641</v>
+        <v>101.5692138671875</v>
       </c>
       <c r="K32" t="n">
-        <v>84.21965789794922</v>
+        <v>84.33219146728516</v>
       </c>
     </row>
     <row r="33">
@@ -1662,16 +1662,16 @@
         </is>
       </c>
       <c r="H33" t="n">
-        <v>166.9799957275391</v>
+        <v>161.1265563964844</v>
       </c>
       <c r="I33" t="n">
-        <v>72.73524475097656</v>
+        <v>72.299072265625</v>
       </c>
       <c r="J33" t="n">
-        <v>137.4281005859375</v>
+        <v>140.5094604492188</v>
       </c>
       <c r="K33" t="n">
-        <v>96.19129943847656</v>
+        <v>94.23032379150391</v>
       </c>
     </row>
     <row r="34">
@@ -1699,16 +1699,16 @@
         </is>
       </c>
       <c r="H34" t="n">
-        <v>171.1685180664062</v>
+        <v>173.7998046875</v>
       </c>
       <c r="I34" t="n">
-        <v>74.58148193359375</v>
+        <v>71.10739898681641</v>
       </c>
       <c r="J34" t="n">
-        <v>181.2907867431641</v>
+        <v>178.8202056884766</v>
       </c>
       <c r="K34" t="n">
-        <v>96.62155151367188</v>
+        <v>97.89075469970703</v>
       </c>
     </row>
     <row r="35">
@@ -1736,16 +1736,16 @@
         </is>
       </c>
       <c r="H35" t="n">
-        <v>181.6549224853516</v>
+        <v>183.3343200683594</v>
       </c>
       <c r="I35" t="n">
-        <v>76.93732452392578</v>
+        <v>75.03678894042969</v>
       </c>
       <c r="J35" t="n">
-        <v>228.3018188476562</v>
+        <v>228.7354125976562</v>
       </c>
       <c r="K35" t="n">
-        <v>93.11283111572266</v>
+        <v>92.25552368164062</v>
       </c>
     </row>
     <row r="36">
@@ -1773,16 +1773,16 @@
         </is>
       </c>
       <c r="H36" t="n">
-        <v>190.5556030273438</v>
+        <v>190.6680297851562</v>
       </c>
       <c r="I36" t="n">
-        <v>74.77680969238281</v>
+        <v>74.19866180419922</v>
       </c>
       <c r="J36" t="n">
-        <v>274.11328125</v>
+        <v>275.2637634277344</v>
       </c>
       <c r="K36" t="n">
-        <v>96.08942413330078</v>
+        <v>93.54257965087891</v>
       </c>
     </row>
     <row r="37">
@@ -1810,16 +1810,16 @@
         </is>
       </c>
       <c r="H37" t="n">
-        <v>198.4981384277344</v>
+        <v>197.3899078369141</v>
       </c>
       <c r="I37" t="n">
-        <v>70.83977508544922</v>
+        <v>71.43230438232422</v>
       </c>
       <c r="J37" t="n">
-        <v>309.5693359375</v>
+        <v>307.2676696777344</v>
       </c>
       <c r="K37" t="n">
-        <v>96.20043182373047</v>
+        <v>99.01349639892578</v>
       </c>
     </row>
     <row r="38">
@@ -1847,16 +1847,16 @@
         </is>
       </c>
       <c r="H38" t="n">
-        <v>212.4986877441406</v>
+        <v>212.8600158691406</v>
       </c>
       <c r="I38" t="n">
-        <v>68.62165069580078</v>
+        <v>65.21012115478516</v>
       </c>
       <c r="J38" t="n">
-        <v>372.7648010253906</v>
+        <v>374.8397216796875</v>
       </c>
       <c r="K38" t="n">
-        <v>101.6739883422852</v>
+        <v>106.3775024414062</v>
       </c>
     </row>
     <row r="39">
@@ -1884,16 +1884,16 @@
         </is>
       </c>
       <c r="H39" t="n">
-        <v>239.8994750976562</v>
+        <v>241.8305969238281</v>
       </c>
       <c r="I39" t="n">
-        <v>61.28727340698242</v>
+        <v>60.90497207641602</v>
       </c>
       <c r="J39" t="n">
-        <v>402.5025024414062</v>
+        <v>402.6083679199219</v>
       </c>
       <c r="K39" t="n">
-        <v>119.8203353881836</v>
+        <v>113.8587417602539</v>
       </c>
     </row>
     <row r="40">
@@ -1921,16 +1921,16 @@
         </is>
       </c>
       <c r="H40" t="n">
-        <v>305.8853759765625</v>
+        <v>305.6277465820312</v>
       </c>
       <c r="I40" t="n">
-        <v>65.55757141113281</v>
+        <v>66.52384948730469</v>
       </c>
       <c r="J40" t="n">
-        <v>399.8500366210938</v>
+        <v>403.1392822265625</v>
       </c>
       <c r="K40" t="n">
-        <v>140.1062927246094</v>
+        <v>142.3165283203125</v>
       </c>
     </row>
     <row r="41">
@@ -1958,16 +1958,16 @@
         </is>
       </c>
       <c r="H41" t="n">
-        <v>154.3899536132812</v>
+        <v>153.5497131347656</v>
       </c>
       <c r="I41" t="n">
-        <v>70.94721221923828</v>
+        <v>70.2547607421875</v>
       </c>
       <c r="J41" t="n">
-        <v>68.55633544921875</v>
+        <v>66.65338134765625</v>
       </c>
       <c r="K41" t="n">
-        <v>81.18212890625</v>
+        <v>77.01853179931641</v>
       </c>
     </row>
     <row r="42">
@@ -1995,16 +1995,16 @@
         </is>
       </c>
       <c r="H42" t="n">
-        <v>164.8587493896484</v>
+        <v>165.5544738769531</v>
       </c>
       <c r="I42" t="n">
-        <v>70.36624145507812</v>
+        <v>70.68722534179688</v>
       </c>
       <c r="J42" t="n">
-        <v>95.14850616455078</v>
+        <v>95.43000793457031</v>
       </c>
       <c r="K42" t="n">
-        <v>84.79467010498047</v>
+        <v>83.77132415771484</v>
       </c>
     </row>
     <row r="43">
@@ -2032,16 +2032,16 @@
         </is>
       </c>
       <c r="H43" t="n">
-        <v>173.4541473388672</v>
+        <v>171.7093963623047</v>
       </c>
       <c r="I43" t="n">
-        <v>70.18972015380859</v>
+        <v>71.25685882568359</v>
       </c>
       <c r="J43" t="n">
-        <v>129.0738067626953</v>
+        <v>129.0228576660156</v>
       </c>
       <c r="K43" t="n">
-        <v>90.66093444824219</v>
+        <v>90.00798034667969</v>
       </c>
     </row>
     <row r="44">
@@ -2069,16 +2069,16 @@
         </is>
       </c>
       <c r="H44" t="n">
-        <v>180.1747131347656</v>
+        <v>181.0353698730469</v>
       </c>
       <c r="I44" t="n">
-        <v>73.336181640625</v>
+        <v>78.27667999267578</v>
       </c>
       <c r="J44" t="n">
-        <v>170.5933532714844</v>
+        <v>170.2711639404297</v>
       </c>
       <c r="K44" t="n">
-        <v>94.78709411621094</v>
+        <v>95.42202758789062</v>
       </c>
     </row>
     <row r="45">
@@ -2106,16 +2106,16 @@
         </is>
       </c>
       <c r="H45" t="n">
-        <v>186.489013671875</v>
+        <v>186.6998901367188</v>
       </c>
       <c r="I45" t="n">
-        <v>82.34949493408203</v>
+        <v>80.17222595214844</v>
       </c>
       <c r="J45" t="n">
-        <v>221.3418273925781</v>
+        <v>220.1109313964844</v>
       </c>
       <c r="K45" t="n">
-        <v>94.54922485351562</v>
+        <v>92.05464935302734</v>
       </c>
     </row>
     <row r="46">
@@ -2143,16 +2143,16 @@
         </is>
       </c>
       <c r="H46" t="n">
-        <v>196.175048828125</v>
+        <v>194.9481048583984</v>
       </c>
       <c r="I46" t="n">
-        <v>75.77425384521484</v>
+        <v>76.68257904052734</v>
       </c>
       <c r="J46" t="n">
-        <v>276.6124572753906</v>
+        <v>277.8675231933594</v>
       </c>
       <c r="K46" t="n">
-        <v>103.0248413085938</v>
+        <v>100.3335876464844</v>
       </c>
     </row>
     <row r="47">
@@ -2180,16 +2180,16 @@
         </is>
       </c>
       <c r="H47" t="n">
-        <v>203.1386260986328</v>
+        <v>205.79541015625</v>
       </c>
       <c r="I47" t="n">
-        <v>69.70423889160156</v>
+        <v>68.66372680664062</v>
       </c>
       <c r="J47" t="n">
-        <v>322.8243103027344</v>
+        <v>325.3334655761719</v>
       </c>
       <c r="K47" t="n">
-        <v>102.4667129516602</v>
+        <v>103.9540023803711</v>
       </c>
     </row>
     <row r="48">
@@ -2217,16 +2217,16 @@
         </is>
       </c>
       <c r="H48" t="n">
-        <v>242.2288055419922</v>
+        <v>244.5794982910156</v>
       </c>
       <c r="I48" t="n">
-        <v>61.90705108642578</v>
+        <v>60.62309646606445</v>
       </c>
       <c r="J48" t="n">
-        <v>378.8021850585938</v>
+        <v>371.305908203125</v>
       </c>
       <c r="K48" t="n">
-        <v>126.1707611083984</v>
+        <v>127.90234375</v>
       </c>
     </row>
     <row r="49">
@@ -2254,16 +2254,16 @@
         </is>
       </c>
       <c r="H49" t="n">
-        <v>303.1158447265625</v>
+        <v>299.6341552734375</v>
       </c>
       <c r="I49" t="n">
-        <v>65.40548706054688</v>
+        <v>60.47223663330078</v>
       </c>
       <c r="J49" t="n">
-        <v>388.8443603515625</v>
+        <v>390.9713134765625</v>
       </c>
       <c r="K49" t="n">
-        <v>155.4431304931641</v>
+        <v>153.4363403320312</v>
       </c>
     </row>
     <row r="50">
@@ -2291,16 +2291,16 @@
         </is>
       </c>
       <c r="H50" t="n">
-        <v>159.0690765380859</v>
+        <v>159.2455291748047</v>
       </c>
       <c r="I50" t="n">
-        <v>68.55178070068359</v>
+        <v>68.60047149658203</v>
       </c>
       <c r="J50" t="n">
-        <v>47.4061164855957</v>
+        <v>44.75557327270508</v>
       </c>
       <c r="K50" t="n">
-        <v>80.5411376953125</v>
+        <v>77.91690826416016</v>
       </c>
     </row>
     <row r="51">
@@ -2328,16 +2328,16 @@
         </is>
       </c>
       <c r="H51" t="n">
-        <v>168.8802795410156</v>
+        <v>173.2669067382812</v>
       </c>
       <c r="I51" t="n">
-        <v>68.2633056640625</v>
+        <v>67.16519927978516</v>
       </c>
       <c r="J51" t="n">
-        <v>63.6456298828125</v>
+        <v>64.47399139404297</v>
       </c>
       <c r="K51" t="n">
-        <v>79.08767700195312</v>
+        <v>84.19577026367188</v>
       </c>
     </row>
     <row r="52">
@@ -2365,16 +2365,16 @@
         </is>
       </c>
       <c r="H52" t="n">
-        <v>179.1922302246094</v>
+        <v>177.8224029541016</v>
       </c>
       <c r="I52" t="n">
-        <v>71.98125457763672</v>
+        <v>67.68883514404297</v>
       </c>
       <c r="J52" t="n">
-        <v>80.45231628417969</v>
+        <v>79.93403625488281</v>
       </c>
       <c r="K52" t="n">
-        <v>88.21706390380859</v>
+        <v>88.96768951416016</v>
       </c>
     </row>
     <row r="53">
@@ -2402,16 +2402,16 @@
         </is>
       </c>
       <c r="H53" t="n">
-        <v>185.4116668701172</v>
+        <v>185.1746978759766</v>
       </c>
       <c r="I53" t="n">
-        <v>73.82817840576172</v>
+        <v>73.19484710693359</v>
       </c>
       <c r="J53" t="n">
-        <v>114.206428527832</v>
+        <v>115.4539947509766</v>
       </c>
       <c r="K53" t="n">
-        <v>96.66138458251953</v>
+        <v>95.57307434082031</v>
       </c>
     </row>
     <row r="54">
@@ -2439,16 +2439,16 @@
         </is>
       </c>
       <c r="H54" t="n">
-        <v>188.6608276367188</v>
+        <v>188.0433654785156</v>
       </c>
       <c r="I54" t="n">
-        <v>82.69205474853516</v>
+        <v>83.72068023681641</v>
       </c>
       <c r="J54" t="n">
-        <v>170.7070007324219</v>
+        <v>170.385009765625</v>
       </c>
       <c r="K54" t="n">
-        <v>103.7849960327148</v>
+        <v>102.5473861694336</v>
       </c>
     </row>
     <row r="55">
@@ -2476,16 +2476,16 @@
         </is>
       </c>
       <c r="H55" t="n">
-        <v>194.5607452392578</v>
+        <v>197.10986328125</v>
       </c>
       <c r="I55" t="n">
-        <v>79.97234344482422</v>
+        <v>80.97386169433594</v>
       </c>
       <c r="J55" t="n">
-        <v>224.9002075195312</v>
+        <v>223.7048645019531</v>
       </c>
       <c r="K55" t="n">
-        <v>105.9892807006836</v>
+        <v>110.2679214477539</v>
       </c>
     </row>
     <row r="56">
@@ -2513,16 +2513,16 @@
         </is>
       </c>
       <c r="H56" t="n">
-        <v>205.4769897460938</v>
+        <v>206.8026275634766</v>
       </c>
       <c r="I56" t="n">
-        <v>70.805908203125</v>
+        <v>70.0615234375</v>
       </c>
       <c r="J56" t="n">
-        <v>296.9824829101562</v>
+        <v>294.0538635253906</v>
       </c>
       <c r="K56" t="n">
-        <v>117.7498397827148</v>
+        <v>118.6679534912109</v>
       </c>
     </row>
     <row r="57">
@@ -2550,16 +2550,16 @@
         </is>
       </c>
       <c r="H57" t="n">
-        <v>236.4317474365234</v>
+        <v>238.1395263671875</v>
       </c>
       <c r="I57" t="n">
-        <v>63.15375900268555</v>
+        <v>62.45626449584961</v>
       </c>
       <c r="J57" t="n">
-        <v>361.254150390625</v>
+        <v>357.2499389648438</v>
       </c>
       <c r="K57" t="n">
-        <v>132.1754302978516</v>
+        <v>131.4341125488281</v>
       </c>
     </row>
     <row r="58">
@@ -2587,16 +2587,16 @@
         </is>
       </c>
       <c r="H58" t="n">
-        <v>291.3365478515625</v>
+        <v>293.2559509277344</v>
       </c>
       <c r="I58" t="n">
-        <v>56.04048919677734</v>
+        <v>57.56070327758789</v>
       </c>
       <c r="J58" t="n">
-        <v>364.5771484375</v>
+        <v>366.0195922851562</v>
       </c>
       <c r="K58" t="n">
-        <v>157.3588714599609</v>
+        <v>160.1011047363281</v>
       </c>
     </row>
     <row r="59">
@@ -2624,16 +2624,16 @@
         </is>
       </c>
       <c r="H59" t="n">
-        <v>181.2554779052734</v>
+        <v>180.3885498046875</v>
       </c>
       <c r="I59" t="n">
-        <v>63.03110504150391</v>
+        <v>65.48422241210938</v>
       </c>
       <c r="J59" t="n">
-        <v>23.70956611633301</v>
+        <v>27.41884422302246</v>
       </c>
       <c r="K59" t="n">
-        <v>93.54600524902344</v>
+        <v>90.20719909667969</v>
       </c>
     </row>
     <row r="60">
@@ -2661,16 +2661,16 @@
         </is>
       </c>
       <c r="H60" t="n">
-        <v>190.0792388916016</v>
+        <v>186.9551544189453</v>
       </c>
       <c r="I60" t="n">
-        <v>69.12972259521484</v>
+        <v>67.51580810546875</v>
       </c>
       <c r="J60" t="n">
-        <v>44.23797988891602</v>
+        <v>39.27351760864258</v>
       </c>
       <c r="K60" t="n">
-        <v>99.01834106445312</v>
+        <v>93.15215301513672</v>
       </c>
     </row>
     <row r="61">
@@ -2698,16 +2698,16 @@
         </is>
       </c>
       <c r="H61" t="n">
-        <v>192.2933807373047</v>
+        <v>192.3268890380859</v>
       </c>
       <c r="I61" t="n">
-        <v>75.68699645996094</v>
+        <v>72.79459381103516</v>
       </c>
       <c r="J61" t="n">
-        <v>76.81114196777344</v>
+        <v>75.99337005615234</v>
       </c>
       <c r="K61" t="n">
-        <v>106.8517990112305</v>
+        <v>104.0981063842773</v>
       </c>
     </row>
     <row r="62">
@@ -2735,16 +2735,16 @@
         </is>
       </c>
       <c r="H62" t="n">
-        <v>195.0305786132812</v>
+        <v>199.0770874023438</v>
       </c>
       <c r="I62" t="n">
-        <v>79.21177673339844</v>
+        <v>82.03932189941406</v>
       </c>
       <c r="J62" t="n">
-        <v>108.4671173095703</v>
+        <v>111.3424224853516</v>
       </c>
       <c r="K62" t="n">
-        <v>106.6386260986328</v>
+        <v>109.3224029541016</v>
       </c>
     </row>
     <row r="63">
@@ -2772,16 +2772,16 @@
         </is>
       </c>
       <c r="H63" t="n">
-        <v>198.7287750244141</v>
+        <v>195.8224029541016</v>
       </c>
       <c r="I63" t="n">
-        <v>86.60434722900391</v>
+        <v>83.61822509765625</v>
       </c>
       <c r="J63" t="n">
-        <v>171.1585235595703</v>
+        <v>171.9196166992188</v>
       </c>
       <c r="K63" t="n">
-        <v>118.2891540527344</v>
+        <v>116.9104385375977</v>
       </c>
     </row>
     <row r="64">
@@ -2809,16 +2809,16 @@
         </is>
       </c>
       <c r="H64" t="n">
-        <v>209.5943298339844</v>
+        <v>208.6869659423828</v>
       </c>
       <c r="I64" t="n">
-        <v>73.92837524414062</v>
+        <v>76.0225830078125</v>
       </c>
       <c r="J64" t="n">
-        <v>254.9651031494141</v>
+        <v>250.5262298583984</v>
       </c>
       <c r="K64" t="n">
-        <v>124.2905426025391</v>
+        <v>117.059814453125</v>
       </c>
     </row>
     <row r="65">
@@ -2846,16 +2846,16 @@
         </is>
       </c>
       <c r="H65" t="n">
-        <v>233.4321136474609</v>
+        <v>235.3705139160156</v>
       </c>
       <c r="I65" t="n">
-        <v>63.89310073852539</v>
+        <v>65.06123352050781</v>
       </c>
       <c r="J65" t="n">
-        <v>324.3525390625</v>
+        <v>325.5566711425781</v>
       </c>
       <c r="K65" t="n">
-        <v>151.5996551513672</v>
+        <v>151.6838073730469</v>
       </c>
     </row>
     <row r="66">
@@ -2883,16 +2883,16 @@
         </is>
       </c>
       <c r="H66" t="n">
-        <v>201.9301605224609</v>
+        <v>198.9470367431641</v>
       </c>
       <c r="I66" t="n">
-        <v>65.97403717041016</v>
+        <v>68.31641387939453</v>
       </c>
       <c r="J66" t="n">
-        <v>-7.696150779724121</v>
+        <v>-9.935738563537598</v>
       </c>
       <c r="K66" t="n">
-        <v>107.6541519165039</v>
+        <v>103.922607421875</v>
       </c>
     </row>
     <row r="67">
@@ -2920,16 +2920,16 @@
         </is>
       </c>
       <c r="H67" t="n">
-        <v>202.0468902587891</v>
+        <v>204.3978881835938</v>
       </c>
       <c r="I67" t="n">
-        <v>75.6116943359375</v>
+        <v>71.54032135009766</v>
       </c>
       <c r="J67" t="n">
-        <v>21.58824920654297</v>
+        <v>19.50603675842285</v>
       </c>
       <c r="K67" t="n">
-        <v>111.3748397827148</v>
+        <v>107.1605758666992</v>
       </c>
     </row>
     <row r="68">
@@ -2957,16 +2957,16 @@
         </is>
       </c>
       <c r="H68" t="n">
-        <v>205.2210540771484</v>
+        <v>205.0345611572266</v>
       </c>
       <c r="I68" t="n">
-        <v>76.68820190429688</v>
+        <v>78.24539947509766</v>
       </c>
       <c r="J68" t="n">
-        <v>56.33186340332031</v>
+        <v>54.44347381591797</v>
       </c>
       <c r="K68" t="n">
-        <v>117.2079544067383</v>
+        <v>114.8360061645508</v>
       </c>
     </row>
     <row r="69">
@@ -2994,16 +2994,16 @@
         </is>
       </c>
       <c r="H69" t="n">
-        <v>206.43115234375</v>
+        <v>204.7988128662109</v>
       </c>
       <c r="I69" t="n">
-        <v>84.19795989990234</v>
+        <v>84.23291015625</v>
       </c>
       <c r="J69" t="n">
-        <v>116.4135818481445</v>
+        <v>114.0315093994141</v>
       </c>
       <c r="K69" t="n">
-        <v>125.5811233520508</v>
+        <v>119.8337478637695</v>
       </c>
     </row>
     <row r="70">
@@ -3031,16 +3031,16 @@
         </is>
       </c>
       <c r="H70" t="n">
-        <v>210.4747009277344</v>
+        <v>210.3029937744141</v>
       </c>
       <c r="I70" t="n">
-        <v>77.77152252197266</v>
+        <v>78.11391448974609</v>
       </c>
       <c r="J70" t="n">
-        <v>198.7269287109375</v>
+        <v>199.4719543457031</v>
       </c>
       <c r="K70" t="n">
-        <v>132.9973754882812</v>
+        <v>128.9859313964844</v>
       </c>
     </row>
   </sheetData>

--- a/04_Model_Saved/NN_full_v3_BO_optimal/MultiTaskModel_NiCrCoVFe_KW99_wt_pct_ML_mc_shared_relu.xlsx
+++ b/04_Model_Saved/NN_full_v3_BO_optimal/MultiTaskModel_NiCrCoVFe_KW99_wt_pct_ML_mc_shared_relu.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -515,16 +515,16 @@
         </is>
       </c>
       <c r="H2" t="n">
-        <v>221.5859832763672</v>
+        <v>218.3251647949219</v>
       </c>
       <c r="I2" t="n">
-        <v>53.78680801391602</v>
+        <v>60.04313659667969</v>
       </c>
       <c r="J2" t="n">
-        <v>501.1698913574219</v>
+        <v>500.0975036621094</v>
       </c>
       <c r="K2" t="n">
-        <v>91.61899566650391</v>
+        <v>95.64351654052734</v>
       </c>
     </row>
     <row r="3">
@@ -552,16 +552,16 @@
         </is>
       </c>
       <c r="H3" t="n">
-        <v>228.7170562744141</v>
+        <v>230.1201629638672</v>
       </c>
       <c r="I3" t="n">
-        <v>59.09373092651367</v>
+        <v>60.7077751159668</v>
       </c>
       <c r="J3" t="n">
-        <v>539.5807495117188</v>
+        <v>538.6910400390625</v>
       </c>
       <c r="K3" t="n">
-        <v>111.107780456543</v>
+        <v>105.6411437988281</v>
       </c>
     </row>
     <row r="4">
@@ -589,16 +589,16 @@
         </is>
       </c>
       <c r="H4" t="n">
-        <v>239.7063598632812</v>
+        <v>242.4331817626953</v>
       </c>
       <c r="I4" t="n">
-        <v>57.73657989501953</v>
+        <v>62.83987426757812</v>
       </c>
       <c r="J4" t="n">
-        <v>565.1780395507812</v>
+        <v>566.4359741210938</v>
       </c>
       <c r="K4" t="n">
-        <v>124.2272796630859</v>
+        <v>116.52490234375</v>
       </c>
     </row>
     <row r="5">
@@ -626,16 +626,16 @@
         </is>
       </c>
       <c r="H5" t="n">
-        <v>257.7054138183594</v>
+        <v>257.1716613769531</v>
       </c>
       <c r="I5" t="n">
-        <v>62.40848159790039</v>
+        <v>62.1097412109375</v>
       </c>
       <c r="J5" t="n">
-        <v>587.1890258789062</v>
+        <v>587.5903930664062</v>
       </c>
       <c r="K5" t="n">
-        <v>128.5612030029297</v>
+        <v>123.8026580810547</v>
       </c>
     </row>
     <row r="6">
@@ -663,16 +663,16 @@
         </is>
       </c>
       <c r="H6" t="n">
-        <v>270.8391723632812</v>
+        <v>271.0222473144531</v>
       </c>
       <c r="I6" t="n">
-        <v>72.50895690917969</v>
+        <v>72.72133636474609</v>
       </c>
       <c r="J6" t="n">
-        <v>569.484375</v>
+        <v>567.7608032226562</v>
       </c>
       <c r="K6" t="n">
-        <v>115.850471496582</v>
+        <v>115.9020767211914</v>
       </c>
     </row>
     <row r="7">
@@ -700,16 +700,16 @@
         </is>
       </c>
       <c r="H7" t="n">
-        <v>189.2006683349609</v>
+        <v>191.9568634033203</v>
       </c>
       <c r="I7" t="n">
-        <v>64.22386932373047</v>
+        <v>64.29220581054688</v>
       </c>
       <c r="J7" t="n">
-        <v>407.8805541992188</v>
+        <v>410.5694580078125</v>
       </c>
       <c r="K7" t="n">
-        <v>81.43518829345703</v>
+        <v>84.23148345947266</v>
       </c>
     </row>
     <row r="8">
@@ -737,16 +737,16 @@
         </is>
       </c>
       <c r="H8" t="n">
-        <v>202.6667327880859</v>
+        <v>203.9888763427734</v>
       </c>
       <c r="I8" t="n">
-        <v>62.16582870483398</v>
+        <v>59.58011627197266</v>
       </c>
       <c r="J8" t="n">
-        <v>444.4083862304688</v>
+        <v>449.6971435546875</v>
       </c>
       <c r="K8" t="n">
-        <v>82.02510070800781</v>
+        <v>82.16816711425781</v>
       </c>
     </row>
     <row r="9">
@@ -774,16 +774,16 @@
         </is>
       </c>
       <c r="H9" t="n">
-        <v>215.6273956298828</v>
+        <v>214.9290771484375</v>
       </c>
       <c r="I9" t="n">
-        <v>58.98297500610352</v>
+        <v>58.74376678466797</v>
       </c>
       <c r="J9" t="n">
-        <v>472.9238586425781</v>
+        <v>477.2354736328125</v>
       </c>
       <c r="K9" t="n">
-        <v>83.75888061523438</v>
+        <v>81.72117614746094</v>
       </c>
     </row>
     <row r="10">
@@ -811,16 +811,16 @@
         </is>
       </c>
       <c r="H10" t="n">
-        <v>226.1145324707031</v>
+        <v>224.6518249511719</v>
       </c>
       <c r="I10" t="n">
-        <v>61.98495101928711</v>
+        <v>61.69252014160156</v>
       </c>
       <c r="J10" t="n">
-        <v>492.9979553222656</v>
+        <v>489.7607727050781</v>
       </c>
       <c r="K10" t="n">
-        <v>93.15086364746094</v>
+        <v>87.62995147705078</v>
       </c>
     </row>
     <row r="11">
@@ -848,16 +848,16 @@
         </is>
       </c>
       <c r="H11" t="n">
-        <v>234.5947418212891</v>
+        <v>232.4574737548828</v>
       </c>
       <c r="I11" t="n">
-        <v>64.54625701904297</v>
+        <v>63.7099609375</v>
       </c>
       <c r="J11" t="n">
-        <v>520.2600708007812</v>
+        <v>518.0884399414062</v>
       </c>
       <c r="K11" t="n">
-        <v>98.87931823730469</v>
+        <v>99.59363555908203</v>
       </c>
     </row>
     <row r="12">
@@ -885,16 +885,16 @@
         </is>
       </c>
       <c r="H12" t="n">
-        <v>246.7101593017578</v>
+        <v>243.4295501708984</v>
       </c>
       <c r="I12" t="n">
-        <v>63.5970458984375</v>
+        <v>65.96857452392578</v>
       </c>
       <c r="J12" t="n">
-        <v>518.552734375</v>
+        <v>522.0023803710938</v>
       </c>
       <c r="K12" t="n">
-        <v>112.0679931640625</v>
+        <v>109.5865097045898</v>
       </c>
     </row>
     <row r="13">
@@ -922,16 +922,16 @@
         </is>
       </c>
       <c r="H13" t="n">
-        <v>270.0943603515625</v>
+        <v>270.2645874023438</v>
       </c>
       <c r="I13" t="n">
-        <v>71.59970092773438</v>
+        <v>73.6025390625</v>
       </c>
       <c r="J13" t="n">
-        <v>517.7843017578125</v>
+        <v>516.4615478515625</v>
       </c>
       <c r="K13" t="n">
-        <v>121.58251953125</v>
+        <v>117.8415069580078</v>
       </c>
     </row>
     <row r="14">
@@ -959,16 +959,16 @@
         </is>
       </c>
       <c r="H14" t="n">
-        <v>161.0749359130859</v>
+        <v>162.2985992431641</v>
       </c>
       <c r="I14" t="n">
-        <v>69.74208068847656</v>
+        <v>72.84059906005859</v>
       </c>
       <c r="J14" t="n">
-        <v>219.1886138916016</v>
+        <v>221.2579956054688</v>
       </c>
       <c r="K14" t="n">
-        <v>95.13847351074219</v>
+        <v>95.05065155029297</v>
       </c>
     </row>
     <row r="15">
@@ -996,16 +996,16 @@
         </is>
       </c>
       <c r="H15" t="n">
-        <v>175.8380737304688</v>
+        <v>174.5093841552734</v>
       </c>
       <c r="I15" t="n">
-        <v>67.31076812744141</v>
+        <v>68.95956420898438</v>
       </c>
       <c r="J15" t="n">
-        <v>291.8359985351562</v>
+        <v>290.2007141113281</v>
       </c>
       <c r="K15" t="n">
-        <v>92.62061309814453</v>
+        <v>92.34126281738281</v>
       </c>
     </row>
     <row r="16">
@@ -1033,16 +1033,16 @@
         </is>
       </c>
       <c r="H16" t="n">
-        <v>186.2054443359375</v>
+        <v>186.96826171875</v>
       </c>
       <c r="I16" t="n">
-        <v>65.22370910644531</v>
+        <v>66.90061950683594</v>
       </c>
       <c r="J16" t="n">
-        <v>343.5669860839844</v>
+        <v>345.3552856445312</v>
       </c>
       <c r="K16" t="n">
-        <v>87.4266357421875</v>
+        <v>93.14469909667969</v>
       </c>
     </row>
     <row r="17">
@@ -1070,16 +1070,16 @@
         </is>
       </c>
       <c r="H17" t="n">
-        <v>201.4495239257812</v>
+        <v>202.3970642089844</v>
       </c>
       <c r="I17" t="n">
-        <v>64.17876434326172</v>
+        <v>62.95019149780273</v>
       </c>
       <c r="J17" t="n">
-        <v>406.1112365722656</v>
+        <v>406.5191650390625</v>
       </c>
       <c r="K17" t="n">
-        <v>85.81711578369141</v>
+        <v>83.06301116943359</v>
       </c>
     </row>
     <row r="18">
@@ -1107,16 +1107,16 @@
         </is>
       </c>
       <c r="H18" t="n">
-        <v>209.0259857177734</v>
+        <v>209.8569030761719</v>
       </c>
       <c r="I18" t="n">
-        <v>62.09521102905273</v>
+        <v>63.76525115966797</v>
       </c>
       <c r="J18" t="n">
-        <v>434.8868103027344</v>
+        <v>432.3450317382812</v>
       </c>
       <c r="K18" t="n">
-        <v>84.83343505859375</v>
+        <v>84.60342407226562</v>
       </c>
     </row>
     <row r="19">
@@ -1144,16 +1144,16 @@
         </is>
       </c>
       <c r="H19" t="n">
-        <v>220.8677825927734</v>
+        <v>219.6161499023438</v>
       </c>
       <c r="I19" t="n">
-        <v>64.71575927734375</v>
+        <v>65.61079406738281</v>
       </c>
       <c r="J19" t="n">
-        <v>458.6126708984375</v>
+        <v>461.3895263671875</v>
       </c>
       <c r="K19" t="n">
-        <v>91.75386810302734</v>
+        <v>90.78062438964844</v>
       </c>
     </row>
     <row r="20">
@@ -1181,16 +1181,16 @@
         </is>
       </c>
       <c r="H20" t="n">
-        <v>228.8605194091797</v>
+        <v>228.30419921875</v>
       </c>
       <c r="I20" t="n">
-        <v>64.61209106445312</v>
+        <v>66.84098815917969</v>
       </c>
       <c r="J20" t="n">
-        <v>473.7440490722656</v>
+        <v>470.3951416015625</v>
       </c>
       <c r="K20" t="n">
-        <v>102.3584213256836</v>
+        <v>98.64323425292969</v>
       </c>
     </row>
     <row r="21">
@@ -1218,16 +1218,16 @@
         </is>
       </c>
       <c r="H21" t="n">
-        <v>252.9884338378906</v>
+        <v>253.6180267333984</v>
       </c>
       <c r="I21" t="n">
-        <v>61.63710403442383</v>
+        <v>59.51311492919922</v>
       </c>
       <c r="J21" t="n">
-        <v>472.3405151367188</v>
+        <v>467.8642578125</v>
       </c>
       <c r="K21" t="n">
-        <v>111.6951599121094</v>
+        <v>110.5591888427734</v>
       </c>
     </row>
     <row r="22">
@@ -1255,16 +1255,16 @@
         </is>
       </c>
       <c r="H22" t="n">
-        <v>321.8576965332031</v>
+        <v>325.8963928222656</v>
       </c>
       <c r="I22" t="n">
-        <v>91.796630859375</v>
+        <v>90.86786651611328</v>
       </c>
       <c r="J22" t="n">
-        <v>448.3263549804688</v>
+        <v>448.2486572265625</v>
       </c>
       <c r="K22" t="n">
-        <v>143.1705322265625</v>
+        <v>138.5455474853516</v>
       </c>
     </row>
     <row r="23">
@@ -1292,16 +1292,16 @@
         </is>
       </c>
       <c r="H23" t="n">
-        <v>153.3026580810547</v>
+        <v>153.0429077148438</v>
       </c>
       <c r="I23" t="n">
-        <v>73.78620910644531</v>
+        <v>71.86954498291016</v>
       </c>
       <c r="J23" t="n">
-        <v>148.6775970458984</v>
+        <v>147.1173706054688</v>
       </c>
       <c r="K23" t="n">
-        <v>93.92353820800781</v>
+        <v>91.72678375244141</v>
       </c>
     </row>
     <row r="24">
@@ -1329,16 +1329,16 @@
         </is>
       </c>
       <c r="H24" t="n">
-        <v>165.4036102294922</v>
+        <v>167.7692260742188</v>
       </c>
       <c r="I24" t="n">
-        <v>73.32549285888672</v>
+        <v>73.13181304931641</v>
       </c>
       <c r="J24" t="n">
-        <v>198.4783477783203</v>
+        <v>203.4288482666016</v>
       </c>
       <c r="K24" t="n">
-        <v>92.76934051513672</v>
+        <v>93.21202087402344</v>
       </c>
     </row>
     <row r="25">
@@ -1366,16 +1366,16 @@
         </is>
       </c>
       <c r="H25" t="n">
-        <v>179.6357879638672</v>
+        <v>177.6229858398438</v>
       </c>
       <c r="I25" t="n">
-        <v>69.08599853515625</v>
+        <v>68.57924652099609</v>
       </c>
       <c r="J25" t="n">
-        <v>248.9871063232422</v>
+        <v>250.1881561279297</v>
       </c>
       <c r="K25" t="n">
-        <v>92.84387969970703</v>
+        <v>92.00250244140625</v>
       </c>
     </row>
     <row r="26">
@@ -1403,16 +1403,16 @@
         </is>
       </c>
       <c r="H26" t="n">
-        <v>191.8747711181641</v>
+        <v>189.2216644287109</v>
       </c>
       <c r="I26" t="n">
-        <v>68.69111633300781</v>
+        <v>69.12828063964844</v>
       </c>
       <c r="J26" t="n">
-        <v>297.6632080078125</v>
+        <v>294.8063659667969</v>
       </c>
       <c r="K26" t="n">
-        <v>90.17106628417969</v>
+        <v>90.38999938964844</v>
       </c>
     </row>
     <row r="27">
@@ -1440,16 +1440,16 @@
         </is>
       </c>
       <c r="H27" t="n">
-        <v>200.0573883056641</v>
+        <v>197.9091796875</v>
       </c>
       <c r="I27" t="n">
-        <v>68.04059600830078</v>
+        <v>68.01353454589844</v>
       </c>
       <c r="J27" t="n">
-        <v>349.5857849121094</v>
+        <v>348.7290649414062</v>
       </c>
       <c r="K27" t="n">
-        <v>90.82954406738281</v>
+        <v>93.21469879150391</v>
       </c>
     </row>
     <row r="28">
@@ -1477,16 +1477,16 @@
         </is>
       </c>
       <c r="H28" t="n">
-        <v>207.78466796875</v>
+        <v>207.2059326171875</v>
       </c>
       <c r="I28" t="n">
-        <v>63.05518341064453</v>
+        <v>65.26386260986328</v>
       </c>
       <c r="J28" t="n">
-        <v>388.339599609375</v>
+        <v>390.6356201171875</v>
       </c>
       <c r="K28" t="n">
-        <v>92.93085479736328</v>
+        <v>97.62596893310547</v>
       </c>
     </row>
     <row r="29">
@@ -1514,16 +1514,16 @@
         </is>
       </c>
       <c r="H29" t="n">
-        <v>220.7726593017578</v>
+        <v>218.5603332519531</v>
       </c>
       <c r="I29" t="n">
-        <v>64.45539093017578</v>
+        <v>64.86900329589844</v>
       </c>
       <c r="J29" t="n">
-        <v>419.2227478027344</v>
+        <v>421.3105163574219</v>
       </c>
       <c r="K29" t="n">
-        <v>100.4200439453125</v>
+        <v>97.0941162109375</v>
       </c>
     </row>
     <row r="30">
@@ -1551,16 +1551,16 @@
         </is>
       </c>
       <c r="H30" t="n">
-        <v>254.6020812988281</v>
+        <v>253.0326538085938</v>
       </c>
       <c r="I30" t="n">
-        <v>57.34548568725586</v>
+        <v>56.80452728271484</v>
       </c>
       <c r="J30" t="n">
-        <v>441.2502746582031</v>
+        <v>436.5972595214844</v>
       </c>
       <c r="K30" t="n">
-        <v>115.0682907104492</v>
+        <v>111.9017105102539</v>
       </c>
     </row>
     <row r="31">
@@ -1588,16 +1588,16 @@
         </is>
       </c>
       <c r="H31" t="n">
-        <v>312.0883483886719</v>
+        <v>310.14111328125</v>
       </c>
       <c r="I31" t="n">
-        <v>79.49551391601562</v>
+        <v>74.14900970458984</v>
       </c>
       <c r="J31" t="n">
-        <v>418.711181640625</v>
+        <v>413.2603149414062</v>
       </c>
       <c r="K31" t="n">
-        <v>135.7498321533203</v>
+        <v>141.6104278564453</v>
       </c>
     </row>
     <row r="32">
@@ -1625,16 +1625,16 @@
         </is>
       </c>
       <c r="H32" t="n">
-        <v>152.5244903564453</v>
+        <v>152.7669830322266</v>
       </c>
       <c r="I32" t="n">
-        <v>70.85134124755859</v>
+        <v>71.28453826904297</v>
       </c>
       <c r="J32" t="n">
-        <v>101.5692138671875</v>
+        <v>101.9354934692383</v>
       </c>
       <c r="K32" t="n">
-        <v>84.33219146728516</v>
+        <v>86.81845855712891</v>
       </c>
     </row>
     <row r="33">
@@ -1662,16 +1662,16 @@
         </is>
       </c>
       <c r="H33" t="n">
-        <v>161.1265563964844</v>
+        <v>161.4777221679688</v>
       </c>
       <c r="I33" t="n">
-        <v>72.299072265625</v>
+        <v>71.52057647705078</v>
       </c>
       <c r="J33" t="n">
-        <v>140.5094604492188</v>
+        <v>142.7407989501953</v>
       </c>
       <c r="K33" t="n">
-        <v>94.23032379150391</v>
+        <v>92.56467437744141</v>
       </c>
     </row>
     <row r="34">
@@ -1699,16 +1699,16 @@
         </is>
       </c>
       <c r="H34" t="n">
-        <v>173.7998046875</v>
+        <v>172.3777923583984</v>
       </c>
       <c r="I34" t="n">
-        <v>71.10739898681641</v>
+        <v>70.39347076416016</v>
       </c>
       <c r="J34" t="n">
-        <v>178.8202056884766</v>
+        <v>185.2550506591797</v>
       </c>
       <c r="K34" t="n">
-        <v>97.89075469970703</v>
+        <v>100.2898559570312</v>
       </c>
     </row>
     <row r="35">
@@ -1736,16 +1736,16 @@
         </is>
       </c>
       <c r="H35" t="n">
-        <v>183.3343200683594</v>
+        <v>182.3081970214844</v>
       </c>
       <c r="I35" t="n">
-        <v>75.03678894042969</v>
+        <v>76.48579406738281</v>
       </c>
       <c r="J35" t="n">
-        <v>228.7354125976562</v>
+        <v>227.7444458007812</v>
       </c>
       <c r="K35" t="n">
-        <v>92.25552368164062</v>
+        <v>91.52366638183594</v>
       </c>
     </row>
     <row r="36">
@@ -1773,16 +1773,16 @@
         </is>
       </c>
       <c r="H36" t="n">
-        <v>190.6680297851562</v>
+        <v>189.8433532714844</v>
       </c>
       <c r="I36" t="n">
-        <v>74.19866180419922</v>
+        <v>72.81877899169922</v>
       </c>
       <c r="J36" t="n">
-        <v>275.2637634277344</v>
+        <v>276.0388488769531</v>
       </c>
       <c r="K36" t="n">
-        <v>93.54257965087891</v>
+        <v>94.10831451416016</v>
       </c>
     </row>
     <row r="37">
@@ -1810,16 +1810,16 @@
         </is>
       </c>
       <c r="H37" t="n">
-        <v>197.3899078369141</v>
+        <v>196.6447601318359</v>
       </c>
       <c r="I37" t="n">
-        <v>71.43230438232422</v>
+        <v>73.23827362060547</v>
       </c>
       <c r="J37" t="n">
-        <v>307.2676696777344</v>
+        <v>309.4011535644531</v>
       </c>
       <c r="K37" t="n">
-        <v>99.01349639892578</v>
+        <v>88.92757415771484</v>
       </c>
     </row>
     <row r="38">
@@ -1847,16 +1847,16 @@
         </is>
       </c>
       <c r="H38" t="n">
-        <v>212.8600158691406</v>
+        <v>210.9219360351562</v>
       </c>
       <c r="I38" t="n">
-        <v>65.21012115478516</v>
+        <v>67.33908081054688</v>
       </c>
       <c r="J38" t="n">
-        <v>374.8397216796875</v>
+        <v>376.0357971191406</v>
       </c>
       <c r="K38" t="n">
-        <v>106.3775024414062</v>
+        <v>103.7521209716797</v>
       </c>
     </row>
     <row r="39">
@@ -1884,16 +1884,16 @@
         </is>
       </c>
       <c r="H39" t="n">
-        <v>241.8305969238281</v>
+        <v>244.2518157958984</v>
       </c>
       <c r="I39" t="n">
-        <v>60.90497207641602</v>
+        <v>60.06891632080078</v>
       </c>
       <c r="J39" t="n">
-        <v>402.6083679199219</v>
+        <v>402.2065734863281</v>
       </c>
       <c r="K39" t="n">
-        <v>113.8587417602539</v>
+        <v>118.2840270996094</v>
       </c>
     </row>
     <row r="40">
@@ -1921,16 +1921,16 @@
         </is>
       </c>
       <c r="H40" t="n">
-        <v>305.6277465820312</v>
+        <v>306.1607666015625</v>
       </c>
       <c r="I40" t="n">
-        <v>66.52384948730469</v>
+        <v>66.35555267333984</v>
       </c>
       <c r="J40" t="n">
-        <v>403.1392822265625</v>
+        <v>400.2989807128906</v>
       </c>
       <c r="K40" t="n">
-        <v>142.3165283203125</v>
+        <v>141.214111328125</v>
       </c>
     </row>
     <row r="41">
@@ -1958,16 +1958,16 @@
         </is>
       </c>
       <c r="H41" t="n">
-        <v>153.5497131347656</v>
+        <v>154.6217651367188</v>
       </c>
       <c r="I41" t="n">
-        <v>70.2547607421875</v>
+        <v>68.24296569824219</v>
       </c>
       <c r="J41" t="n">
-        <v>66.65338134765625</v>
+        <v>71.32331848144531</v>
       </c>
       <c r="K41" t="n">
-        <v>77.01853179931641</v>
+        <v>80.02802276611328</v>
       </c>
     </row>
     <row r="42">
@@ -1995,16 +1995,16 @@
         </is>
       </c>
       <c r="H42" t="n">
-        <v>165.5544738769531</v>
+        <v>162.0428314208984</v>
       </c>
       <c r="I42" t="n">
-        <v>70.68722534179688</v>
+        <v>69.37724304199219</v>
       </c>
       <c r="J42" t="n">
-        <v>95.43000793457031</v>
+        <v>97.15911865234375</v>
       </c>
       <c r="K42" t="n">
-        <v>83.77132415771484</v>
+        <v>84.34820556640625</v>
       </c>
     </row>
     <row r="43">
@@ -2032,16 +2032,16 @@
         </is>
       </c>
       <c r="H43" t="n">
-        <v>171.7093963623047</v>
+        <v>173.4330444335938</v>
       </c>
       <c r="I43" t="n">
-        <v>71.25685882568359</v>
+        <v>73.96437072753906</v>
       </c>
       <c r="J43" t="n">
-        <v>129.0228576660156</v>
+        <v>127.3879547119141</v>
       </c>
       <c r="K43" t="n">
-        <v>90.00798034667969</v>
+        <v>92.15522766113281</v>
       </c>
     </row>
     <row r="44">
@@ -2069,16 +2069,16 @@
         </is>
       </c>
       <c r="H44" t="n">
-        <v>181.0353698730469</v>
+        <v>182.0131988525391</v>
       </c>
       <c r="I44" t="n">
-        <v>78.27667999267578</v>
+        <v>78.28872680664062</v>
       </c>
       <c r="J44" t="n">
-        <v>170.2711639404297</v>
+        <v>168.5365142822266</v>
       </c>
       <c r="K44" t="n">
-        <v>95.42202758789062</v>
+        <v>94.12369537353516</v>
       </c>
     </row>
     <row r="45">
@@ -2106,16 +2106,16 @@
         </is>
       </c>
       <c r="H45" t="n">
-        <v>186.6998901367188</v>
+        <v>185.5542602539062</v>
       </c>
       <c r="I45" t="n">
-        <v>80.17222595214844</v>
+        <v>80.45794677734375</v>
       </c>
       <c r="J45" t="n">
-        <v>220.1109313964844</v>
+        <v>221.1618194580078</v>
       </c>
       <c r="K45" t="n">
-        <v>92.05464935302734</v>
+        <v>94.75464630126953</v>
       </c>
     </row>
     <row r="46">
@@ -2143,16 +2143,16 @@
         </is>
       </c>
       <c r="H46" t="n">
-        <v>194.9481048583984</v>
+        <v>195.1826629638672</v>
       </c>
       <c r="I46" t="n">
-        <v>76.68257904052734</v>
+        <v>77.17362976074219</v>
       </c>
       <c r="J46" t="n">
-        <v>277.8675231933594</v>
+        <v>277.0738220214844</v>
       </c>
       <c r="K46" t="n">
-        <v>100.3335876464844</v>
+        <v>101.1861953735352</v>
       </c>
     </row>
     <row r="47">
@@ -2180,16 +2180,16 @@
         </is>
       </c>
       <c r="H47" t="n">
-        <v>205.79541015625</v>
+        <v>205.4883117675781</v>
       </c>
       <c r="I47" t="n">
-        <v>68.66372680664062</v>
+        <v>69.58602905273438</v>
       </c>
       <c r="J47" t="n">
-        <v>325.3334655761719</v>
+        <v>320.834716796875</v>
       </c>
       <c r="K47" t="n">
-        <v>103.9540023803711</v>
+        <v>106.3027648925781</v>
       </c>
     </row>
     <row r="48">
@@ -2217,16 +2217,16 @@
         </is>
       </c>
       <c r="H48" t="n">
-        <v>244.5794982910156</v>
+        <v>241.5906982421875</v>
       </c>
       <c r="I48" t="n">
-        <v>60.62309646606445</v>
+        <v>60.89207458496094</v>
       </c>
       <c r="J48" t="n">
-        <v>371.305908203125</v>
+        <v>377.0234680175781</v>
       </c>
       <c r="K48" t="n">
-        <v>127.90234375</v>
+        <v>121.3913650512695</v>
       </c>
     </row>
     <row r="49">
@@ -2254,16 +2254,16 @@
         </is>
       </c>
       <c r="H49" t="n">
-        <v>299.6341552734375</v>
+        <v>303.4330749511719</v>
       </c>
       <c r="I49" t="n">
-        <v>60.47223663330078</v>
+        <v>66.00732421875</v>
       </c>
       <c r="J49" t="n">
-        <v>390.9713134765625</v>
+        <v>389.3291015625</v>
       </c>
       <c r="K49" t="n">
-        <v>153.4363403320312</v>
+        <v>148.2005004882812</v>
       </c>
     </row>
     <row r="50">
@@ -2291,16 +2291,16 @@
         </is>
       </c>
       <c r="H50" t="n">
-        <v>159.2455291748047</v>
+        <v>161.3133850097656</v>
       </c>
       <c r="I50" t="n">
-        <v>68.60047149658203</v>
+        <v>69.72293853759766</v>
       </c>
       <c r="J50" t="n">
-        <v>44.75557327270508</v>
+        <v>48.74560928344727</v>
       </c>
       <c r="K50" t="n">
-        <v>77.91690826416016</v>
+        <v>80.71307373046875</v>
       </c>
     </row>
     <row r="51">
@@ -2328,16 +2328,16 @@
         </is>
       </c>
       <c r="H51" t="n">
-        <v>173.2669067382812</v>
+        <v>169.5942993164062</v>
       </c>
       <c r="I51" t="n">
-        <v>67.16519927978516</v>
+        <v>66.17035675048828</v>
       </c>
       <c r="J51" t="n">
-        <v>64.47399139404297</v>
+        <v>64.16419219970703</v>
       </c>
       <c r="K51" t="n">
-        <v>84.19577026367188</v>
+        <v>83.37041473388672</v>
       </c>
     </row>
     <row r="52">
@@ -2365,16 +2365,16 @@
         </is>
       </c>
       <c r="H52" t="n">
-        <v>177.8224029541016</v>
+        <v>177.0987701416016</v>
       </c>
       <c r="I52" t="n">
-        <v>67.68883514404297</v>
+        <v>67.89244079589844</v>
       </c>
       <c r="J52" t="n">
-        <v>79.93403625488281</v>
+        <v>79.24995422363281</v>
       </c>
       <c r="K52" t="n">
-        <v>88.96768951416016</v>
+        <v>83.54000854492188</v>
       </c>
     </row>
     <row r="53">
@@ -2402,16 +2402,16 @@
         </is>
       </c>
       <c r="H53" t="n">
-        <v>185.1746978759766</v>
+        <v>184.9562072753906</v>
       </c>
       <c r="I53" t="n">
-        <v>73.19484710693359</v>
+        <v>72.71703338623047</v>
       </c>
       <c r="J53" t="n">
-        <v>115.4539947509766</v>
+        <v>112.934814453125</v>
       </c>
       <c r="K53" t="n">
-        <v>95.57307434082031</v>
+        <v>94.8934326171875</v>
       </c>
     </row>
     <row r="54">
@@ -2439,16 +2439,16 @@
         </is>
       </c>
       <c r="H54" t="n">
-        <v>188.0433654785156</v>
+        <v>187.9961853027344</v>
       </c>
       <c r="I54" t="n">
-        <v>83.72068023681641</v>
+        <v>81.61128997802734</v>
       </c>
       <c r="J54" t="n">
-        <v>170.385009765625</v>
+        <v>169.5373229980469</v>
       </c>
       <c r="K54" t="n">
-        <v>102.5473861694336</v>
+        <v>99.61688995361328</v>
       </c>
     </row>
     <row r="55">
@@ -2476,16 +2476,16 @@
         </is>
       </c>
       <c r="H55" t="n">
-        <v>197.10986328125</v>
+        <v>197.7929229736328</v>
       </c>
       <c r="I55" t="n">
-        <v>80.97386169433594</v>
+        <v>77.59529876708984</v>
       </c>
       <c r="J55" t="n">
-        <v>223.7048645019531</v>
+        <v>223.3555145263672</v>
       </c>
       <c r="K55" t="n">
-        <v>110.2679214477539</v>
+        <v>107.3046340942383</v>
       </c>
     </row>
     <row r="56">
@@ -2513,16 +2513,16 @@
         </is>
       </c>
       <c r="H56" t="n">
-        <v>206.8026275634766</v>
+        <v>205.5518951416016</v>
       </c>
       <c r="I56" t="n">
-        <v>70.0615234375</v>
+        <v>70.46134948730469</v>
       </c>
       <c r="J56" t="n">
-        <v>294.0538635253906</v>
+        <v>294.5726013183594</v>
       </c>
       <c r="K56" t="n">
-        <v>118.6679534912109</v>
+        <v>113.7310333251953</v>
       </c>
     </row>
     <row r="57">
@@ -2550,16 +2550,16 @@
         </is>
       </c>
       <c r="H57" t="n">
-        <v>238.1395263671875</v>
+        <v>239.1731567382812</v>
       </c>
       <c r="I57" t="n">
-        <v>62.45626449584961</v>
+        <v>61.74514007568359</v>
       </c>
       <c r="J57" t="n">
-        <v>357.2499389648438</v>
+        <v>357.8056030273438</v>
       </c>
       <c r="K57" t="n">
-        <v>131.4341125488281</v>
+        <v>139.3826751708984</v>
       </c>
     </row>
     <row r="58">
@@ -2587,16 +2587,16 @@
         </is>
       </c>
       <c r="H58" t="n">
-        <v>293.2559509277344</v>
+        <v>291.6022033691406</v>
       </c>
       <c r="I58" t="n">
-        <v>57.56070327758789</v>
+        <v>56.85834121704102</v>
       </c>
       <c r="J58" t="n">
-        <v>366.0195922851562</v>
+        <v>365.2480773925781</v>
       </c>
       <c r="K58" t="n">
-        <v>160.1011047363281</v>
+        <v>155.9272766113281</v>
       </c>
     </row>
     <row r="59">
@@ -2624,16 +2624,16 @@
         </is>
       </c>
       <c r="H59" t="n">
-        <v>180.3885498046875</v>
+        <v>182.2720489501953</v>
       </c>
       <c r="I59" t="n">
-        <v>65.48422241210938</v>
+        <v>65.96984100341797</v>
       </c>
       <c r="J59" t="n">
-        <v>27.41884422302246</v>
+        <v>25.5854434967041</v>
       </c>
       <c r="K59" t="n">
-        <v>90.20719909667969</v>
+        <v>92.49791717529297</v>
       </c>
     </row>
     <row r="60">
@@ -2661,16 +2661,16 @@
         </is>
       </c>
       <c r="H60" t="n">
-        <v>186.9551544189453</v>
+        <v>187.8864593505859</v>
       </c>
       <c r="I60" t="n">
-        <v>67.51580810546875</v>
+        <v>67.52245330810547</v>
       </c>
       <c r="J60" t="n">
-        <v>39.27351760864258</v>
+        <v>46.76325988769531</v>
       </c>
       <c r="K60" t="n">
-        <v>93.15215301513672</v>
+        <v>97.68995666503906</v>
       </c>
     </row>
     <row r="61">
@@ -2698,16 +2698,16 @@
         </is>
       </c>
       <c r="H61" t="n">
-        <v>192.3268890380859</v>
+        <v>190.0630798339844</v>
       </c>
       <c r="I61" t="n">
-        <v>72.79459381103516</v>
+        <v>76.22939300537109</v>
       </c>
       <c r="J61" t="n">
-        <v>75.99337005615234</v>
+        <v>77.44632720947266</v>
       </c>
       <c r="K61" t="n">
-        <v>104.0981063842773</v>
+        <v>102.2660751342773</v>
       </c>
     </row>
     <row r="62">
@@ -2735,16 +2735,16 @@
         </is>
       </c>
       <c r="H62" t="n">
-        <v>199.0770874023438</v>
+        <v>195.4569549560547</v>
       </c>
       <c r="I62" t="n">
-        <v>82.03932189941406</v>
+        <v>81.133056640625</v>
       </c>
       <c r="J62" t="n">
-        <v>111.3424224853516</v>
+        <v>108.5727920532227</v>
       </c>
       <c r="K62" t="n">
-        <v>109.3224029541016</v>
+        <v>111.4069595336914</v>
       </c>
     </row>
     <row r="63">
@@ -2772,16 +2772,16 @@
         </is>
       </c>
       <c r="H63" t="n">
-        <v>195.8224029541016</v>
+        <v>196.7585754394531</v>
       </c>
       <c r="I63" t="n">
-        <v>83.61822509765625</v>
+        <v>82.92469024658203</v>
       </c>
       <c r="J63" t="n">
-        <v>171.9196166992188</v>
+        <v>171.4734039306641</v>
       </c>
       <c r="K63" t="n">
-        <v>116.9104385375977</v>
+        <v>117.073112487793</v>
       </c>
     </row>
     <row r="64">
@@ -2809,16 +2809,16 @@
         </is>
       </c>
       <c r="H64" t="n">
-        <v>208.6869659423828</v>
+        <v>206.8016204833984</v>
       </c>
       <c r="I64" t="n">
-        <v>76.0225830078125</v>
+        <v>76.90997314453125</v>
       </c>
       <c r="J64" t="n">
-        <v>250.5262298583984</v>
+        <v>249.2738037109375</v>
       </c>
       <c r="K64" t="n">
-        <v>117.059814453125</v>
+        <v>124.3187484741211</v>
       </c>
     </row>
     <row r="65">
@@ -2846,16 +2846,16 @@
         </is>
       </c>
       <c r="H65" t="n">
-        <v>235.3705139160156</v>
+        <v>237.5238037109375</v>
       </c>
       <c r="I65" t="n">
-        <v>65.06123352050781</v>
+        <v>63.34041976928711</v>
       </c>
       <c r="J65" t="n">
-        <v>325.5566711425781</v>
+        <v>323.3580322265625</v>
       </c>
       <c r="K65" t="n">
-        <v>151.6838073730469</v>
+        <v>153.5553131103516</v>
       </c>
     </row>
     <row r="66">
@@ -2883,16 +2883,16 @@
         </is>
       </c>
       <c r="H66" t="n">
-        <v>198.9470367431641</v>
+        <v>199.8051300048828</v>
       </c>
       <c r="I66" t="n">
-        <v>68.31641387939453</v>
+        <v>63.87922668457031</v>
       </c>
       <c r="J66" t="n">
-        <v>-9.935738563537598</v>
+        <v>-8.720625877380371</v>
       </c>
       <c r="K66" t="n">
-        <v>103.922607421875</v>
+        <v>103.8231048583984</v>
       </c>
     </row>
     <row r="67">
@@ -2920,16 +2920,16 @@
         </is>
       </c>
       <c r="H67" t="n">
-        <v>204.3978881835938</v>
+        <v>205.1896057128906</v>
       </c>
       <c r="I67" t="n">
-        <v>71.54032135009766</v>
+        <v>71.46043395996094</v>
       </c>
       <c r="J67" t="n">
-        <v>19.50603675842285</v>
+        <v>17.97284126281738</v>
       </c>
       <c r="K67" t="n">
-        <v>107.1605758666992</v>
+        <v>107.8688201904297</v>
       </c>
     </row>
     <row r="68">
@@ -2957,16 +2957,16 @@
         </is>
       </c>
       <c r="H68" t="n">
-        <v>205.0345611572266</v>
+        <v>203.7295379638672</v>
       </c>
       <c r="I68" t="n">
-        <v>78.24539947509766</v>
+        <v>79.54303741455078</v>
       </c>
       <c r="J68" t="n">
-        <v>54.44347381591797</v>
+        <v>54.69940185546875</v>
       </c>
       <c r="K68" t="n">
-        <v>114.8360061645508</v>
+        <v>117.0125122070312</v>
       </c>
     </row>
     <row r="69">
@@ -2994,16 +2994,16 @@
         </is>
       </c>
       <c r="H69" t="n">
-        <v>204.7988128662109</v>
+        <v>204.587158203125</v>
       </c>
       <c r="I69" t="n">
-        <v>84.23291015625</v>
+        <v>83.73342895507812</v>
       </c>
       <c r="J69" t="n">
-        <v>114.0315093994141</v>
+        <v>115.627799987793</v>
       </c>
       <c r="K69" t="n">
-        <v>119.8337478637695</v>
+        <v>118.6679611206055</v>
       </c>
     </row>
     <row r="70">
@@ -3031,16 +3031,16 @@
         </is>
       </c>
       <c r="H70" t="n">
-        <v>210.3029937744141</v>
+        <v>212.5706176757812</v>
       </c>
       <c r="I70" t="n">
-        <v>78.11391448974609</v>
+        <v>77.27232360839844</v>
       </c>
       <c r="J70" t="n">
-        <v>199.4719543457031</v>
+        <v>195.8075866699219</v>
       </c>
       <c r="K70" t="n">
-        <v>128.9859313964844</v>
+        <v>129.6976928710938</v>
       </c>
     </row>
   </sheetData>
